--- a/Initial presentation/Codi/PGD/Map_I.xlsx
+++ b/Initial presentation/Codi/PGD/Map_I.xlsx
@@ -26,1819 +26,1819 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="605">
   <si>
-    <t>(1.520994357196908e-05+0j)</t>
-  </si>
-  <si>
-    <t>(-0.05622531106540892+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11383807663300659+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11508975092988644+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11621778278477327+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11720315484627584+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11804281040911498+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11872342562113364+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11924253428955336+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11958843563230415+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11976659800404858+0j)</t>
-  </si>
-  <si>
-    <t>(-2.7895356320639144e-07+0j)</t>
-  </si>
-  <si>
-    <t>(-0.05630765165030448+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11384327473437161+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11513113120324366+0j)</t>
-  </si>
-  <si>
-    <t>(-0.1161968239533718+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11724453661049329+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11811074744053089+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11869478751615195+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11922986526754607+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11951917540246242+0j)</t>
-  </si>
-  <si>
-    <t>(-0.1197328047860344+0j)</t>
-  </si>
-  <si>
-    <t>(3.134168821102383e-05+0j)</t>
-  </si>
-  <si>
-    <t>(-0.05626862069579134+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11387320330385081+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11513865805607487+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11625022943727988+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11724500797776315+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11807795682989623+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11873715912251508+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11924441067444762+0j)</t>
-  </si>
-  <si>
-    <t>(-0.1195815374967622+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11975023823089802+0j)</t>
-  </si>
-  <si>
-    <t>(4.0338973998774055e-05+0j)</t>
-  </si>
-  <si>
-    <t>(-0.0562716735775157+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11389998800673794+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11515084247726637+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11626589107998755+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11723917735672215+0j)</t>
-  </si>
-  <si>
-    <t>(-0.1180563306470447+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11872813003433984+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11922285802757825+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11956844247507892+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11972328893828475+0j)</t>
-  </si>
-  <si>
-    <t>(3.504904795627547e-05+0j)</t>
-  </si>
-  <si>
-    <t>(-0.056301104241168805+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11390799346793318+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11515986065378893+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11624726245808097+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11722660940783348+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11803737554596676+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11867133393368043+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11915650522059412+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11948054455943527+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11963501811410743+0j)</t>
-  </si>
-  <si>
-    <t>(6.0816424026723474e-06+0j)</t>
-  </si>
-  <si>
-    <t>(-0.056277293056530384+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11390210164333629+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11514352748097018+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11624706777673936+0j)</t>
-  </si>
-  <si>
-    <t>(-0.1172186664583+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11803794504774319+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11869571517820914+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11919663927420854+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11953147571965882+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11969919364667336+0j)</t>
-  </si>
-  <si>
-    <t>(0.016986358502878628+0j)</t>
-  </si>
-  <si>
-    <t>(-0.0489805873850887+0j)</t>
-  </si>
-  <si>
-    <t>(-0.10600689902316236+0j)</t>
-  </si>
-  <si>
-    <t>(-0.10422318930432056+0j)</t>
-  </si>
-  <si>
-    <t>(-0.10682406868042141+0j)</t>
-  </si>
-  <si>
-    <t>(-0.10217419556081049+0j)</t>
-  </si>
-  <si>
-    <t>(-0.09838103522758103+0j)</t>
-  </si>
-  <si>
-    <t>(-0.10266550466570674+0j)</t>
-  </si>
-  <si>
-    <t>(-0.09903724657703211+0j)</t>
-  </si>
-  <si>
-    <t>(-0.10192570650717832+0j)</t>
-  </si>
-  <si>
-    <t>(-0.09736447396175128+0j)</t>
-  </si>
-  <si>
-    <t>(0.03365047800316243+0j)</t>
-  </si>
-  <si>
-    <t>(-0.04199048162793154+0j)</t>
-  </si>
-  <si>
-    <t>(-0.09848411595370615+0j)</t>
-  </si>
-  <si>
-    <t>(-0.09385085242921797+0j)</t>
-  </si>
-  <si>
-    <t>(-0.09791413162215183+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08794028917777919+0j)</t>
-  </si>
-  <si>
-    <t>(-0.07978380510880673+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08754165012649225+0j)</t>
-  </si>
-  <si>
-    <t>(-0.0800006650850329+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08532943679713052+0j)</t>
-  </si>
-  <si>
-    <t>(-0.0762748988877007+0j)</t>
-  </si>
-  <si>
-    <t>(0.05005124312042039+0j)</t>
-  </si>
-  <si>
-    <t>(-0.03523315045202937+0j)</t>
-  </si>
-  <si>
-    <t>(-0.09129559152468895+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08394843051729621+0j)</t>
-  </si>
-  <si>
-    <t>(-0.0894697525273556+0j)</t>
-  </si>
-  <si>
-    <t>(-0.07439943112031806+0j)</t>
-  </si>
-  <si>
-    <t>(-0.0620811507716104+0j)</t>
-  </si>
-  <si>
-    <t>(-0.07321641613933286+0j)</t>
-  </si>
-  <si>
-    <t>(-0.061940840486429075+0j)</t>
-  </si>
-  <si>
-    <t>(-0.06963220055160768+0j)</t>
-  </si>
-  <si>
-    <t>(-0.05627362382834421+0j)</t>
-  </si>
-  <si>
-    <t>(0.0662272916545023+0j)</t>
-  </si>
-  <si>
-    <t>(-0.02867527008356797+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08439790367443177+0j)</t>
-  </si>
-  <si>
-    <t>(-0.07445543694752109+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08143327996844635+0j)</t>
-  </si>
-  <si>
-    <t>(-0.06146844966068768+0j)</t>
-  </si>
-  <si>
-    <t>(-0.04517034376644294+0j)</t>
-  </si>
-  <si>
-    <t>(-0.05960019684097266+0j)</t>
-  </si>
-  <si>
-    <t>(-0.04475232129559952+0j)</t>
-  </si>
-  <si>
-    <t>(-0.05473765419074897+0j)</t>
-  </si>
-  <si>
-    <t>(-0.037247339866546436+0j)</t>
-  </si>
-  <si>
-    <t>(-3.0645571255830565e-06+0j)</t>
-  </si>
-  <si>
-    <t>(-0.0562841049339874+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11391162812977111+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11515159958778148+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11625357452225815+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11722476817764971+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11804455997438197+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11870218595137076+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11920487350214896+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11953962864811873+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11970955970622521+0j)</t>
-  </si>
-  <si>
-    <t>(0.03363646928058799+0j)</t>
-  </si>
-  <si>
-    <t>(-0.041976723708144426+0j)</t>
-  </si>
-  <si>
-    <t>(-0.09851040469522813+0j)</t>
-  </si>
-  <si>
-    <t>(-0.09385953519269506+0j)</t>
-  </si>
-  <si>
-    <t>(-0.09794035637593515+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08793800037662651+0j)</t>
-  </si>
-  <si>
-    <t>(-0.07976652343196851+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08755480909959763+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08000446648381959+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08535093641986233+0j)</t>
-  </si>
-  <si>
-    <t>(-0.07628272065046934+0j)</t>
-  </si>
-  <si>
-    <t>(0.06625200234016755+0j)</t>
-  </si>
-  <si>
-    <t>(-0.028703100039367116+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08444060057668334+0j)</t>
-  </si>
-  <si>
-    <t>(-0.074455094882449+0j)</t>
-  </si>
-  <si>
-    <t>(-0.0814035343344426+0j)</t>
-  </si>
-  <si>
-    <t>(-0.061432952167509956+0j)</t>
-  </si>
-  <si>
-    <t>(-0.04515227470001985+0j)</t>
-  </si>
-  <si>
-    <t>(-0.059556299057165196+0j)</t>
-  </si>
-  <si>
-    <t>(-0.04474245098006891+0j)</t>
-  </si>
-  <si>
-    <t>(-0.05470451695549023+0j)</t>
-  </si>
-  <si>
-    <t>(-0.037263968759645265+0j)</t>
-  </si>
-  <si>
-    <t>(0.09800471038317021+0j)</t>
-  </si>
-  <si>
-    <t>(-0.016198040037882618+0j)</t>
-  </si>
-  <si>
-    <t>(-0.07140481535681989+0j)</t>
-  </si>
-  <si>
-    <t>(-0.05649102622386165+0j)</t>
-  </si>
-  <si>
-    <t>(-0.06624458482644928+0j)</t>
-  </si>
-  <si>
-    <t>(-0.03703644071333423+0j)</t>
-  </si>
-  <si>
-    <t>(-0.013296288704325664+0j)</t>
-  </si>
-  <si>
-    <t>(-0.0339628129682091+0j)</t>
-  </si>
-  <si>
-    <t>(-0.012469880255975518+0j)</t>
-  </si>
-  <si>
-    <t>(-0.026769954626712958+0j)</t>
-  </si>
-  <si>
-    <t>(-0.0015927362887075064+0j)</t>
-  </si>
-  <si>
-    <t>(0.1290191882263536+0j)</t>
-  </si>
-  <si>
-    <t>(-0.0042958656308896325+0j)</t>
-  </si>
-  <si>
-    <t>(-0.05917819100468296+0j)</t>
-  </si>
-  <si>
-    <t>(-0.03965589964549434+0j)</t>
-  </si>
-  <si>
-    <t>(-0.052167509187982505+0j)</t>
-  </si>
-  <si>
-    <t>(-0.01429608484931646+0j)</t>
-  </si>
-  <si>
-    <t>(0.01639167003220787+0j)</t>
-  </si>
-  <si>
-    <t>(-0.01026368509364609+0j)</t>
-  </si>
-  <si>
-    <t>(0.017447007509650093+0j)</t>
-  </si>
-  <si>
-    <t>(-0.0009752670864592681+0j)</t>
-  </si>
-  <si>
-    <t>(0.03143790827974477+0j)</t>
-  </si>
-  <si>
-    <t>(-8.874403611585316e-06+0j)</t>
-  </si>
-  <si>
-    <t>(-0.05628118911385663+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11390711725325889+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11514664371182674+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11625020231273256+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11722260907922737+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11804529441783236+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11870575886351391+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11921212854000252+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11954829811681056+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11972122688540934+0j)</t>
-  </si>
-  <si>
-    <t>(0.0500421273690783+0j)</t>
-  </si>
-  <si>
-    <t>(-0.03522991952493074+0j)</t>
-  </si>
-  <si>
-    <t>(-0.09133342724841093+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08395947383697665+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08948898191616739+0j)</t>
-  </si>
-  <si>
-    <t>(-0.07439242303467161+0j)</t>
-  </si>
-  <si>
-    <t>(-0.062066680954184335+0j)</t>
-  </si>
-  <si>
-    <t>(-0.07322278507326666+0j)</t>
-  </si>
-  <si>
-    <t>(-0.06194964789292491+0j)</t>
-  </si>
-  <si>
-    <t>(-0.06965076517606268+0j)</t>
-  </si>
-  <si>
-    <t>(-0.056294989370872704+0j)</t>
-  </si>
-  <si>
-    <t>(0.09801741654367237+0j)</t>
-  </si>
-  <si>
-    <t>(-0.016199233603280454+0j)</t>
-  </si>
-  <si>
-    <t>(-0.07142779591684931+0j)</t>
-  </si>
-  <si>
-    <t>(-0.056498800771986234+0j)</t>
-  </si>
-  <si>
-    <t>(-0.06625415270200219+0j)</t>
-  </si>
-  <si>
-    <t>(-0.03703371661592644+0j)</t>
-  </si>
-  <si>
-    <t>(-0.013291294449098432+0j)</t>
-  </si>
-  <si>
-    <t>(-0.03396529288258145+0j)</t>
-  </si>
-  <si>
-    <t>(-0.012475465813000002+0j)</t>
-  </si>
-  <si>
-    <t>(-0.026778247347774366+0j)</t>
-  </si>
-  <si>
-    <t>(-0.001605354685511758+0j)</t>
-  </si>
-  <si>
-    <t>(0.14430588890792384+0j)</t>
-  </si>
-  <si>
-    <t>(0.0013823442218995207+0j)</t>
-  </si>
-  <si>
-    <t>(-0.05339505555223542+0j)</t>
-  </si>
-  <si>
-    <t>(-0.03164053027272214+0j)</t>
-  </si>
-  <si>
-    <t>(-0.04545471709406198+0j)</t>
-  </si>
-  <si>
-    <t>(-0.003452446509810654+0j)</t>
-  </si>
-  <si>
-    <t>(0.030523482095336108+0j)</t>
-  </si>
-  <si>
-    <t>(0.0010339361564693358+0j)</t>
-  </si>
-  <si>
-    <t>(0.03167329355115392+0j)</t>
-  </si>
-  <si>
-    <t>(0.011308686491546007+0j)</t>
-  </si>
-  <si>
-    <t>(0.04712204026944315+0j)</t>
-  </si>
-  <si>
-    <t>(0.18917348081167482+0j)</t>
-  </si>
-  <si>
-    <t>(0.017874320332652256+0j)</t>
-  </si>
-  <si>
-    <t>(-0.036748992442437706+0j)</t>
-  </si>
-  <si>
-    <t>(-0.008714790930826805+0j)</t>
-  </si>
-  <si>
-    <t>(-0.0264578214742763+0j)</t>
-  </si>
-  <si>
-    <t>(0.02732778644834453+0j)</t>
-  </si>
-  <si>
-    <t>(0.07066187459159942+0j)</t>
-  </si>
-  <si>
-    <t>(0.032881763272052986+0j)</t>
-  </si>
-  <si>
-    <t>(0.0718820846479019+0j)</t>
-  </si>
-  <si>
-    <t>(0.04585654227815718+0j)</t>
-  </si>
-  <si>
-    <t>(0.0914407479784407+0j)</t>
-  </si>
-  <si>
-    <t>(-1.0925078736106354e-05+0j)</t>
-  </si>
-  <si>
-    <t>(-0.05627798952659737+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11390126633736972+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11513965356316322+0j)</t>
-  </si>
-  <si>
-    <t>(-0.1162437639183483+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11721621246163966+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11804002750709378+0j)</t>
-  </si>
-  <si>
-    <t>(-0.1187021751892758+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11921020618558498+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11954728965473793+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11972145421549245+0j)</t>
-  </si>
-  <si>
-    <t>(0.06623297438264367+0j)</t>
-  </si>
-  <si>
-    <t>(-0.02870277531421402+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08444504759179947+0j)</t>
-  </si>
-  <si>
-    <t>(-0.07446329097556142+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08141837846149214+0j)</t>
-  </si>
-  <si>
-    <t>(-0.06144047900979515+0j)</t>
-  </si>
-  <si>
-    <t>(-0.045149878816216314+0j)</t>
-  </si>
-  <si>
-    <t>(-0.05956494349451051+0j)</t>
-  </si>
-  <si>
-    <t>(-0.044739961123137766+0j)</t>
-  </si>
-  <si>
-    <t>(-0.05471094964569728+0j)</t>
-  </si>
-  <si>
-    <t>(-0.03725546896724359+0j)</t>
-  </si>
-  <si>
-    <t>(0.12905486121610638+0j)</t>
-  </si>
-  <si>
-    <t>(-0.004337490051229764+0j)</t>
-  </si>
-  <si>
-    <t>(-0.05923989680213471+0j)</t>
-  </si>
-  <si>
-    <t>(-0.039689582496742495+0j)</t>
-  </si>
-  <si>
-    <t>(-0.05217425076789816+0j)</t>
-  </si>
-  <si>
-    <t>(-0.014300291720769544+0j)</t>
-  </si>
-  <si>
-    <t>(0.01637826334597631+0j)</t>
-  </si>
-  <si>
-    <t>(-0.010249774060322986+0j)</t>
-  </si>
-  <si>
-    <t>(0.01744167978778274+0j)</t>
-  </si>
-  <si>
-    <t>(-0.0009595445741949498+0j)</t>
-  </si>
-  <si>
-    <t>(0.03142150395672302+0j)</t>
-  </si>
-  <si>
-    <t>(0.1892118244015688+0j)</t>
-  </si>
-  <si>
-    <t>(0.017834531840210787+0j)</t>
-  </si>
-  <si>
-    <t>(-0.03679833231337466+0j)</t>
-  </si>
-  <si>
-    <t>(-0.008750691492449857+0j)</t>
-  </si>
-  <si>
-    <t>(-0.026469148930375257+0j)</t>
-  </si>
-  <si>
-    <t>(0.027312548455567902+0j)</t>
-  </si>
-  <si>
-    <t>(0.07064075543758291+0j)</t>
-  </si>
-  <si>
-    <t>(0.03289021526335843+0j)</t>
-  </si>
-  <si>
-    <t>(0.07188043980308771+0j)</t>
-  </si>
-  <si>
-    <t>(0.0458750845753558+0j)</t>
-  </si>
-  <si>
-    <t>(0.09143870013366452+0j)</t>
-  </si>
-  <si>
-    <t>(0.24716356281796525+0j)</t>
-  </si>
-  <si>
-    <t>(0.038404130951797844+0j)</t>
-  </si>
-  <si>
-    <t>(-0.016328177764011333+0j)</t>
-  </si>
-  <si>
-    <t>(0.01944459286816765+0j)</t>
-  </si>
-  <si>
-    <t>(-0.0032762277142564626+0j)</t>
-  </si>
-  <si>
-    <t>(0.06498830246090243+0j)</t>
-  </si>
-  <si>
-    <t>(0.11973327919580248+0j)</t>
-  </si>
-  <si>
-    <t>(0.07165693186749642+0j)</t>
-  </si>
-  <si>
-    <t>(0.12083690772255781+0j)</t>
-  </si>
-  <si>
-    <t>(0.08782378926671931+0j)</t>
-  </si>
-  <si>
-    <t>(0.14533356573667994+0j)</t>
-  </si>
-  <si>
-    <t>(-9.64607421314313e-06+0j)</t>
-  </si>
-  <si>
-    <t>(-0.05627700063229713+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11389835089808331+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11513477283416199+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11623790020473034+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11720892377222425+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11803170815840235+0j)</t>
-  </si>
-  <si>
-    <t>(-0.1186938359378528+0j)</t>
-  </si>
-  <si>
-    <t>(-0.1192012064136974+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11953839817181058+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11971197719947956+0j)</t>
-  </si>
-  <si>
-    <t>(0.08222228235942868+0j)</t>
-  </si>
-  <si>
-    <t>(-0.022369273527209955+0j)</t>
-  </si>
-  <si>
-    <t>(-0.07781506574735127+0j)</t>
-  </si>
-  <si>
-    <t>(-0.06532354586940213+0j)</t>
-  </si>
-  <si>
-    <t>(-0.07368443095815437+0j)</t>
-  </si>
-  <si>
-    <t>(-0.0490086425435999+0j)</t>
-  </si>
-  <si>
-    <t>(-0.028917835873896198+0j)</t>
-  </si>
-  <si>
-    <t>(-0.04649850363208557+0j)</t>
-  </si>
-  <si>
-    <t>(-0.028271159824374472+0j)</t>
-  </si>
-  <si>
-    <t>(-0.04043878531875962+0j)</t>
-  </si>
-  <si>
-    <t>(-0.019047935988865623+0j)</t>
-  </si>
-  <si>
-    <t>(0.15944000929724447+0j)</t>
-  </si>
-  <si>
-    <t>(0.006983702260421095+0j)</t>
-  </si>
-  <si>
-    <t>(-0.04773280831334567+0j)</t>
-  </si>
-  <si>
-    <t>(-0.023824465410454753+0j)</t>
-  </si>
-  <si>
-    <t>(-0.038964770787876+0j)</t>
-  </si>
-  <si>
-    <t>(0.0070719182518254+0j)</t>
-  </si>
-  <si>
-    <t>(0.04425694843395189+0j)</t>
-  </si>
-  <si>
-    <t>(0.011944811258143466+0j)</t>
-  </si>
-  <si>
-    <t>(0.0454500571976253+0j)</t>
-  </si>
-  <si>
-    <t>(0.023154997506613494+0j)</t>
-  </si>
-  <si>
-    <t>(0.062312716850537485+0j)</t>
-  </si>
-  <si>
-    <t>(0.23290325076173898+0j)</t>
-  </si>
-  <si>
-    <t>(0.033373765247750126+0j)</t>
-  </si>
-  <si>
-    <t>(-0.02131766875743345+0j)</t>
-  </si>
-  <si>
-    <t>(0.012590590592131294+0j)</t>
-  </si>
-  <si>
-    <t>(-0.008891767078526928+0j)</t>
-  </si>
-  <si>
-    <t>(0.05586733721230277+0j)</t>
-  </si>
-  <si>
-    <t>(0.10785711545734719+0j)</t>
-  </si>
-  <si>
-    <t>(0.06230647311289842+0j)</t>
-  </si>
-  <si>
-    <t>(0.10902689065122266+0j)</t>
-  </si>
-  <si>
-    <t>(0.07772351317182154+0j)</t>
-  </si>
-  <si>
-    <t>(0.1323416566623039+0j)</t>
-  </si>
-  <si>
-    <t>(0.3033136822320391+0j)</t>
-  </si>
-  <si>
-    <t>(0.057647841913570544+0j)</t>
-  </si>
-  <si>
-    <t>(0.0025541263697139204+0j)</t>
-  </si>
-  <si>
-    <t>(0.04547242827236726+0j)</t>
-  </si>
-  <si>
-    <t>(0.0179889755344319+0j)</t>
-  </si>
-  <si>
-    <t>(0.09963562205817848+0j)</t>
-  </si>
-  <si>
-    <t>(0.1648591201189965+0j)</t>
-  </si>
-  <si>
-    <t>(0.10714007915029472+0j)</t>
-  </si>
-  <si>
-    <t>(0.16566461643786265+0j)</t>
-  </si>
-  <si>
-    <t>(0.126142962793098+0j)</t>
-  </si>
-  <si>
-    <t>(0.194635799578903+0j)</t>
-  </si>
-  <si>
-    <t>(-5.62448265613283e-06+0j)</t>
-  </si>
-  <si>
-    <t>(-0.056278622572305+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11389968061510845+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11513359134789594+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11623457505869401+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11720313125175853+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11802333374425682+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11868402445878273+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11918906898149478+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11952564373227836+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11969742137220711+0j)</t>
-  </si>
-  <si>
-    <t>(0.09801845547772899+0j)</t>
-  </si>
-  <si>
-    <t>(-0.016209418320756213+0j)</t>
-  </si>
-  <si>
-    <t>(-0.0714166024280976+0j)</t>
-  </si>
-  <si>
-    <t>(-0.05650147508308494+0j)</t>
-  </si>
-  <si>
-    <t>(-0.06624998085055475+0j)</t>
-  </si>
-  <si>
-    <t>(-0.03703832295526407+0j)</t>
-  </si>
-  <si>
-    <t>(-0.013292856287507409+0j)</t>
-  </si>
-  <si>
-    <t>(-0.03395616924237615+0j)</t>
-  </si>
-  <si>
-    <t>(-0.012458857581910357+0j)</t>
-  </si>
-  <si>
-    <t>(-0.026758102340855076+0j)</t>
-  </si>
-  <si>
-    <t>(-0.0015776299468494375+0j)</t>
-  </si>
-  <si>
-    <t>(0.18923073409203858+0j)</t>
-  </si>
-  <si>
-    <t>(0.01784042001882269+0j)</t>
-  </si>
-  <si>
-    <t>(-0.03680062502511079+0j)</t>
-  </si>
-  <si>
-    <t>(-0.008755213049942662+0j)</t>
-  </si>
-  <si>
-    <t>(-0.026482136957247285+0j)</t>
-  </si>
-  <si>
-    <t>(0.027303669605484384+0j)</t>
-  </si>
-  <si>
-    <t>(0.07063550576820393+0j)</t>
-  </si>
-  <si>
-    <t>(0.0328736441185502+0j)</t>
-  </si>
-  <si>
-    <t>(0.07186814869304531+0j)</t>
-  </si>
-  <si>
-    <t>(0.04585515289740891+0j)</t>
-  </si>
-  <si>
-    <t>(0.091426503961692+0j)</t>
-  </si>
-  <si>
-    <t>(0.27551577219584167+0j)</t>
-  </si>
-  <si>
-    <t>(0.04815177155134195+0j)</t>
-  </si>
-  <si>
-    <t>(-0.00674946855890232+0j)</t>
-  </si>
-  <si>
-    <t>(0.03266645560153449+0j)</t>
-  </si>
-  <si>
-    <t>(0.007546277146098175+0j)</t>
-  </si>
-  <si>
-    <t>(0.08262776129205776+0j)</t>
-  </si>
-  <si>
-    <t>(0.14272012469574344+0j)</t>
-  </si>
-  <si>
-    <t>(0.0897569205795941+0j)</t>
-  </si>
-  <si>
-    <t>(0.14370602969753982+0j)</t>
-  </si>
-  <si>
-    <t>(0.1073896729036595+0j)</t>
-  </si>
-  <si>
-    <t>(0.1704971029013781+0j)</t>
-  </si>
-  <si>
-    <t>(0.3578609756844291+0j)</t>
-  </si>
-  <si>
-    <t>(0.07584482942845737+0j)</t>
-  </si>
-  <si>
-    <t>(0.02020689435949053+0j)</t>
-  </si>
-  <si>
-    <t>(0.06979749540712896+0j)</t>
-  </si>
-  <si>
-    <t>(0.03773654166470749+0j)</t>
-  </si>
-  <si>
-    <t>(0.1318921527851422+0j)</t>
-  </si>
-  <si>
-    <t>(0.20685931508652242+0j)</t>
-  </si>
-  <si>
-    <t>(0.14003063526685158+0j)</t>
-  </si>
-  <si>
-    <t>(0.207243018927932+0j)</t>
-  </si>
-  <si>
-    <t>(0.16159945212407198+0j)</t>
-  </si>
-  <si>
-    <t>(0.24033069891786174+0j)</t>
-  </si>
-  <si>
-    <t>(6.10029127956492e-07+0j)</t>
-  </si>
-  <si>
-    <t>(-0.056282625897093756+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11390544412039065+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11513664884764124+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11623483075847602+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11720046313683583+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11801733484038802+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11867557383252754+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11917745378199977+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11951282012792465+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11968229884579827+0j)</t>
-  </si>
-  <si>
-    <t>(0.1136283532816192+0j)</t>
-  </si>
-  <si>
-    <t>(-0.01020702360699787+0j)</t>
-  </si>
-  <si>
-    <t>(-0.06522639173911521+0j)</t>
-  </si>
-  <si>
-    <t>(-0.04796486685651061+0j)</t>
-  </si>
-  <si>
-    <t>(-0.0590837473767951+0j)</t>
-  </si>
-  <si>
-    <t>(-0.02548152284089798+0j)</t>
-  </si>
-  <si>
-    <t>(0.001788435358015717+0j)</t>
-  </si>
-  <si>
-    <t>(-0.021882309571835765+0j)</t>
-  </si>
-  <si>
-    <t>(0.0027665646699338298+0j)</t>
-  </si>
-  <si>
-    <t>(-0.013605623209473568+0j)</t>
-  </si>
-  <si>
-    <t>(0.01523389988417831+0j)</t>
-  </si>
-  <si>
-    <t>(0.21847372215198463+0j)</t>
-  </si>
-  <si>
-    <t>(0.028291556696904214+0j)</t>
-  </si>
-  <si>
-    <t>(-0.026362636245495834+0j)</t>
-  </si>
-  <si>
-    <t>(0.005630609505566808+0j)</t>
-  </si>
-  <si>
-    <t>(-0.014618520590821232+0j)</t>
-  </si>
-  <si>
-    <t>(0.04656124032734456+0j)</t>
-  </si>
-  <si>
-    <t>(0.09573301064199594+0j)</t>
-  </si>
-  <si>
-    <t>(0.05272772449304251+0j)</t>
-  </si>
-  <si>
-    <t>(0.09693477127184014+0j)</t>
-  </si>
-  <si>
-    <t>(0.06735734299188563+0j)</t>
-  </si>
-  <si>
-    <t>(0.11903134052993371+0j)</t>
-  </si>
-  <si>
-    <t>(0.3171557735028934+0j)</t>
-  </si>
-  <si>
-    <t>(0.06228074624243236+0j)</t>
-  </si>
-  <si>
-    <t>(0.007053573712006534+0j)</t>
-  </si>
-  <si>
-    <t>(0.05168192111780091+0j)</t>
-  </si>
-  <si>
-    <t>(0.02303770847762359+0j)</t>
-  </si>
-  <si>
-    <t>(0.10789320075925339+0j)</t>
-  </si>
-  <si>
-    <t>(0.17562382389410164+0j)</t>
-  </si>
-  <si>
-    <t>(0.11558035645018522+0j)</t>
-  </si>
-  <si>
-    <t>(0.17634211117186657+0j)</t>
-  </si>
-  <si>
-    <t>(0.1352550045345244+0j)</t>
-  </si>
-  <si>
-    <t>(0.20638059607437534+0j)</t>
-  </si>
-  <si>
-    <t>(0.410987124454015+0j)</t>
-  </si>
-  <si>
-    <t>(0.09316633367461381+0j)</t>
-  </si>
-  <si>
-    <t>(0.036846492646654135+0j)</t>
-  </si>
-  <si>
-    <t>(0.09272051411752459+0j)</t>
-  </si>
-  <si>
-    <t>(0.05624350266282505+0j)</t>
-  </si>
-  <si>
-    <t>(0.16219174032731268+0j)</t>
-  </si>
-  <si>
-    <t>(0.246304640857501+0j)</t>
-  </si>
-  <si>
-    <t>(0.17081218381993182+0j)</t>
-  </si>
-  <si>
-    <t>(0.24617895895273822+0j)</t>
-  </si>
-  <si>
-    <t>(0.1947341319368432+0j)</t>
-  </si>
-  <si>
-    <t>(0.28309657875650834+0j)</t>
-  </si>
-  <si>
-    <t>(8.638046478019225e-06+0j)</t>
-  </si>
-  <si>
-    <t>(-0.056288631282698134+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11391540540300704+0j)</t>
-  </si>
-  <si>
-    <t>(-0.1151440297483036+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11623918574955401+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11720200296607788+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11801554362916632+0j)</t>
-  </si>
-  <si>
-    <t>(-0.1186706536534989+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11916929224561472+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11950296522235251+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11967030868235154+0j)</t>
-  </si>
-  <si>
-    <t>(0.12905830142994726+0j)</t>
-  </si>
-  <si>
-    <t>(-0.004348585163414464+0j)</t>
-  </si>
-  <si>
-    <t>(-0.05922444196027483+0j)</t>
-  </si>
-  <si>
-    <t>(-0.03968660771799902+0j)</t>
-  </si>
-  <si>
-    <t>(-0.0521592689192635+0j)</t>
-  </si>
-  <si>
-    <t>(-0.014298188188148426+0j)</t>
-  </si>
-  <si>
-    <t>(0.016378800762674638+0j)</t>
-  </si>
-  <si>
-    <t>(-0.010230327502433688+0j)</t>
-  </si>
-  <si>
-    <t>(0.017463367394841497+0j)</t>
-  </si>
-  <si>
-    <t>(-0.000928229287426047+0j)</t>
-  </si>
-  <si>
-    <t>(0.03145241439701184+0j)</t>
-  </si>
-  <si>
-    <t>(0.24720795582302316+0j)</t>
-  </si>
-  <si>
-    <t>(0.038383924066133494+0j)</t>
-  </si>
-  <si>
-    <t>(-0.01635557199535554+0j)</t>
-  </si>
-  <si>
-    <t>(0.019420825874920628+0j)</t>
-  </si>
-  <si>
-    <t>(-0.0032903950313702803+0j)</t>
-  </si>
-  <si>
-    <t>(0.06497370373159059+0j)</t>
-  </si>
-  <si>
-    <t>(0.11971949590219279+0j)</t>
-  </si>
-  <si>
-    <t>(0.07165446497652884+0j)</t>
-  </si>
-  <si>
-    <t>(0.12083445015600056+0j)</t>
-  </si>
-  <si>
-    <t>(0.08782823398311072+0j)</t>
-  </si>
-  <si>
-    <t>(0.1453345144163548+0j)</t>
-  </si>
-  <si>
-    <t>(0.357909463594377+0j)</t>
-  </si>
-  <si>
-    <t>(0.07584669476643999+0j)</t>
-  </si>
-  <si>
-    <t>(0.02020237326708487+0j)</t>
-  </si>
-  <si>
-    <t>(0.06979136167266642+0j)</t>
-  </si>
-  <si>
-    <t>(0.03772640819714109+0j)</t>
-  </si>
-  <si>
-    <t>(0.13188785308546674+0j)</t>
-  </si>
-  <si>
-    <t>(0.20686310707047623+0j)</t>
-  </si>
-  <si>
-    <t>(0.1400287959515625+0j)</t>
-  </si>
-  <si>
-    <t>(0.2072508537193756+0j)</t>
-  </si>
-  <si>
-    <t>(0.16160238360103069+0j)</t>
-  </si>
-  <si>
-    <t>(0.24034551853915276+0j)</t>
-  </si>
-  <si>
-    <t>(0.4628362136438125+0j)</t>
-  </si>
-  <si>
-    <t>(0.10974015055646848+0j)</t>
-  </si>
-  <si>
-    <t>(0.05263163077110521+0j)</t>
-  </si>
-  <si>
-    <t>(0.11446221063048494+0j)</t>
-  </si>
-  <si>
-    <t>(0.07371160300358755+0j)</t>
-  </si>
-  <si>
-    <t>(0.19085104460117885+0j)</t>
-  </si>
-  <si>
-    <t>(0.28361116533639824+0j)</t>
-  </si>
-  <si>
-    <t>(0.19983526550381533+0j)</t>
-  </si>
-  <si>
-    <t>(0.28291222649897513+0j)</t>
-  </si>
-  <si>
-    <t>(0.22593775385256765+0j)</t>
-  </si>
-  <si>
-    <t>(0.3234241430647014+0j)</t>
-  </si>
-  <si>
-    <t>(1.8149637071169624e-05+0j)</t>
-  </si>
-  <si>
-    <t>(-0.056296267665422235+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11392918435679683+0j)</t>
-  </si>
-  <si>
-    <t>(-0.1151556187018106+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11624785355118883+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11720845404540516+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11801929378683133+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11867083973386214+0j)</t>
-  </si>
-  <si>
-    <t>(-0.1191667980001185+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11949835954704816+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11966429141001715+0j)</t>
-  </si>
-  <si>
-    <t>(0.14431438451922354+0j)</t>
-  </si>
-  <si>
-    <t>(0.0013773879440492833+0j)</t>
-  </si>
-  <si>
-    <t>(-0.05339356436107544+0j)</t>
-  </si>
-  <si>
-    <t>(-0.03164362710695245+0j)</t>
-  </si>
-  <si>
-    <t>(-0.045454006722450584+0j)</t>
-  </si>
-  <si>
-    <t>(-0.003454422597212593+0j)</t>
-  </si>
-  <si>
-    <t>(0.03052283174627509+0j)</t>
-  </si>
-  <si>
-    <t>(0.001039247336974582+0j)</t>
-  </si>
-  <si>
-    <t>(0.03168088265624985+0j)</t>
-  </si>
-  <si>
-    <t>(0.011319108448023663+0j)</t>
-  </si>
-  <si>
-    <t>(0.04713363595530335+0j)</t>
-  </si>
-  <si>
-    <t>(0.27546676481144644+0j)</t>
-  </si>
-  <si>
-    <t>(0.04815553968417356+0j)</t>
-  </si>
-  <si>
-    <t>(-0.006728697950942046+0j)</t>
-  </si>
-  <si>
-    <t>(0.03268566936970085+0j)</t>
-  </si>
-  <si>
-    <t>(0.007568550226130962+0j)</t>
-  </si>
-  <si>
-    <t>(0.0826437080757524+0j)</t>
-  </si>
-  <si>
-    <t>(0.1427301353997771+0j)</t>
-  </si>
-  <si>
-    <t>(0.08977047911003677+0j)</t>
-  </si>
-  <si>
-    <t>(0.1437132683900883+0j)</t>
-  </si>
-  <si>
-    <t>(0.10739938891504379+0j)</t>
-  </si>
-  <si>
-    <t>(0.17049999387885087+0j)</t>
-  </si>
-  <si>
-    <t>(0.39784843463119224+0j)</t>
-  </si>
-  <si>
-    <t>(0.08891742863684006+0j)</t>
-  </si>
-  <si>
-    <t>(0.03278305761164984+0j)</t>
-  </si>
-  <si>
-    <t>(0.08711460566491992+0j)</t>
-  </si>
-  <si>
-    <t>(0.051723225549796956+0j)</t>
-  </si>
-  <si>
-    <t>(0.15478485296257652+0j)</t>
-  </si>
-  <si>
-    <t>(0.23666553694926268+0j)</t>
-  </si>
-  <si>
-    <t>(0.1632956903774638+0j)</t>
-  </si>
-  <si>
-    <t>(0.23667467515936924+0j)</t>
-  </si>
-  <si>
-    <t>(0.18664835606724703+0j)</t>
-  </si>
-  <si>
-    <t>(0.27266284682077874+0j)</t>
-  </si>
-  <si>
-    <t>(0.5135255893679577+0j)</t>
-  </si>
-  <si>
-    <t>(0.1256648257567948+0j)</t>
-  </si>
-  <si>
-    <t>(0.06768294819390866+0j)</t>
-  </si>
-  <si>
-    <t>(0.13519037803330802+0j)</t>
-  </si>
-  <si>
-    <t>(0.09029318218794163+0j)</t>
-  </si>
-  <si>
-    <t>(0.21810955569363508+0j)</t>
-  </si>
-  <si>
-    <t>(0.3190931694668505+0j)</t>
-  </si>
-  <si>
-    <t>(0.22736342879204827+0j)</t>
-  </si>
-  <si>
-    <t>(0.3177733760347133+0j)</t>
-  </si>
-  <si>
-    <t>(0.25550324492942256+0j)</t>
-  </si>
-  <si>
-    <t>(0.3616816394892024+0j)</t>
-  </si>
-  <si>
-    <t>(2.8927960502851472e-05+0j)</t>
-  </si>
-  <si>
-    <t>(-0.056305218500470454+0j)</t>
-  </si>
-  <si>
-    <t>(-0.1139463728734692+0j)</t>
-  </si>
-  <si>
-    <t>(-0.1151712167093135+0j)</t>
-  </si>
-  <si>
-    <t>(-0.1162608679180659+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11722025555506356+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11802953236709336+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11867723707755022+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11917158839107897+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11950065373363787+0j)</t>
-  </si>
-  <si>
-    <t>(-0.11966635486364834+0j)</t>
-  </si>
-  <si>
-    <t>(0.15940251017277565+0j)</t>
-  </si>
-  <si>
-    <t>(0.006980812646089126+0j)</t>
-  </si>
-  <si>
-    <t>(-0.04771892268957646+0j)</t>
-  </si>
-  <si>
-    <t>(-0.023816107222183008+0j)</t>
-  </si>
-  <si>
-    <t>(-0.03894862103020876+0j)</t>
-  </si>
-  <si>
-    <t>(0.0070787872672185845+0j)</t>
-  </si>
-  <si>
-    <t>(0.0442586692367478+0j)</t>
-  </si>
-  <si>
-    <t>(0.011960179138269432+0j)</t>
-  </si>
-  <si>
-    <t>(0.04546130808179909+0j)</t>
-  </si>
-  <si>
-    <t>(0.023174908337527982+0j)</t>
-  </si>
-  <si>
-    <t>(0.06232523613777708+0j)</t>
-  </si>
-  <si>
-    <t>(0.30327913974743775+0j)</t>
-  </si>
-  <si>
-    <t>(0.05763783387036946+0j)</t>
-  </si>
-  <si>
-    <t>(0.0025594331605961443+0j)</t>
-  </si>
-  <si>
-    <t>(0.04548240092470059+0j)</t>
-  </si>
-  <si>
-    <t>(0.0180120231841103+0j)</t>
-  </si>
-  <si>
-    <t>(0.09965452697989377+0j)</t>
-  </si>
-  <si>
-    <t>(0.16487454203135313+0j)</t>
-  </si>
-  <si>
-    <t>(0.10716990723351383+0j)</t>
-  </si>
-  <si>
-    <t>(0.16568922297672992+0j)</t>
-  </si>
-  <si>
-    <t>(0.12617679988159752+0j)</t>
-  </si>
-  <si>
-    <t>(0.19466011062664706+0j)</t>
-  </si>
-  <si>
-    <t>(0.43703328914986883+0j)</t>
-  </si>
-  <si>
-    <t>(0.10154763907534259+0j)</t>
-  </si>
-  <si>
-    <t>(0.04486416883414648+0j)</t>
-  </si>
-  <si>
-    <t>(0.10374695777026696+0j)</t>
-  </si>
-  <si>
-    <t>(0.06511573532491127+0j)</t>
-  </si>
-  <si>
-    <t>(0.17672124411375514+0j)</t>
-  </si>
-  <si>
-    <t>(0.265211105779141+0j)</t>
-  </si>
-  <si>
-    <t>(0.18553333714008705+0j)</t>
-  </si>
-  <si>
-    <t>(0.26480445927397994+0j)</t>
-  </si>
-  <si>
-    <t>(0.21056297699619225+0j)</t>
-  </si>
-  <si>
-    <t>(0.3035456936493369+0j)</t>
-  </si>
-  <si>
-    <t>(0.5631528522089848+0j)</t>
-  </si>
-  <si>
-    <t>(0.14101835702711862+0j)</t>
-  </si>
-  <si>
-    <t>(0.08209477178059944+0j)</t>
-  </si>
-  <si>
-    <t>(0.1550361746176363+0j)</t>
-  </si>
-  <si>
-    <t>(0.10610663085351739+0j)</t>
-  </si>
-  <si>
-    <t>(0.24415359761291733+0j)</t>
-  </si>
-  <si>
-    <t>(0.3529948755546369+0j)</t>
-  </si>
-  <si>
-    <t>(0.253600659526805+0j)</t>
-  </si>
-  <si>
-    <t>(0.3510181755444845+0j)</t>
-  </si>
-  <si>
-    <t>(0.2836567548941969+0j)</t>
-  </si>
-  <si>
-    <t>(0.3981536121273402+0j)</t>
+    <t>(-0.10107672284163818+0.0011892718926374325j)</t>
+  </si>
+  <si>
+    <t>(-0.10106050588092554-0.0009200398332796695j)</t>
+  </si>
+  <si>
+    <t>(-0.10245663177043864+0.0020631927923490043j)</t>
+  </si>
+  <si>
+    <t>(-0.1037655985604767+0.004846583311394344j)</t>
+  </si>
+  <si>
+    <t>(-0.10474610513181504+0.006686927835102954j)</t>
+  </si>
+  <si>
+    <t>(-0.10537126148352388+0.007611300941655866j)</t>
+  </si>
+  <si>
+    <t>(-0.10524631589133368+0.006773064652520169j)</t>
+  </si>
+  <si>
+    <t>(-0.10589792893461171+0.008015074525492365j)</t>
+  </si>
+  <si>
+    <t>(-0.10570293252964404+0.007395552461778363j)</t>
+  </si>
+  <si>
+    <t>(-0.10588950528167874+0.007718769733541606j)</t>
+  </si>
+  <si>
+    <t>(-0.10591804035905082+0.007748552811192123j)</t>
+  </si>
+  <si>
+    <t>(-0.10197389080838737+0.0003536537062722754j)</t>
+  </si>
+  <si>
+    <t>(-0.10195186224990425+0.0012669262861895497j)</t>
+  </si>
+  <si>
+    <t>(-0.10320489959066034+0.002772432764935484j)</t>
+  </si>
+  <si>
+    <t>(-0.10449651097134845+0.00399948713231736j)</t>
+  </si>
+  <si>
+    <t>(-0.10549810876602145+0.004970458063543289j)</t>
+  </si>
+  <si>
+    <t>(-0.10611777760489699+0.005806410609903435j)</t>
+  </si>
+  <si>
+    <t>(-0.10584306409147831+0.006848417501097786j)</t>
+  </si>
+  <si>
+    <t>(-0.10654087109528787+0.007356613775596144j)</t>
+  </si>
+  <si>
+    <t>(-0.10624234394265952+0.00826477214363793j)</t>
+  </si>
+  <si>
+    <t>(-0.10643490331888646+0.008658807178472777j)</t>
+  </si>
+  <si>
+    <t>(-0.10645830249948131+0.008922253064700616j)</t>
+  </si>
+  <si>
+    <t>(-0.10218318330629042+0.00023676675184075802j)</t>
+  </si>
+  <si>
+    <t>(-0.10224532307852426+0.002270892383833945j)</t>
+  </si>
+  <si>
+    <t>(-0.10351832572530645+0.003230549207919955j)</t>
+  </si>
+  <si>
+    <t>(-0.10481431766575418+0.0038754964765595006j)</t>
+  </si>
+  <si>
+    <t>(-0.1058247461794221+0.004516886695276297j)</t>
+  </si>
+  <si>
+    <t>(-0.1064699628167045+0.005307674875979574j)</t>
+  </si>
+  <si>
+    <t>(-0.10632526216253736+0.006995236126193304j)</t>
+  </si>
+  <si>
+    <t>(-0.10700875360900605+0.007218491046436356j)</t>
+  </si>
+  <si>
+    <t>(-0.10684985533869439+0.008610399675203075j)</t>
+  </si>
+  <si>
+    <t>(-0.10707315226494547+0.008997069178624487j)</t>
+  </si>
+  <si>
+    <t>(-0.10713009591341115+0.009319099955930513j)</t>
+  </si>
+  <si>
+    <t>(-0.10213832482167555+0.000768452722438281j)</t>
+  </si>
+  <si>
+    <t>(-0.10218002179606238+0.0028365213380115942j)</t>
+  </si>
+  <si>
+    <t>(-0.10361186316474284+0.0037350350366546175j)</t>
+  </si>
+  <si>
+    <t>(-0.10499454731661212+0.004330165524481991j)</t>
+  </si>
+  <si>
+    <t>(-0.10605622115735597+0.004938081133625154j)</t>
+  </si>
+  <si>
+    <t>(-0.10674570497706161+0.0056929707968952255j)</t>
+  </si>
+  <si>
+    <t>(-0.10667884824924334+0.007263750049922122j)</t>
+  </si>
+  <si>
+    <t>(-0.10737169667142228+0.0074565779601177195j)</t>
+  </si>
+  <si>
+    <t>(-0.10725234528689039+0.008678880208890863j)</t>
+  </si>
+  <si>
+    <t>(-0.10747786039847064+0.008999500225193427j)</t>
+  </si>
+  <si>
+    <t>(-0.10753553544581122+0.009267257745247975j)</t>
+  </si>
+  <si>
+    <t>(-0.10206166126757454+0.0017990461590579932j)</t>
+  </si>
+  <si>
+    <t>(-0.10201228788453573+0.00325556040990981j)</t>
+  </si>
+  <si>
+    <t>(-0.10365529343986894+0.004362754153397432j)</t>
+  </si>
+  <si>
+    <t>(-0.10516391100106273+0.005212112854635823j)</t>
+  </si>
+  <si>
+    <t>(-0.10630472875541795+0.005952926605936606j)</t>
+  </si>
+  <si>
+    <t>(-0.10704361878007065+0.006668569605685933j)</t>
+  </si>
+  <si>
+    <t>(-0.1069190484308326+0.007667568161035113j)</t>
+  </si>
+  <si>
+    <t>(-0.10765242306258156+0.007972853342925914j)</t>
+  </si>
+  <si>
+    <t>(-0.10737538392316427+0.008645944559645943j)</t>
+  </si>
+  <si>
+    <t>(-0.10755353872375814+0.008866569957623869j)</t>
+  </si>
+  <si>
+    <t>(-0.10755663774151047+0.009016165612058483j)</t>
+  </si>
+  <si>
+    <t>(-0.10114073470256023+0.0011685009317761459j)</t>
+  </si>
+  <si>
+    <t>(-0.10223761495251152+0.0009298890532907531j)</t>
+  </si>
+  <si>
+    <t>(-0.10297419632264018+0.002819553345460143j)</t>
+  </si>
+  <si>
+    <t>(-0.10361800546859852+0.0045696109942899065j)</t>
+  </si>
+  <si>
+    <t>(-0.10421106835506193+0.00586362237974029j)</t>
+  </si>
+  <si>
+    <t>(-0.10474661879416505+0.00670767157037783j)</t>
+  </si>
+  <si>
+    <t>(-0.10522282819405318+0.006715237354296764j)</t>
+  </si>
+  <si>
+    <t>(-0.1055566797387107+0.007563142846824389j)</t>
+  </si>
+  <si>
+    <t>(-0.10580493133957503+0.007502785418818486j)</t>
+  </si>
+  <si>
+    <t>(-0.10596299247081951+0.007792274918578649j)</t>
+  </si>
+  <si>
+    <t>(-0.10603756066948122+0.007875285011706002j)</t>
+  </si>
+  <si>
+    <t>(-0.09703180222863192+0.0008763317834225926j)</t>
+  </si>
+  <si>
+    <t>(-0.08837095985787148+0.0019660004435110845j)</t>
+  </si>
+  <si>
+    <t>(-0.09265335234573087+0.0028477559880119825j)</t>
+  </si>
+  <si>
+    <t>(-0.09845011676006181+0.003699984485337437j)</t>
+  </si>
+  <si>
+    <t>(-0.10249783329019556+0.0045050230863560485j)</t>
+  </si>
+  <si>
+    <t>(-0.10359326699075447+0.005196996790628889j)</t>
+  </si>
+  <si>
+    <t>(-0.09511207309628511+0.005579530379552952j)</t>
+  </si>
+  <si>
+    <t>(-0.09900448598187739+0.006095034557037831j)</t>
+  </si>
+  <si>
+    <t>(-0.0910540315594727+0.006188281610562693j)</t>
+  </si>
+  <si>
+    <t>(-0.09065616824271436+0.006370727990468765j)</t>
+  </si>
+  <si>
+    <t>(-0.08934843761742209+0.006425279650506341j)</t>
+  </si>
+  <si>
+    <t>(-0.09277308047292272+0.0007155418530697558j)</t>
+  </si>
+  <si>
+    <t>(-0.07446733868660405+0.0019224295968475699j)</t>
+  </si>
+  <si>
+    <t>(-0.08231583928012724+0.002451349017888409j)</t>
+  </si>
+  <si>
+    <t>(-0.0932286036964369+0.0030750322570279476j)</t>
+  </si>
+  <si>
+    <t>(-0.10069707791261479+0.003766657711834372j)</t>
+  </si>
+  <si>
+    <t>(-0.10235755593135218+0.004367745869144622j)</t>
+  </si>
+  <si>
+    <t>(-0.08508466186796292+0.004465544799475831j)</t>
+  </si>
+  <si>
+    <t>(-0.09248950285721366+0.004950648263494375j)</t>
+  </si>
+  <si>
+    <t>(-0.07649151856788551+0.004710430642796265j)</t>
+  </si>
+  <si>
+    <t>(-0.07555398310154392+0.004796735944828555j)</t>
+  </si>
+  <si>
+    <t>(-0.0728903609797943+0.00476522838236607j)</t>
+  </si>
+  <si>
+    <t>(-0.08847938461623767+0.0006952777327552251j)</t>
+  </si>
+  <si>
+    <t>(-0.060506709389476866+0.0013906575013852753j)</t>
+  </si>
+  <si>
+    <t>(-0.07198024382365771+0.0019235255720625789j)</t>
+  </si>
+  <si>
+    <t>(-0.08803339307407683+0.0026669955879020306j)</t>
+  </si>
+  <si>
+    <t>(-0.09892809650480475+0.003433429749850608j)</t>
+  </si>
+  <si>
+    <t>(-0.10115923865153695+0.003972858871228649j)</t>
+  </si>
+  <si>
+    <t>(-0.07513564317591123+0.0034901289229062058j)</t>
+  </si>
+  <si>
+    <t>(-0.08604667164095538+0.004085690712459653j)</t>
+  </si>
+  <si>
+    <t>(-0.06204098859100221+0.003318949998622885j)</t>
+  </si>
+  <si>
+    <t>(-0.06056927649165439+0.0033246489794916375j)</t>
+  </si>
+  <si>
+    <t>(-0.056556707209724895+0.0031909937584258933j)</t>
+  </si>
+  <si>
+    <t>(-0.08421112984715282+0.0007887281798058614j)</t>
+  </si>
+  <si>
+    <t>(-0.04658471047714573+0.0006609177111118217j)</t>
+  </si>
+  <si>
+    <t>(-0.06171216112083253+0.0013943600525481083j)</t>
+  </si>
+  <si>
+    <t>(-0.0829048417564534+0.0024331982252775884j)</t>
+  </si>
+  <si>
+    <t>(-0.09721712259573624+0.0033622463941463785j)</t>
+  </si>
+  <si>
+    <t>(-0.10001907072249758+0.0038533488244873815j)</t>
+  </si>
+  <si>
+    <t>(-0.06529654932706537+0.0026936439758456394j)</t>
+  </si>
+  <si>
+    <t>(-0.07969665042697778+0.0034544762813868268j)</t>
+  </si>
+  <si>
+    <t>(-0.04773087081498537+0.0021289265527390504j)</t>
+  </si>
+  <si>
+    <t>(-0.04572815451305268+0.0020728854509134594j)</t>
+  </si>
+  <si>
+    <t>(-0.04037397493860338+0.001843893388899948j)</t>
+  </si>
+  <si>
+    <t>(-0.10118718793325353+0.0011274855727848282j)</t>
+  </si>
+  <si>
+    <t>(-0.10295675190822162+0.002040768391085281j)</t>
+  </si>
+  <si>
+    <t>(-0.10328560914764522+0.0032757242070924563j)</t>
+  </si>
+  <si>
+    <t>(-0.10353240925389445+0.004396016965430549j)</t>
+  </si>
+  <si>
+    <t>(-0.10390148047187585+0.005353263565439226j)</t>
+  </si>
+  <si>
+    <t>(-0.10438946974175375+0.006149854006032253j)</t>
+  </si>
+  <si>
+    <t>(-0.10520885129858366+0.00672011786268202j)</t>
+  </si>
+  <si>
+    <t>(-0.10536599586532455+0.007316145623848048j)</t>
+  </si>
+  <si>
+    <t>(-0.10586306762785874+0.0076541907864650285j)</t>
+  </si>
+  <si>
+    <t>(-0.10600667696216332+0.00793413761991363j)</t>
+  </si>
+  <si>
+    <t>(-0.10610763753140891+0.008063287024340239j)</t>
+  </si>
+  <si>
+    <t>(-0.09233160513748487+0.0012065445446690208j)</t>
+  </si>
+  <si>
+    <t>(-0.07481876260571768+0.0022109966300037673j)</t>
+  </si>
+  <si>
+    <t>(-0.08224347779497072+0.002704050179896114j)</t>
+  </si>
+  <si>
+    <t>(-0.09266162891534112+0.003363901785492439j)</t>
+  </si>
+  <si>
+    <t>(-0.09981732409569409+0.004087998568460517j)</t>
+  </si>
+  <si>
+    <t>(-0.10139669192878886+0.004665848281802145j)</t>
+  </si>
+  <si>
+    <t>(-0.08462617667789189+0.004452466212397982j)</t>
+  </si>
+  <si>
+    <t>(-0.09175968124813379+0.005008683307586586j)</t>
+  </si>
+  <si>
+    <t>(-0.07613269721912518+0.00444519063287877j)</t>
+  </si>
+  <si>
+    <t>(-0.07516438127027718+0.004478731654373651j)</t>
+  </si>
+  <si>
+    <t>(-0.07253446784337071+0.004378509804248525j)</t>
+  </si>
+  <si>
+    <t>(-0.08367219810061904+0.0010042250971965556j)</t>
+  </si>
+  <si>
+    <t>(-0.04696858096388328+0.0015418452840975367j)</t>
+  </si>
+  <si>
+    <t>(-0.06149073829222529+0.0018065409318546554j)</t>
+  </si>
+  <si>
+    <t>(-0.08203663321868385+0.0024011078014870976j)</t>
+  </si>
+  <si>
+    <t>(-0.09593141462234224+0.0030800944726220364j)</t>
+  </si>
+  <si>
+    <t>(-0.09859394074445849+0.0035099498261907357j)</t>
+  </si>
+  <si>
+    <t>(-0.06445816586830896+0.0026394580748185037j)</t>
+  </si>
+  <si>
+    <t>(-0.07850495364020066+0.003236585844445329j)</t>
+  </si>
+  <si>
+    <t>(-0.04703336339485652+0.0020861013106965053j)</t>
+  </si>
+  <si>
+    <t>(-0.04500757702655029+0.0020030469717195543j)</t>
+  </si>
+  <si>
+    <t>(-0.03971455457189897+0.0017823679019542754j)</t>
+  </si>
+  <si>
+    <t>(-0.07511574392686841+0.0006106792908123234j)</t>
+  </si>
+  <si>
+    <t>(-0.019274534216901396+0.000525137314330241j)</t>
+  </si>
+  <si>
+    <t>(-0.04096008966465329+0.0008312480223375949j)</t>
+  </si>
+  <si>
+    <t>(-0.07162463654784545+0.0015161521529651694j)</t>
+  </si>
+  <si>
+    <t>(-0.09222189485852492+0.0022050360691308825j)</t>
+  </si>
+  <si>
+    <t>(-0.09596653405940966+0.0025259896595779437j)</t>
+  </si>
+  <si>
+    <t>(-0.04475089019597976+0.00127259799147618j)</t>
+  </si>
+  <si>
+    <t>(-0.06563904384474328+0.0018912034811476863j)</t>
+  </si>
+  <si>
+    <t>(-0.018680921612614965+0.0005285881020654137j)</t>
+  </si>
+  <si>
+    <t>(-0.015668830878265795+0.00042433641033434597j)</t>
+  </si>
+  <si>
+    <t>(-0.00779941398416842+0.00018172438904685842j)</t>
+  </si>
+  <si>
+    <t>(-0.06662474406730524+9.374024402548608e-05j)</t>
+  </si>
+  <si>
+    <t>(0.008233018274198705-0.00056881350791168j)</t>
+  </si>
+  <si>
+    <t>(-0.020667947796996874-9.576315125281771e-05j)</t>
+  </si>
+  <si>
+    <t>(-0.06141042073145768+0.0007079573596525607j)</t>
+  </si>
+  <si>
+    <t>(-0.08865126664157515+0.0013958262054281035j)</t>
+  </si>
+  <si>
+    <t>(-0.09347532017916518+0.0016287661137906677j)</t>
+  </si>
+  <si>
+    <t>(-0.025537180844267+0.000297235543460435j)</t>
+  </si>
+  <si>
+    <t>(-0.053167718895741775+0.0008767518918409959j)</t>
+  </si>
+  <si>
+    <t>(0.008855936922001139-0.00034598036116338757j)</t>
+  </si>
+  <si>
+    <t>(0.01278004268387955-0.0004037624576099614j)</t>
+  </si>
+  <si>
+    <t>(0.02312951665345682-0.0005875127605846143j)</t>
+  </si>
+  <si>
+    <t>(-0.10120682217703633+0.0010955518235743586j)</t>
+  </si>
+  <si>
+    <t>(-0.10331238098621696+0.002682127209529935j)</t>
+  </si>
+  <si>
+    <t>(-0.10343882721309137+0.00354555929388117j)</t>
+  </si>
+  <si>
+    <t>(-0.10349339125096899+0.0042988523869482665j)</t>
+  </si>
+  <si>
+    <t>(-0.10375763115616828+0.005055357222798195j)</t>
+  </si>
+  <si>
+    <t>(-0.10422767789181496+0.005822564416393956j)</t>
+  </si>
+  <si>
+    <t>(-0.10522121700475619+0.006750330006340259j)</t>
+  </si>
+  <si>
+    <t>(-0.10529735419432976+0.007188516182514363j)</t>
+  </si>
+  <si>
+    <t>(-0.10592538552457348+0.00779523240292096j)</t>
+  </si>
+  <si>
+    <t>(-0.10606757409338584+0.008074741035832281j)</t>
+  </si>
+  <si>
+    <t>(-0.10618538323238733+0.008238746647009059j)</t>
+  </si>
+  <si>
+    <t>(-0.08781610555377022+0.0013648935421708502j)</t>
+  </si>
+  <si>
+    <t>(-0.06124381805877052+0.0021174919151714148j)</t>
+  </si>
+  <si>
+    <t>(-0.07192913475358921+0.002399508232030432j)</t>
+  </si>
+  <si>
+    <t>(-0.08708494643084555+0.002992506939756695j)</t>
+  </si>
+  <si>
+    <t>(-0.09740942661543603+0.0036890449127962065j)</t>
+  </si>
+  <si>
+    <t>(-0.09948231669056143+0.0041751645178933j)</t>
+  </si>
+  <si>
+    <t>(-0.07435650556047772+0.003463740933351659j)</t>
+  </si>
+  <si>
+    <t>(-0.08477398452593973+0.004070454654428746j)</t>
+  </si>
+  <si>
+    <t>(-0.061463149928900666+0.003021070936202937j)</t>
+  </si>
+  <si>
+    <t>(-0.05994705796725914+0.0029597214405697983j)</t>
+  </si>
+  <si>
+    <t>(-0.05600742648109592+0.0027558415253145343j)</t>
+  </si>
+  <si>
+    <t>(-0.07481800034535324+0.0011195847135354448j)</t>
+  </si>
+  <si>
+    <t>(-0.01968949018217124+0.0011394761675116159j)</t>
+  </si>
+  <si>
+    <t>(-0.040990879370296475+0.0012711555581564956j)</t>
+  </si>
+  <si>
+    <t>(-0.07119232097094341+0.0018220331465008625j)</t>
+  </si>
+  <si>
+    <t>(-0.09148706929619503+0.002432713541326583j)</t>
+  </si>
+  <si>
+    <t>(-0.09514373019134162+0.0027077871060346226j)</t>
+  </si>
+  <si>
+    <t>(-0.04441346236499441+0.0013927806051795345j)</t>
+  </si>
+  <si>
+    <t>(-0.06502761032143557+0.001974935013593648j)</t>
+  </si>
+  <si>
+    <t>(-0.01844654448555407+0.0005142354009453952j)</t>
+  </si>
+  <si>
+    <t>(-0.015405886101146102+0.00036870056625884116j)</t>
+  </si>
+  <si>
+    <t>(-0.007574088805078159+9.402165229540542e-05j)</t>
+  </si>
+  <si>
+    <t>(-0.06200779255264545+0.0005169010148523887j)</t>
+  </si>
+  <si>
+    <t>(0.021483992514500734+0.00013924222461331106j)</t>
+  </si>
+  <si>
+    <t>(-0.010546853383061177+0.00030822720920540544j)</t>
+  </si>
+  <si>
+    <t>(-0.05573093800178712+0.0007632763438411511j)</t>
+  </si>
+  <si>
+    <t>(-0.08588623460886402+0.0011907136929069724j)</t>
+  </si>
+  <si>
+    <t>(-0.09111801449000057+0.001294407533551147j)</t>
+  </si>
+  <si>
+    <t>(-0.015490289052178741+0.00025558050914945625j)</t>
+  </si>
+  <si>
+    <t>(-0.04610813666804588+0.0006077026540398452j)</t>
+  </si>
+  <si>
+    <t>(0.022878409441638502-0.00029472318643672336j)</t>
+  </si>
+  <si>
+    <t>(0.027282294854914305-0.0003557916784335619j)</t>
+  </si>
+  <si>
+    <t>(0.03880212724644193-0.000487749580861899j)</t>
+  </si>
+  <si>
+    <t>(-0.04930235350920333-0.00031370452460538126j)</t>
+  </si>
+  <si>
+    <t>(0.06225130001287185-0.0006720853377928133j)</t>
+  </si>
+  <si>
+    <t>(0.019404943277092735-0.0004237439701201801j)</t>
+  </si>
+  <si>
+    <t>(-0.04065024215885002-0.00019819092361179251j)</t>
+  </si>
+  <si>
+    <t>(-0.08052639029962363-7.487803659721778e-05j)</t>
+  </si>
+  <si>
+    <t>(-0.08732479563523605-0.00012143883664344232j)</t>
+  </si>
+  <si>
+    <t>(0.012409400101593731-0.00018462118946306513j)</t>
+  </si>
+  <si>
+    <t>(-0.02798668597784026-0.0002484778516063991j)</t>
+  </si>
+  <si>
+    <t>(0.062484339714716786+0.0001263679958283787j)</t>
+  </si>
+  <si>
+    <t>(0.06809378745515035+0.00025567646642379394j)</t>
+  </si>
+  <si>
+    <t>(0.08309338113834781+0.00041366233860821587j)</t>
+  </si>
+  <si>
+    <t>(-0.10120105229009295+0.0010934095444724659j)</t>
+  </si>
+  <si>
+    <t>(-0.1034021774636233+0.0030203126144848313j)</t>
+  </si>
+  <si>
+    <t>(-0.10347965807300016+0.003698857321897849j)</t>
+  </si>
+  <si>
+    <t>(-0.10348785965004023+0.00426325661631386j)</t>
+  </si>
+  <si>
+    <t>(-0.10372911735982708+0.004912301269410197j)</t>
+  </si>
+  <si>
+    <t>(-0.1042008034460466+0.005660268485977776j)</t>
+  </si>
+  <si>
+    <t>(-0.10526040495833008+0.006781980012205467j)</t>
+  </si>
+  <si>
+    <t>(-0.10531749598834275+0.007130301859279445j)</t>
+  </si>
+  <si>
+    <t>(-0.1060045353070788+0.007889017334311306j)</t>
+  </si>
+  <si>
+    <t>(-0.1061544661963261+0.008168100866729642j)</t>
+  </si>
+  <si>
+    <t>(-0.1062838920105911+0.008352334101446887j)</t>
+  </si>
+  <si>
+    <t>(-0.08344496242516256+0.0013724966065340586j)</t>
+  </si>
+  <si>
+    <t>(-0.047624474270888326+0.0017740895641008153j)</t>
+  </si>
+  <si>
+    <t>(-0.06168504117981893+0.0019795087329717736j)</t>
+  </si>
+  <si>
+    <t>(-0.08168652924954657+0.0025899928217539944j)</t>
+  </si>
+  <si>
+    <t>(-0.09523492577340406+0.0032900219928543124j)</t>
+  </si>
+  <si>
+    <t>(-0.09781093850739014+0.003701245757033507j)</t>
+  </si>
+  <si>
+    <t>(-0.0642840668103739+0.002608948383671836j)</t>
+  </si>
+  <si>
+    <t>(-0.0780215987246767+0.0032602685137194183j)</t>
+  </si>
+  <si>
+    <t>(-0.04703740155924357+0.001898673983909183j)</t>
+  </si>
+  <si>
+    <t>(-0.04499750377027421+0.0017890986588416976j)</t>
+  </si>
+  <si>
+    <t>(-0.03976349725342284+0.0015290958625692607j)</t>
+  </si>
+  <si>
+    <t>(-0.06616457923998027+0.0010798198680139273j)</t>
+  </si>
+  <si>
+    <t>(0.0074113187772674735+0.0007307968174368297j)</t>
+  </si>
+  <si>
+    <t>(-0.020776028220721443+0.0008308670030526331j)</t>
+  </si>
+  <si>
+    <t>(-0.06065773722363775+0.0013159591499439364j)</t>
+  </si>
+  <si>
+    <t>(-0.0873297308874979+0.0018066216777757763j)</t>
+  </si>
+  <si>
+    <t>(-0.09197613327926288+0.00194092742374168j)</t>
+  </si>
+  <si>
+    <t>(-0.024915275414023785+0.0006307093886217861j)</t>
+  </si>
+  <si>
+    <t>(-0.05202675750269418+0.001087216161300304j)</t>
+  </si>
+  <si>
+    <t>(0.009310173592267424-0.00017663541091755982j)</t>
+  </si>
+  <si>
+    <t>(0.013294068019233232-0.00029659812162910037j)</t>
+  </si>
+  <si>
+    <t>(0.02357693906904777-0.0005125191095588004j)</t>
+  </si>
+  <si>
+    <t>(-0.0491262142713294+0.0004161256173218924j)</t>
+  </si>
+  <si>
+    <t>(0.06176497092456266+0.00015015887740568365j)</t>
+  </si>
+  <si>
+    <t>(0.019284877244638156+0.0002410331221856428j)</t>
+  </si>
+  <si>
+    <t>(-0.040311555734392365+0.0003252909619827673j)</t>
+  </si>
+  <si>
+    <t>(-0.07987921794206523+0.0003470886806513844j)</t>
+  </si>
+  <si>
+    <t>(-0.08657435363960134+0.00023740449408289936j)</t>
+  </si>
+  <si>
+    <t>(0.012715100055879449+0.00017995911562675585j)</t>
+  </si>
+  <si>
+    <t>(-0.027393745746858503+4.2205865596538463e-05j)</t>
+  </si>
+  <si>
+    <t>(0.06274898820795233+0.00041227183720179993j)</t>
+  </si>
+  <si>
+    <t>(0.06840823370175043+0.0005107907507402509j)</t>
+  </si>
+  <si>
+    <t>(0.08338638206029306+0.0006570078394684941j)</t>
+  </si>
+  <si>
+    <t>(-0.03224318612203692-0.000462402881166388j)</t>
+  </si>
+  <si>
+    <t>(0.11538326195197794+0.0001373168002355836j)</t>
+  </si>
+  <si>
+    <t>(0.05850411113502743+0.00016314293938934378j)</t>
+  </si>
+  <si>
+    <t>(-0.02057600113296159-0.00045532765650903436j)</t>
+  </si>
+  <si>
+    <t>(-0.07278020539508102-0.0011351276778005428j)</t>
+  </si>
+  <si>
+    <t>(-0.08150398409094534-0.0014725548529616874j)</t>
+  </si>
+  <si>
+    <t>(0.04866806093168778+0.0007764918970993878j)</t>
+  </si>
+  <si>
+    <t>(-0.00403899274462911-0.00026327236467428924j)</t>
+  </si>
+  <si>
+    <t>(0.11337688762556684+0.0027749347787422328j)</t>
+  </si>
+  <si>
+    <t>(0.12046370871606427+0.0032227452964180103j)</t>
+  </si>
+  <si>
+    <t>(0.13979887007016226+0.003931048834764423j)</t>
+  </si>
+  <si>
+    <t>(-0.10117585933941962+0.0011341622895107968j)</t>
+  </si>
+  <si>
+    <t>(-0.10331076642550893+0.0031555218653327396j)</t>
+  </si>
+  <si>
+    <t>(-0.10344656700043693+0.003777427406742958j)</t>
+  </si>
+  <si>
+    <t>(-0.10350609458356869+0.004281099291564212j)</t>
+  </si>
+  <si>
+    <t>(-0.1037773423432795+0.004891545257562298j)</t>
+  </si>
+  <si>
+    <t>(-0.10426267505897212+0.005626412219920983j)</t>
+  </si>
+  <si>
+    <t>(-0.10532085855341239+0.006801523233711149j)</t>
+  </si>
+  <si>
+    <t>(-0.10539685112135548+0.0071140452374708375j)</t>
+  </si>
+  <si>
+    <t>(-0.10609794474801805+0.00791434314559838j)</t>
+  </si>
+  <si>
+    <t>(-0.10626045817875548+0.00818805256632607j)</t>
+  </si>
+  <si>
+    <t>(-0.10639771414568566+0.008375889927315801j)</t>
+  </si>
+  <si>
+    <t>(-0.07918929328232452+0.00124856138733727j)</t>
+  </si>
+  <si>
+    <t>(-0.033954440778300114+0.0012472353617124232j)</t>
+  </si>
+  <si>
+    <t>(-0.05149747142684819+0.001478225528964093j)</t>
+  </si>
+  <si>
+    <t>(-0.07644149462856056+0.002161105602465484j)</t>
+  </si>
+  <si>
+    <t>(-0.09326181721964054+0.0028801721735644014j)</t>
+  </si>
+  <si>
+    <t>(-0.09634994362768409+0.0032292492521568384j)</t>
+  </si>
+  <si>
+    <t>(-0.05439546783914915+0.001882489947313875j)</t>
+  </si>
+  <si>
+    <t>(-0.0714817156955381+0.002562497677730097j)</t>
+  </si>
+  <si>
+    <t>(-0.03285032837056704+0.0010591511827626157j)</t>
+  </si>
+  <si>
+    <t>(-0.030311026258158704+0.0009418632174847735j)</t>
+  </si>
+  <si>
+    <t>(-0.023800157648105422+0.0006695444071642303j)</t>
+  </si>
+  <si>
+    <t>(-0.05767761530913588+0.0009022517783820984j)</t>
+  </si>
+  <si>
+    <t>(0.03436270270041589+0.00033207285402268383j)</t>
+  </si>
+  <si>
+    <t>(-0.0008148889535143911+0.000477237247801346j)</t>
+  </si>
+  <si>
+    <t>(-0.05040148834903904+0.0008673314919944363j)</t>
+  </si>
+  <si>
+    <t>(-0.08343024199744256+0.001188502631215257j)</t>
+  </si>
+  <si>
+    <t>(-0.08906428284434789+0.001193662060430512j)</t>
+  </si>
+  <si>
+    <t>(-0.005929078801502459+0.00027978550602474484j)</t>
+  </si>
+  <si>
+    <t>(-0.03947178843725996+0.0005120702821297277j)</t>
+  </si>
+  <si>
+    <t>(0.036281496086616155-0.00011992987499398266j)</t>
+  </si>
+  <si>
+    <t>(0.04113988857624692-0.00014103666421153547j)</t>
+  </si>
+  <si>
+    <t>(0.05379000498402894-0.00020285236087953763j)</t>
+  </si>
+  <si>
+    <t>(-0.03644808250472091+0.00031008961368244264j)</t>
+  </si>
+  <si>
+    <t>(0.1015801029104035+0.0004929316093092797j)</t>
+  </si>
+  <si>
+    <t>(0.04856890361667742+0.0005447847268658015j)</t>
+  </si>
+  <si>
+    <t>(-0.025327387348962345+0.00014122027981460652j)</t>
+  </si>
+  <si>
+    <t>(-0.07416677390767554-0.00035742717796950963j)</t>
+  </si>
+  <si>
+    <t>(-0.08230416179832346-0.0006751058996302631j)</t>
+  </si>
+  <si>
+    <t>(0.03994359600376726+0.0008562870459827754j)</t>
+  </si>
+  <si>
+    <t>(-0.009432300236641695+5.323912138978555e-05j)</t>
+  </si>
+  <si>
+    <t>(0.1010595974352085+0.0023321169481698655j)</t>
+  </si>
+  <si>
+    <t>(0.10785032942501915+0.0026804015029905045j)</t>
+  </si>
+  <si>
+    <t>(0.12611080182743975+0.003234982076278204j)</t>
+  </si>
+  <si>
+    <t>(-0.015444062683866808-0.00037995316785078073j)</t>
+  </si>
+  <si>
+    <t>(0.16760390122030655+0.0016817720761441932j)</t>
+  </si>
+  <si>
+    <t>(0.09666218074883709+0.0014757390052906275j)</t>
+  </si>
+  <si>
+    <t>(-0.00113573352005166-0.00018780774710664935j)</t>
+  </si>
+  <si>
+    <t>(-0.0653657914600951-0.0018446363761073156j)</t>
+  </si>
+  <si>
+    <t>(-0.0759676163464063-0.0024768431746103746j)</t>
+  </si>
+  <si>
+    <t>(0.083383375257526+0.0028454970934043166j)</t>
+  </si>
+  <si>
+    <t>(0.01879273884781598+0.0005909690135617383j)</t>
+  </si>
+  <si>
+    <t>(0.16178580726796918+0.007058235913160554j)</t>
+  </si>
+  <si>
+    <t>(0.17016864568995338+0.007917636974789304j)</t>
+  </si>
+  <si>
+    <t>(0.19355793559011894+0.009324512528884499j)</t>
+  </si>
+  <si>
+    <t>(-0.10113856205969102+0.001225171593319577j)</t>
+  </si>
+  <si>
+    <t>(-0.10310569439709305+0.003146326252627967j)</t>
+  </si>
+  <si>
+    <t>(-0.10336981393730062+0.0038054820771296852j)</t>
+  </si>
+  <si>
+    <t>(-0.10354140051634748+0.004347853412999759j)</t>
+  </si>
+  <si>
+    <t>(-0.10387428318535538+0.004974982173088113j)</t>
+  </si>
+  <si>
+    <t>(-0.10437977047438098+0.005701103449036971j)</t>
+  </si>
+  <si>
+    <t>(-0.10539567522702507+0.006802250748620381j)</t>
+  </si>
+  <si>
+    <t>(-0.10551188439366314+0.007125829172105498j)</t>
+  </si>
+  <si>
+    <t>(-0.10619770484922564+0.007861104956349245j)</t>
+  </si>
+  <si>
+    <t>(-0.10637381648975647+0.008122159270556805j)</t>
+  </si>
+  <si>
+    <t>(-0.10651525367530078+0.008296105108624306j)</t>
+  </si>
+  <si>
+    <t>(-0.07502794272722013+0.0010097178357315949j)</t>
+  </si>
+  <si>
+    <t>(-0.020234894383674817+0.0005865197682651101j)</t>
+  </si>
+  <si>
+    <t>(-0.0413589786603021+0.000921061987994776j)</t>
+  </si>
+  <si>
+    <t>(-0.07133090751434021+0.0017102210494805198j)</t>
+  </si>
+  <si>
+    <t>(-0.09146406119426595+0.0024531696580361202j)</t>
+  </si>
+  <si>
+    <t>(-0.09507246051471938+0.0027498459043748024j)</t>
+  </si>
+  <si>
+    <t>(-0.044680554467879906+0.0012779232205451126j)</t>
+  </si>
+  <si>
+    <t>(-0.06513725147978482+0.001964493735060998j)</t>
+  </si>
+  <si>
+    <t>(-0.01889774278125794+0.00048323618238549116j)</t>
+  </si>
+  <si>
+    <t>(-0.01588336538344388+0.00039360734675150915j)</t>
+  </si>
+  <si>
+    <t>(-0.008114704056948759+0.00014914800772684582j)</t>
+  </si>
+  <si>
+    <t>(-0.049330894188472973+0.0006025397750774289j)</t>
+  </si>
+  <si>
+    <t>(0.06118494869776032-4.1321440635507946e-05j)</t>
+  </si>
+  <si>
+    <t>(0.01891721280049349+0.00020521833222180157j)</t>
+  </si>
+  <si>
+    <t>(-0.04039734084264441+0.0004647677372159821j)</t>
+  </si>
+  <si>
+    <t>(-0.07976361264078646+0.0005682769075180465j)</t>
+  </si>
+  <si>
+    <t>(-0.08638465315773707+0.00045373701779941977j)</t>
+  </si>
+  <si>
+    <t>(0.01257731111798473+0.0002821738536787024j)</t>
+  </si>
+  <si>
+    <t>(-0.027333759616810283+0.00020091812658763023j)</t>
+  </si>
+  <si>
+    <t>(0.06251129704121036+0.0005789862612096097j)</t>
+  </si>
+  <si>
+    <t>(0.06817876956960385+0.0007183043329478425j)</t>
+  </si>
+  <si>
+    <t>(0.08311640599495135+0.0008922130581486736j)</t>
+  </si>
+  <si>
+    <t>(-0.023954696016830465+0.00020022683743411437j)</t>
+  </si>
+  <si>
+    <t>(0.14094875518851369+0.0011179255672313362j)</t>
+  </si>
+  <si>
+    <t>(0.07734095632120334+0.0011560298132858033j)</t>
+  </si>
+  <si>
+    <t>(-0.01074288737972526+0.0001656581545837986j)</t>
+  </si>
+  <si>
+    <t>(-0.06872097529816079-0.0009467373325846814j)</t>
+  </si>
+  <si>
+    <t>(-0.07828201380874882-0.0014663293598872256j)</t>
+  </si>
+  <si>
+    <t>(0.0662715586446652+0.0021444216868551635j)</t>
+  </si>
+  <si>
+    <t>(0.007836262443137662+0.0005354960426571392j)</t>
+  </si>
+  <si>
+    <t>(0.13793592990515507+0.005231312766917542j)</t>
+  </si>
+  <si>
+    <t>(0.14574586639196818+0.005900497106293868j)</t>
+  </si>
+  <si>
+    <t>(0.16712813908211485+0.0069665466742382985j)</t>
+  </si>
+  <si>
+    <t>(0.001100517649549942-9.142291484480984e-05j)</t>
+  </si>
+  <si>
+    <t>(0.21892370217540336+0.003819028807490672j)</t>
+  </si>
+  <si>
+    <t>(0.13392737858243228+0.0033703549985291256j)</t>
+  </si>
+  <si>
+    <t>(0.017720034672825416+0.0005121277118719716j)</t>
+  </si>
+  <si>
+    <t>(-0.058247909029480766-0.0022474759853626015j)</t>
+  </si>
+  <si>
+    <t>(-0.07068344191425385-0.0031730643865657024j)</t>
+  </si>
+  <si>
+    <t>(0.11669563936854849+0.005782104440387202j)</t>
+  </si>
+  <si>
+    <t>(0.04061589908026288+0.0021411852509644444j)</t>
+  </si>
+  <si>
+    <t>(0.20795285363442054+0.012592875432462935j)</t>
+  </si>
+  <si>
+    <t>(0.21747348044293666+0.013931080422808264j)</t>
+  </si>
+  <si>
+    <t>(0.244666406200654+0.016143154496794467j)</t>
+  </si>
+  <si>
+    <t>(-0.10109626215927983+0.0013697784563567713j)</t>
+  </si>
+  <si>
+    <t>(-0.10283820123709937+0.003025367117195747j)</t>
+  </si>
+  <si>
+    <t>(-0.10327219063445094+0.0037962319596872877j)</t>
+  </si>
+  <si>
+    <t>(-0.10358943316221766+0.004460850616715139j)</t>
+  </si>
+  <si>
+    <t>(-0.10400038647841085+0.005152763069261444j)</t>
+  </si>
+  <si>
+    <t>(-0.1045286612958141+0.005873940678819135j)</t>
+  </si>
+  <si>
+    <t>(-0.10547850563407982+0.006781602595522795j)</t>
+  </si>
+  <si>
+    <t>(-0.10564502057045869+0.0071596036115618945j)</t>
+  </si>
+  <si>
+    <t>(-0.10629503180717324+0.007726232983613446j)</t>
+  </si>
+  <si>
+    <t>(-0.10648271747935693+0.007966608788214626j)</t>
+  </si>
+  <si>
+    <t>(-0.10662429916022967+0.00810906649833741j)</t>
+  </si>
+  <si>
+    <t>(-0.07094500302970383+0.0006700801964488359j)</t>
+  </si>
+  <si>
+    <t>(-0.006470308282021249-0.00017088833949322277j)</t>
+  </si>
+  <si>
+    <t>(-0.03126547317786923+0.0003268666513348737j)</t>
+  </si>
+  <si>
+    <t>(-0.06633996531566708+0.0012410638100780538j)</t>
+  </si>
+  <si>
+    <t>(-0.08982036604726963+0.002005355286277322j)</t>
+  </si>
+  <si>
+    <t>(-0.09395633533038333+0.002257150333819507j)</t>
+  </si>
+  <si>
+    <t>(-0.03513111618490159+0.0007883686002406879j)</t>
+  </si>
+  <si>
+    <t>(-0.05897393137156034+0.001455705144723554j)</t>
+  </si>
+  <si>
+    <t>(-0.005175608050274408+0.0001520411219205888j)</t>
+  </si>
+  <si>
+    <t>(-0.0017101291943271723+0.0001211231745143266j)</t>
+  </si>
+  <si>
+    <t>(0.00729618354241966-5.871744782564584e-05j)</t>
+  </si>
+  <si>
+    <t>(-0.041103956468166634+0.00019455616088091953j)</t>
+  </si>
+  <si>
+    <t>(0.0878923995533116-0.0003754429744318001j)</t>
+  </si>
+  <si>
+    <t>(0.03843999940574797+1.179370946298295e-05j)</t>
+  </si>
+  <si>
+    <t>(-0.030623141252568802+9.974682417856749e-05j)</t>
+  </si>
+  <si>
+    <t>(-0.07630823077147113-6.179591748718256e-05j)</t>
+  </si>
+  <si>
+    <t>(-0.08391654426342256-0.00028850037926873937j)</t>
+  </si>
+  <si>
+    <t>(0.030633185903799952+0.0005916068554343801j)</t>
+  </si>
+  <si>
+    <t>(-0.015586004248958115+0.00011477074781098692j)</t>
+  </si>
+  <si>
+    <t>(0.08804070477319056+0.0018355923999402784j)</t>
+  </si>
+  <si>
+    <t>(0.0944552092341157+0.002187482250009264j)</t>
+  </si>
+  <si>
+    <t>(0.11160463102779312+0.002667731516640223j)</t>
+  </si>
+  <si>
+    <t>(-0.011630355859645109+8.786327499933958e-05j)</t>
+  </si>
+  <si>
+    <t>(0.1798933175922811+0.001987835415294721j)</t>
+  </si>
+  <si>
+    <t>(0.10563553027120254+0.002027159504104397j)</t>
+  </si>
+  <si>
+    <t>(0.0034734514390796284+0.000364243486753876j)</t>
+  </si>
+  <si>
+    <t>(-0.06351865396390353-0.001439532368025645j)</t>
+  </si>
+  <si>
+    <t>(-0.07448695809514674-0.0021547929230308445j)</t>
+  </si>
+  <si>
+    <t>(0.09176886962837634+0.003939034706544554j)</t>
+  </si>
+  <si>
+    <t>(0.02446603653622157+0.0014091286086610174j)</t>
+  </si>
+  <si>
+    <t>(0.17349274576024595+0.008935273580908037j)</t>
+  </si>
+  <si>
+    <t>(0.18221980241522118+0.00998236171044242j)</t>
+  </si>
+  <si>
+    <t>(0.2065772833685739+0.01164299543162779j)</t>
+  </si>
+  <si>
+    <t>(0.017397724884850585+0.0003811779489618428j)</t>
+  </si>
+  <si>
+    <t>(0.26937237642359374+0.006437325913168453j)</t>
+  </si>
+  <si>
+    <t>(0.17035311857783783+0.0057377877682437345j)</t>
+  </si>
+  <si>
+    <t>(0.0360359872877287+0.0015748738229222244j)</t>
+  </si>
+  <si>
+    <t>(-0.051399927847480924-0.0023777495206918292j)</t>
+  </si>
+  <si>
+    <t>(-0.06562832051486332-0.0035916738361511736j)</t>
+  </si>
+  <si>
+    <t>(0.1487317002656694+0.009411469094252686j)</t>
+  </si>
+  <si>
+    <t>(0.06152409266820897+0.0042607731388139385j)</t>
+  </si>
+  <si>
+    <t>(0.25209455776045386+0.019103571282533073j)</t>
+  </si>
+  <si>
+    <t>(0.26261409335811847+0.020970000781092228j)</t>
+  </si>
+  <si>
+    <t>(0.2933873867917366+0.02406483355342968j)</t>
+  </si>
+  <si>
+    <t>(-0.10105518507296991+0.0015686396818661852j)</t>
+  </si>
+  <si>
+    <t>(-0.10254556622663637+0.0028092985717445584j)</t>
+  </si>
+  <si>
+    <t>(-0.10317021617532278+0.0037560607156098946j)</t>
+  </si>
+  <si>
+    <t>(-0.10364756169778858+0.004618330120691686j)</t>
+  </si>
+  <si>
+    <t>(-0.10414256383724105+0.005419697392916077j)</t>
+  </si>
+  <si>
+    <t>(-0.10469361526430766+0.006139844828291873j)</t>
+  </si>
+  <si>
+    <t>(-0.10556416479164209+0.006739359207366818j)</t>
+  </si>
+  <si>
+    <t>(-0.10578376263608025+0.007213709427416518j)</t>
+  </si>
+  <si>
+    <t>(-0.1063820634006242+0.007510762322217612j)</t>
+  </si>
+  <si>
+    <t>(-0.10657704656715325+0.007722605910729245j)</t>
+  </si>
+  <si>
+    <t>(-0.1067141949856758+0.007816351165947526j)</t>
+  </si>
+  <si>
+    <t>(-0.06692818677342498+0.00024156325937399803j)</t>
+  </si>
+  <si>
+    <t>(0.00733368806852656-0.0009968715801409623j)</t>
+  </si>
+  <si>
+    <t>(-0.02121462409521329-0.000290316661961403j)</t>
+  </si>
+  <si>
+    <t>(-0.06145679145804867+0.0007566922778074006j)</t>
+  </si>
+  <si>
+    <t>(-0.08831316851326906+0.0015346863307472139j)</t>
+  </si>
+  <si>
+    <t>(-0.09298319757075255+0.0017474489878151118j)</t>
+  </si>
+  <si>
+    <t>(-0.025740168454171156+0.00040682696229419024j)</t>
+  </si>
+  <si>
+    <t>(-0.05297963179694954+0.0010271248609110314j)</t>
+  </si>
+  <si>
+    <t>(0.008320237224226732+4.7509911782645244e-05j)</t>
+  </si>
+  <si>
+    <t>(0.01221334969990386+0.00010269284803924686j)</t>
+  </si>
+  <si>
+    <t>(0.0224364684805689+2.1073372538082712e-05j)</t>
+  </si>
+  <si>
+    <t>(-0.032980514745155926-0.0003094831985286351j)</t>
+  </si>
+  <si>
+    <t>(0.11449517906407608-0.0006578635504874013j)</t>
+  </si>
+  <si>
+    <t>(0.05776942467112001-0.00010479773086114155j)</t>
+  </si>
+  <si>
+    <t>(-0.021059989838958067-0.00023422780622879422j)</t>
+  </si>
+  <si>
+    <t>(-0.07304523834953844-0.0007077245345830419j)</t>
+  </si>
+  <si>
+    <t>(-0.08164163891238728-0.0010407167484156425j)</t>
+  </si>
+  <si>
+    <t>(0.04826489660021997+0.001170492429837773j)</t>
+  </si>
+  <si>
+    <t>(-0.004204268132812831+0.00022190498120672756j)</t>
+  </si>
+  <si>
+    <t>(0.11290740478245373+0.0035810261231232917j)</t>
+  </si>
+  <si>
+    <t>(0.12001013563690732+0.00418994381747777j)</t>
+  </si>
+  <si>
+    <t>(0.13929933796320415+0.005038183989254528j)</t>
+  </si>
+  <si>
+    <t>(0.000538359344671113-2.565004202798724e-05j)</t>
+  </si>
+  <si>
+    <t>(0.2184365771766974+0.003074967821412182j)</t>
+  </si>
+  <si>
+    <t>(0.13348446870039612+0.0031222345670418243j)</t>
+  </si>
+  <si>
+    <t>(0.0173492382667093+0.0007105404547026624j)</t>
+  </si>
+  <si>
+    <t>(-0.0585403331501077-0.001850833687744307j)</t>
+  </si>
+  <si>
+    <t>(-0.07090142780098878-0.0027556994178568554j)</t>
+  </si>
+  <si>
+    <t>(0.1164976191993877+0.0061595416530418525j)</t>
+  </si>
+  <si>
+    <t>(0.040504689437200536+0.0026123859497719916j)</t>
+  </si>
+  <si>
+    <t>(0.20783164723543257+0.01331101345788614j)</t>
+  </si>
+  <si>
+    <t>(0.21738252830747062+0.014782273440687888j)</t>
+  </si>
+  <si>
+    <t>(0.24458081264176762+0.01710555404748996j)</t>
+  </si>
+  <si>
+    <t>(0.03345570590546598+0.0010189217148014811j)</t>
+  </si>
+  <si>
+    <t>(0.3189890713174064+0.009449795027101606j)</t>
+  </si>
+  <si>
+    <t>(0.20599260985601386+0.008494690034158888j)</t>
+  </si>
+  <si>
+    <t>(0.0538514853624095+0.002946935821489403j)</t>
+  </si>
+  <si>
+    <t>(-0.04480150481552657-0.002262948314159235j)</t>
+  </si>
+  <si>
+    <t>(-0.060785460552525976-0.0037577577012413033j)</t>
+  </si>
+  <si>
+    <t>(0.17960256557716608+0.013604127045341922j)</t>
+  </si>
+  <si>
+    <t>(0.08159714646351103+0.006855000183843875j)</t>
+  </si>
+  <si>
+    <t>(0.2943989152248199+0.026389234604060445j)</t>
+  </si>
+  <si>
+    <t>(0.30579440774895356+0.028820788559516745j)</t>
+  </si>
+  <si>
+    <t>(0.33994809919047925+0.03285532714694568j)</t>
+  </si>
+  <si>
+    <t>(-0.1010204743604085+0.0018206926587592176j)</t>
+  </si>
+  <si>
+    <t>(-0.10225371422289806+0.0025050827391384554j)</t>
+  </si>
+  <si>
+    <t>(-0.10307534452216675+0.003687179585156421j)</t>
+  </si>
+  <si>
+    <t>(-0.10371435830371498+0.0048189299323075484j)</t>
+  </si>
+  <si>
+    <t>(-0.10429254421560072+0.005773149175266567j)</t>
+  </si>
+  <si>
+    <t>(-0.10486463639833453+0.006496626059664537j)</t>
+  </si>
+  <si>
+    <t>(-0.10564868903797334+0.006676497944414568j)</t>
+  </si>
+  <si>
+    <t>(-0.10591966045233682+0.0072887855902374205j)</t>
+  </si>
+  <si>
+    <t>(-0.10645241076398371+0.007217896357925821j)</t>
+  </si>
+  <si>
+    <t>(-0.10664884768653819+0.007394009308396741j)</t>
+  </si>
+  <si>
+    <t>(-0.10677645482027329+0.007422449598075717j)</t>
+  </si>
+  <si>
+    <t>(-0.06296775675951731-0.0002657505491048026j)</t>
+  </si>
+  <si>
+    <t>(0.021171363946941215-0.0018699014619940235j)</t>
+  </si>
+  <si>
+    <t>(-0.011204992951782157-0.0009199429364619079j)</t>
+  </si>
+  <si>
+    <t>(-0.056671628925695175+0.0002595797898144244j)</t>
+  </si>
+  <si>
+    <t>(-0.0869278292642797+0.0010401093143046472j)</t>
+  </si>
+  <si>
+    <t>(-0.09213768783677902+0.0012184157181333332j)</t>
+  </si>
+  <si>
+    <t>(-0.016501546007751042+0.00012639502286933087j)</t>
+  </si>
+  <si>
+    <t>(-0.047143903523991344+0.0006709285836997528j)</t>
+  </si>
+  <si>
+    <t>(0.021594140532438466+0.0001526380709413288j)</t>
+  </si>
+  <si>
+    <t>(0.025891998633453647+0.00031817604644309187j)</t>
+  </si>
+  <si>
+    <t>(0.03731064907572266+0.00036548817734877046j)</t>
+  </si>
+  <si>
+    <t>(-0.02494737656677968-0.0008988105096598229j)</t>
+  </si>
+  <si>
+    <t>(0.14100034169808867-0.0008775891688519979j)</t>
+  </si>
+  <si>
+    <t>(0.07691852054046601-0.00014552863132262018j)</t>
+  </si>
+  <si>
+    <t>(-0.011691610889108273-0.0005421809162986326j)</t>
+  </si>
+  <si>
+    <t>(-0.06995804223526417-0.0013742035491748129j)</t>
+  </si>
+  <si>
+    <t>(-0.07954363265541808-0.0018090363610742534j)</t>
+  </si>
+  <si>
+    <t>(0.06549603249129986+0.0019878332399593576j)</t>
+  </si>
+  <si>
+    <t>(0.006833382710812897+0.0004961675697263033j)</t>
+  </si>
+  <si>
+    <t>(0.13714554785868047+0.005758333559394403j)</t>
+  </si>
+  <si>
+    <t>(0.14488074020580627+0.006662364809513913j)</t>
+  </si>
+  <si>
+    <t>(0.1662411376125751+0.007932822355116083j)</t>
+  </si>
+  <si>
+    <t>(0.01256305176848074-0.00013887094140975492j)</t>
+  </si>
+  <si>
+    <t>(0.2566002952955844+0.004358991106225487j)</t>
+  </si>
+  <si>
+    <t>(0.1609164563318475+0.004413923064551251j)</t>
+  </si>
+  <si>
+    <t>(0.030908562928862213+0.001183875170094029j)</t>
+  </si>
+  <si>
+    <t>(-0.053769421123190664-0.002192991239744409j)</t>
+  </si>
+  <si>
+    <t>(-0.06751045019766326-0.0032817959428194255j)</t>
+  </si>
+  <si>
+    <t>(0.1405122257828167+0.008743134839978378j)</t>
+  </si>
+  <si>
+    <t>(0.05599384838855715+0.004096555587180381j)</t>
+  </si>
+  <si>
+    <t>(0.2410413352316934+0.018255239674937963j)</t>
+  </si>
+  <si>
+    <t>(0.2513302658483894+0.02018858151521081j)</t>
+  </si>
+  <si>
+    <t>(0.2812454751576078+0.023230994852973794j)</t>
+  </si>
+  <si>
+    <t>(0.0492830215885258+0.0018057296549812399j)</t>
+  </si>
+  <si>
+    <t>(0.3678165690588087+0.012789361415029583j)</t>
+  </si>
+  <si>
+    <t>(0.24089621595254682+0.011577055435536106j)</t>
+  </si>
+  <si>
+    <t>(0.07120080249405114+0.004586426144633176j)</t>
+  </si>
+  <si>
+    <t>(-0.0384368844160583-0.0019260066660607275j)</t>
+  </si>
+  <si>
+    <t>(-0.05614249900875132-0.003692755234608636j)</t>
+  </si>
+  <si>
+    <t>(0.2094039341292154+0.018262371655100543j)</t>
+  </si>
+  <si>
+    <t>(0.10090255082953287+0.009851280174183352j)</t>
+  </si>
+  <si>
+    <t>(0.3350268718340239+0.0343001284143412j)</t>
+  </si>
+  <si>
+    <t>(0.34718841615372126+0.03732465611943532j)</t>
+  </si>
+  <si>
+    <t>(0.38454223906901075+0.04234096319143914j)</t>
+  </si>
+  <si>
+    <t>(-0.10099620306909837+0.0021238267001463603j)</t>
+  </si>
+  <si>
+    <t>(-0.10197959616484747+0.002113984965151653j)</t>
+  </si>
+  <si>
+    <t>(-0.10299503052061251+0.0035893245848731894j)</t>
+  </si>
+  <si>
+    <t>(-0.10378921622817447+0.005061421751331855j)</t>
+  </si>
+  <si>
+    <t>(-0.10444559461114339+0.006211802777733115j)</t>
+  </si>
+  <si>
+    <t>(-0.10503594693281758+0.006943558451942423j)</t>
+  </si>
+  <si>
+    <t>(-0.10572918085251756+0.006594500077959895j)</t>
+  </si>
+  <si>
+    <t>(-0.10604736984559465+0.007386526822486757j)</t>
+  </si>
+  <si>
+    <t>(-0.10650116473123411+0.006851792152194242j)</t>
+  </si>
+  <si>
+    <t>(-0.10669220079081501+0.006985854618522442j)</t>
+  </si>
+  <si>
+    <t>(-0.10680470092819071+0.0069331475490920945j)</t>
+  </si>
+  <si>
+    <t>(-0.05905581567312695-0.0008432719206465958j)</t>
+  </si>
+  <si>
+    <t>(0.035037370393712304-0.0027732667310628374j)</t>
+  </si>
+  <si>
+    <t>(-0.001235570230403035-0.0015540149684984505j)</t>
+  </si>
+  <si>
+    <t>(-0.051976294198512234-0.00024828041193911436j)</t>
+  </si>
+  <si>
+    <t>(-0.08565201414712381+0.0005211822465912234j)</t>
+  </si>
+  <si>
+    <t>(-0.09140684569716775+0.0006686233325957533j)</t>
+  </si>
+  <si>
+    <t>(-0.007409665535816607-5.9600615764799805e-05j)</t>
+  </si>
+  <si>
+    <t>(-0.04145762191872127+0.00038022782730082346j)</t>
+  </si>
+  <si>
+    <t>(0.03465061514106603+0.00045155050330785443j)</t>
+  </si>
+  <si>
+    <t>(0.03933094079083767+0.000748983658328169j)</t>
+  </si>
+  <si>
+    <t>(0.051923624527799146+0.0009532976605466174j)</t>
+  </si>
+  <si>
+    <t>(-0.016993699387955946-0.0015638935509643297j)</t>
+  </si>
+  <si>
+    <t>(0.16741265848705508-0.0010249323924945797j)</t>
+  </si>
+  <si>
+    <t>(0.09589801495931481-0.0001108778985736917j)</t>
+  </si>
+  <si>
+    <t>(-0.0025038701797163465-0.0008280422405626685j)</t>
+  </si>
+  <si>
+    <t>(-0.06703193159246269-0.0020649069833608845j)</t>
+  </si>
+  <si>
+    <t>(-0.07760793053546168-0.002598364543781636j)</t>
+  </si>
+  <si>
+    <t>(0.08234768909944387+0.003017713535601308j)</t>
+  </si>
+  <si>
+    <t>(0.017546751917000364+0.0009157301889188162j)</t>
+  </si>
+  <si>
+    <t>(0.16078594281951655+0.008319737540995515j)</t>
+  </si>
+  <si>
+    <t>(0.1691006486645021+0.009551617841904775j)</t>
+  </si>
+  <si>
+    <t>(0.1924667638818499+0.011292278262049751j)</t>
+  </si>
+  <si>
+    <t>(0.024453816224239096-0.00025024749550904015j)</t>
+  </si>
+  <si>
+    <t>(0.29440449422695064+0.0058251472274276975j)</t>
+  </si>
+  <si>
+    <t>(0.18795697310564913+0.005881263944789226j)</t>
+  </si>
+  <si>
+    <t>(0.04417243852899489+0.0017678201306599284j)</t>
+  </si>
+  <si>
+    <t>(-0.04919160432060662-0.0024763493083666886j)</t>
+  </si>
+  <si>
+    <t>(-0.06430106969157905-0.003743952243714388j)</t>
+  </si>
+  <si>
+    <t>(0.16386013555694434+0.011639942595124067j)</t>
+  </si>
+  <si>
+    <t>(0.07096979111790161+0.005822462568560146j)</t>
+  </si>
+  <si>
+    <t>(0.27319885180102293+0.023686133155520137j)</t>
+  </si>
+  <si>
+    <t>(0.28414649572317313+0.02611280305715146j)</t>
+  </si>
+  <si>
+    <t>(0.3166638084872472+0.029921737539384863j)</t>
+  </si>
+  <si>
+    <t>(0.0648882401866887+0.002728032758049538j)</t>
+  </si>
+  <si>
+    <t>(0.415897916832626+0.01640447786855638j)</t>
+  </si>
+  <si>
+    <t>(0.2751103057429707+0.014935376065542594j)</t>
+  </si>
+  <si>
+    <t>(0.0881136553306987+0.006459932611999707j)</t>
+  </si>
+  <si>
+    <t>(-0.03229366538583812-0.0013865993811921452j)</t>
+  </si>
+  <si>
+    <t>(-0.05169016672378711-0.003415505356008665j)</t>
+  </si>
+  <si>
+    <t>(0.23821783714803524+0.023310977905417075j)</t>
+  </si>
+  <si>
+    <t>(0.11949729009476118+0.013192645349560375j)</t>
+  </si>
+  <si>
+    <t>(0.3741155357554581+0.042722454359650296j)</t>
+  </si>
+  <si>
+    <t>(0.3869439314342349+0.046361064562615836j)</t>
+  </si>
+  <si>
+    <t>(0.42733422524956405+0.05239023805108316j)</t>
   </si>
 </sst>
 </file>

--- a/Initial presentation/Codi/PGD/Map_I.xlsx
+++ b/Initial presentation/Codi/PGD/Map_I.xlsx
@@ -26,1819 +26,1819 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="605">
   <si>
-    <t>(-0.10107672284163818+0.0011892718926374325j)</t>
-  </si>
-  <si>
-    <t>(-0.10106050588092554-0.0009200398332796695j)</t>
-  </si>
-  <si>
-    <t>(-0.10245663177043864+0.0020631927923490043j)</t>
-  </si>
-  <si>
-    <t>(-0.1037655985604767+0.004846583311394344j)</t>
-  </si>
-  <si>
-    <t>(-0.10474610513181504+0.006686927835102954j)</t>
-  </si>
-  <si>
-    <t>(-0.10537126148352388+0.007611300941655866j)</t>
-  </si>
-  <si>
-    <t>(-0.10524631589133368+0.006773064652520169j)</t>
-  </si>
-  <si>
-    <t>(-0.10589792893461171+0.008015074525492365j)</t>
-  </si>
-  <si>
-    <t>(-0.10570293252964404+0.007395552461778363j)</t>
-  </si>
-  <si>
-    <t>(-0.10588950528167874+0.007718769733541606j)</t>
-  </si>
-  <si>
-    <t>(-0.10591804035905082+0.007748552811192123j)</t>
-  </si>
-  <si>
-    <t>(-0.10197389080838737+0.0003536537062722754j)</t>
-  </si>
-  <si>
-    <t>(-0.10195186224990425+0.0012669262861895497j)</t>
-  </si>
-  <si>
-    <t>(-0.10320489959066034+0.002772432764935484j)</t>
-  </si>
-  <si>
-    <t>(-0.10449651097134845+0.00399948713231736j)</t>
-  </si>
-  <si>
-    <t>(-0.10549810876602145+0.004970458063543289j)</t>
-  </si>
-  <si>
-    <t>(-0.10611777760489699+0.005806410609903435j)</t>
-  </si>
-  <si>
-    <t>(-0.10584306409147831+0.006848417501097786j)</t>
-  </si>
-  <si>
-    <t>(-0.10654087109528787+0.007356613775596144j)</t>
-  </si>
-  <si>
-    <t>(-0.10624234394265952+0.00826477214363793j)</t>
-  </si>
-  <si>
-    <t>(-0.10643490331888646+0.008658807178472777j)</t>
-  </si>
-  <si>
-    <t>(-0.10645830249948131+0.008922253064700616j)</t>
-  </si>
-  <si>
-    <t>(-0.10218318330629042+0.00023676675184075802j)</t>
-  </si>
-  <si>
-    <t>(-0.10224532307852426+0.002270892383833945j)</t>
-  </si>
-  <si>
-    <t>(-0.10351832572530645+0.003230549207919955j)</t>
-  </si>
-  <si>
-    <t>(-0.10481431766575418+0.0038754964765595006j)</t>
-  </si>
-  <si>
-    <t>(-0.1058247461794221+0.004516886695276297j)</t>
-  </si>
-  <si>
-    <t>(-0.1064699628167045+0.005307674875979574j)</t>
-  </si>
-  <si>
-    <t>(-0.10632526216253736+0.006995236126193304j)</t>
-  </si>
-  <si>
-    <t>(-0.10700875360900605+0.007218491046436356j)</t>
-  </si>
-  <si>
-    <t>(-0.10684985533869439+0.008610399675203075j)</t>
-  </si>
-  <si>
-    <t>(-0.10707315226494547+0.008997069178624487j)</t>
-  </si>
-  <si>
-    <t>(-0.10713009591341115+0.009319099955930513j)</t>
-  </si>
-  <si>
-    <t>(-0.10213832482167555+0.000768452722438281j)</t>
-  </si>
-  <si>
-    <t>(-0.10218002179606238+0.0028365213380115942j)</t>
-  </si>
-  <si>
-    <t>(-0.10361186316474284+0.0037350350366546175j)</t>
-  </si>
-  <si>
-    <t>(-0.10499454731661212+0.004330165524481991j)</t>
-  </si>
-  <si>
-    <t>(-0.10605622115735597+0.004938081133625154j)</t>
-  </si>
-  <si>
-    <t>(-0.10674570497706161+0.0056929707968952255j)</t>
-  </si>
-  <si>
-    <t>(-0.10667884824924334+0.007263750049922122j)</t>
-  </si>
-  <si>
-    <t>(-0.10737169667142228+0.0074565779601177195j)</t>
-  </si>
-  <si>
-    <t>(-0.10725234528689039+0.008678880208890863j)</t>
-  </si>
-  <si>
-    <t>(-0.10747786039847064+0.008999500225193427j)</t>
-  </si>
-  <si>
-    <t>(-0.10753553544581122+0.009267257745247975j)</t>
-  </si>
-  <si>
-    <t>(-0.10206166126757454+0.0017990461590579932j)</t>
-  </si>
-  <si>
-    <t>(-0.10201228788453573+0.00325556040990981j)</t>
-  </si>
-  <si>
-    <t>(-0.10365529343986894+0.004362754153397432j)</t>
-  </si>
-  <si>
-    <t>(-0.10516391100106273+0.005212112854635823j)</t>
-  </si>
-  <si>
-    <t>(-0.10630472875541795+0.005952926605936606j)</t>
-  </si>
-  <si>
-    <t>(-0.10704361878007065+0.006668569605685933j)</t>
-  </si>
-  <si>
-    <t>(-0.1069190484308326+0.007667568161035113j)</t>
-  </si>
-  <si>
-    <t>(-0.10765242306258156+0.007972853342925914j)</t>
-  </si>
-  <si>
-    <t>(-0.10737538392316427+0.008645944559645943j)</t>
-  </si>
-  <si>
-    <t>(-0.10755353872375814+0.008866569957623869j)</t>
-  </si>
-  <si>
-    <t>(-0.10755663774151047+0.009016165612058483j)</t>
-  </si>
-  <si>
-    <t>(-0.10114073470256023+0.0011685009317761459j)</t>
-  </si>
-  <si>
-    <t>(-0.10223761495251152+0.0009298890532907531j)</t>
-  </si>
-  <si>
-    <t>(-0.10297419632264018+0.002819553345460143j)</t>
-  </si>
-  <si>
-    <t>(-0.10361800546859852+0.0045696109942899065j)</t>
-  </si>
-  <si>
-    <t>(-0.10421106835506193+0.00586362237974029j)</t>
-  </si>
-  <si>
-    <t>(-0.10474661879416505+0.00670767157037783j)</t>
-  </si>
-  <si>
-    <t>(-0.10522282819405318+0.006715237354296764j)</t>
-  </si>
-  <si>
-    <t>(-0.1055566797387107+0.007563142846824389j)</t>
-  </si>
-  <si>
-    <t>(-0.10580493133957503+0.007502785418818486j)</t>
-  </si>
-  <si>
-    <t>(-0.10596299247081951+0.007792274918578649j)</t>
-  </si>
-  <si>
-    <t>(-0.10603756066948122+0.007875285011706002j)</t>
-  </si>
-  <si>
-    <t>(-0.09703180222863192+0.0008763317834225926j)</t>
-  </si>
-  <si>
-    <t>(-0.08837095985787148+0.0019660004435110845j)</t>
-  </si>
-  <si>
-    <t>(-0.09265335234573087+0.0028477559880119825j)</t>
-  </si>
-  <si>
-    <t>(-0.09845011676006181+0.003699984485337437j)</t>
-  </si>
-  <si>
-    <t>(-0.10249783329019556+0.0045050230863560485j)</t>
-  </si>
-  <si>
-    <t>(-0.10359326699075447+0.005196996790628889j)</t>
-  </si>
-  <si>
-    <t>(-0.09511207309628511+0.005579530379552952j)</t>
-  </si>
-  <si>
-    <t>(-0.09900448598187739+0.006095034557037831j)</t>
-  </si>
-  <si>
-    <t>(-0.0910540315594727+0.006188281610562693j)</t>
-  </si>
-  <si>
-    <t>(-0.09065616824271436+0.006370727990468765j)</t>
-  </si>
-  <si>
-    <t>(-0.08934843761742209+0.006425279650506341j)</t>
-  </si>
-  <si>
-    <t>(-0.09277308047292272+0.0007155418530697558j)</t>
-  </si>
-  <si>
-    <t>(-0.07446733868660405+0.0019224295968475699j)</t>
-  </si>
-  <si>
-    <t>(-0.08231583928012724+0.002451349017888409j)</t>
-  </si>
-  <si>
-    <t>(-0.0932286036964369+0.0030750322570279476j)</t>
-  </si>
-  <si>
-    <t>(-0.10069707791261479+0.003766657711834372j)</t>
-  </si>
-  <si>
-    <t>(-0.10235755593135218+0.004367745869144622j)</t>
-  </si>
-  <si>
-    <t>(-0.08508466186796292+0.004465544799475831j)</t>
-  </si>
-  <si>
-    <t>(-0.09248950285721366+0.004950648263494375j)</t>
-  </si>
-  <si>
-    <t>(-0.07649151856788551+0.004710430642796265j)</t>
-  </si>
-  <si>
-    <t>(-0.07555398310154392+0.004796735944828555j)</t>
-  </si>
-  <si>
-    <t>(-0.0728903609797943+0.00476522838236607j)</t>
-  </si>
-  <si>
-    <t>(-0.08847938461623767+0.0006952777327552251j)</t>
-  </si>
-  <si>
-    <t>(-0.060506709389476866+0.0013906575013852753j)</t>
-  </si>
-  <si>
-    <t>(-0.07198024382365771+0.0019235255720625789j)</t>
-  </si>
-  <si>
-    <t>(-0.08803339307407683+0.0026669955879020306j)</t>
-  </si>
-  <si>
-    <t>(-0.09892809650480475+0.003433429749850608j)</t>
-  </si>
-  <si>
-    <t>(-0.10115923865153695+0.003972858871228649j)</t>
-  </si>
-  <si>
-    <t>(-0.07513564317591123+0.0034901289229062058j)</t>
-  </si>
-  <si>
-    <t>(-0.08604667164095538+0.004085690712459653j)</t>
-  </si>
-  <si>
-    <t>(-0.06204098859100221+0.003318949998622885j)</t>
-  </si>
-  <si>
-    <t>(-0.06056927649165439+0.0033246489794916375j)</t>
-  </si>
-  <si>
-    <t>(-0.056556707209724895+0.0031909937584258933j)</t>
-  </si>
-  <si>
-    <t>(-0.08421112984715282+0.0007887281798058614j)</t>
-  </si>
-  <si>
-    <t>(-0.04658471047714573+0.0006609177111118217j)</t>
-  </si>
-  <si>
-    <t>(-0.06171216112083253+0.0013943600525481083j)</t>
-  </si>
-  <si>
-    <t>(-0.0829048417564534+0.0024331982252775884j)</t>
-  </si>
-  <si>
-    <t>(-0.09721712259573624+0.0033622463941463785j)</t>
-  </si>
-  <si>
-    <t>(-0.10001907072249758+0.0038533488244873815j)</t>
-  </si>
-  <si>
-    <t>(-0.06529654932706537+0.0026936439758456394j)</t>
-  </si>
-  <si>
-    <t>(-0.07969665042697778+0.0034544762813868268j)</t>
-  </si>
-  <si>
-    <t>(-0.04773087081498537+0.0021289265527390504j)</t>
-  </si>
-  <si>
-    <t>(-0.04572815451305268+0.0020728854509134594j)</t>
-  </si>
-  <si>
-    <t>(-0.04037397493860338+0.001843893388899948j)</t>
-  </si>
-  <si>
-    <t>(-0.10118718793325353+0.0011274855727848282j)</t>
-  </si>
-  <si>
-    <t>(-0.10295675190822162+0.002040768391085281j)</t>
-  </si>
-  <si>
-    <t>(-0.10328560914764522+0.0032757242070924563j)</t>
-  </si>
-  <si>
-    <t>(-0.10353240925389445+0.004396016965430549j)</t>
-  </si>
-  <si>
-    <t>(-0.10390148047187585+0.005353263565439226j)</t>
-  </si>
-  <si>
-    <t>(-0.10438946974175375+0.006149854006032253j)</t>
-  </si>
-  <si>
-    <t>(-0.10520885129858366+0.00672011786268202j)</t>
-  </si>
-  <si>
-    <t>(-0.10536599586532455+0.007316145623848048j)</t>
-  </si>
-  <si>
-    <t>(-0.10586306762785874+0.0076541907864650285j)</t>
-  </si>
-  <si>
-    <t>(-0.10600667696216332+0.00793413761991363j)</t>
-  </si>
-  <si>
-    <t>(-0.10610763753140891+0.008063287024340239j)</t>
-  </si>
-  <si>
-    <t>(-0.09233160513748487+0.0012065445446690208j)</t>
-  </si>
-  <si>
-    <t>(-0.07481876260571768+0.0022109966300037673j)</t>
-  </si>
-  <si>
-    <t>(-0.08224347779497072+0.002704050179896114j)</t>
-  </si>
-  <si>
-    <t>(-0.09266162891534112+0.003363901785492439j)</t>
-  </si>
-  <si>
-    <t>(-0.09981732409569409+0.004087998568460517j)</t>
-  </si>
-  <si>
-    <t>(-0.10139669192878886+0.004665848281802145j)</t>
-  </si>
-  <si>
-    <t>(-0.08462617667789189+0.004452466212397982j)</t>
-  </si>
-  <si>
-    <t>(-0.09175968124813379+0.005008683307586586j)</t>
-  </si>
-  <si>
-    <t>(-0.07613269721912518+0.00444519063287877j)</t>
-  </si>
-  <si>
-    <t>(-0.07516438127027718+0.004478731654373651j)</t>
-  </si>
-  <si>
-    <t>(-0.07253446784337071+0.004378509804248525j)</t>
-  </si>
-  <si>
-    <t>(-0.08367219810061904+0.0010042250971965556j)</t>
-  </si>
-  <si>
-    <t>(-0.04696858096388328+0.0015418452840975367j)</t>
-  </si>
-  <si>
-    <t>(-0.06149073829222529+0.0018065409318546554j)</t>
-  </si>
-  <si>
-    <t>(-0.08203663321868385+0.0024011078014870976j)</t>
-  </si>
-  <si>
-    <t>(-0.09593141462234224+0.0030800944726220364j)</t>
-  </si>
-  <si>
-    <t>(-0.09859394074445849+0.0035099498261907357j)</t>
-  </si>
-  <si>
-    <t>(-0.06445816586830896+0.0026394580748185037j)</t>
-  </si>
-  <si>
-    <t>(-0.07850495364020066+0.003236585844445329j)</t>
-  </si>
-  <si>
-    <t>(-0.04703336339485652+0.0020861013106965053j)</t>
-  </si>
-  <si>
-    <t>(-0.04500757702655029+0.0020030469717195543j)</t>
-  </si>
-  <si>
-    <t>(-0.03971455457189897+0.0017823679019542754j)</t>
-  </si>
-  <si>
-    <t>(-0.07511574392686841+0.0006106792908123234j)</t>
-  </si>
-  <si>
-    <t>(-0.019274534216901396+0.000525137314330241j)</t>
-  </si>
-  <si>
-    <t>(-0.04096008966465329+0.0008312480223375949j)</t>
-  </si>
-  <si>
-    <t>(-0.07162463654784545+0.0015161521529651694j)</t>
-  </si>
-  <si>
-    <t>(-0.09222189485852492+0.0022050360691308825j)</t>
-  </si>
-  <si>
-    <t>(-0.09596653405940966+0.0025259896595779437j)</t>
-  </si>
-  <si>
-    <t>(-0.04475089019597976+0.00127259799147618j)</t>
-  </si>
-  <si>
-    <t>(-0.06563904384474328+0.0018912034811476863j)</t>
-  </si>
-  <si>
-    <t>(-0.018680921612614965+0.0005285881020654137j)</t>
-  </si>
-  <si>
-    <t>(-0.015668830878265795+0.00042433641033434597j)</t>
-  </si>
-  <si>
-    <t>(-0.00779941398416842+0.00018172438904685842j)</t>
-  </si>
-  <si>
-    <t>(-0.06662474406730524+9.374024402548608e-05j)</t>
-  </si>
-  <si>
-    <t>(0.008233018274198705-0.00056881350791168j)</t>
-  </si>
-  <si>
-    <t>(-0.020667947796996874-9.576315125281771e-05j)</t>
-  </si>
-  <si>
-    <t>(-0.06141042073145768+0.0007079573596525607j)</t>
-  </si>
-  <si>
-    <t>(-0.08865126664157515+0.0013958262054281035j)</t>
-  </si>
-  <si>
-    <t>(-0.09347532017916518+0.0016287661137906677j)</t>
-  </si>
-  <si>
-    <t>(-0.025537180844267+0.000297235543460435j)</t>
-  </si>
-  <si>
-    <t>(-0.053167718895741775+0.0008767518918409959j)</t>
-  </si>
-  <si>
-    <t>(0.008855936922001139-0.00034598036116338757j)</t>
-  </si>
-  <si>
-    <t>(0.01278004268387955-0.0004037624576099614j)</t>
-  </si>
-  <si>
-    <t>(0.02312951665345682-0.0005875127605846143j)</t>
-  </si>
-  <si>
-    <t>(-0.10120682217703633+0.0010955518235743586j)</t>
-  </si>
-  <si>
-    <t>(-0.10331238098621696+0.002682127209529935j)</t>
-  </si>
-  <si>
-    <t>(-0.10343882721309137+0.00354555929388117j)</t>
-  </si>
-  <si>
-    <t>(-0.10349339125096899+0.0042988523869482665j)</t>
-  </si>
-  <si>
-    <t>(-0.10375763115616828+0.005055357222798195j)</t>
-  </si>
-  <si>
-    <t>(-0.10422767789181496+0.005822564416393956j)</t>
-  </si>
-  <si>
-    <t>(-0.10522121700475619+0.006750330006340259j)</t>
-  </si>
-  <si>
-    <t>(-0.10529735419432976+0.007188516182514363j)</t>
-  </si>
-  <si>
-    <t>(-0.10592538552457348+0.00779523240292096j)</t>
-  </si>
-  <si>
-    <t>(-0.10606757409338584+0.008074741035832281j)</t>
-  </si>
-  <si>
-    <t>(-0.10618538323238733+0.008238746647009059j)</t>
-  </si>
-  <si>
-    <t>(-0.08781610555377022+0.0013648935421708502j)</t>
-  </si>
-  <si>
-    <t>(-0.06124381805877052+0.0021174919151714148j)</t>
-  </si>
-  <si>
-    <t>(-0.07192913475358921+0.002399508232030432j)</t>
-  </si>
-  <si>
-    <t>(-0.08708494643084555+0.002992506939756695j)</t>
-  </si>
-  <si>
-    <t>(-0.09740942661543603+0.0036890449127962065j)</t>
-  </si>
-  <si>
-    <t>(-0.09948231669056143+0.0041751645178933j)</t>
-  </si>
-  <si>
-    <t>(-0.07435650556047772+0.003463740933351659j)</t>
-  </si>
-  <si>
-    <t>(-0.08477398452593973+0.004070454654428746j)</t>
-  </si>
-  <si>
-    <t>(-0.061463149928900666+0.003021070936202937j)</t>
-  </si>
-  <si>
-    <t>(-0.05994705796725914+0.0029597214405697983j)</t>
-  </si>
-  <si>
-    <t>(-0.05600742648109592+0.0027558415253145343j)</t>
-  </si>
-  <si>
-    <t>(-0.07481800034535324+0.0011195847135354448j)</t>
-  </si>
-  <si>
-    <t>(-0.01968949018217124+0.0011394761675116159j)</t>
-  </si>
-  <si>
-    <t>(-0.040990879370296475+0.0012711555581564956j)</t>
-  </si>
-  <si>
-    <t>(-0.07119232097094341+0.0018220331465008625j)</t>
-  </si>
-  <si>
-    <t>(-0.09148706929619503+0.002432713541326583j)</t>
-  </si>
-  <si>
-    <t>(-0.09514373019134162+0.0027077871060346226j)</t>
-  </si>
-  <si>
-    <t>(-0.04441346236499441+0.0013927806051795345j)</t>
-  </si>
-  <si>
-    <t>(-0.06502761032143557+0.001974935013593648j)</t>
-  </si>
-  <si>
-    <t>(-0.01844654448555407+0.0005142354009453952j)</t>
-  </si>
-  <si>
-    <t>(-0.015405886101146102+0.00036870056625884116j)</t>
-  </si>
-  <si>
-    <t>(-0.007574088805078159+9.402165229540542e-05j)</t>
-  </si>
-  <si>
-    <t>(-0.06200779255264545+0.0005169010148523887j)</t>
-  </si>
-  <si>
-    <t>(0.021483992514500734+0.00013924222461331106j)</t>
-  </si>
-  <si>
-    <t>(-0.010546853383061177+0.00030822720920540544j)</t>
-  </si>
-  <si>
-    <t>(-0.05573093800178712+0.0007632763438411511j)</t>
-  </si>
-  <si>
-    <t>(-0.08588623460886402+0.0011907136929069724j)</t>
-  </si>
-  <si>
-    <t>(-0.09111801449000057+0.001294407533551147j)</t>
-  </si>
-  <si>
-    <t>(-0.015490289052178741+0.00025558050914945625j)</t>
-  </si>
-  <si>
-    <t>(-0.04610813666804588+0.0006077026540398452j)</t>
-  </si>
-  <si>
-    <t>(0.022878409441638502-0.00029472318643672336j)</t>
-  </si>
-  <si>
-    <t>(0.027282294854914305-0.0003557916784335619j)</t>
-  </si>
-  <si>
-    <t>(0.03880212724644193-0.000487749580861899j)</t>
-  </si>
-  <si>
-    <t>(-0.04930235350920333-0.00031370452460538126j)</t>
-  </si>
-  <si>
-    <t>(0.06225130001287185-0.0006720853377928133j)</t>
-  </si>
-  <si>
-    <t>(0.019404943277092735-0.0004237439701201801j)</t>
-  </si>
-  <si>
-    <t>(-0.04065024215885002-0.00019819092361179251j)</t>
-  </si>
-  <si>
-    <t>(-0.08052639029962363-7.487803659721778e-05j)</t>
-  </si>
-  <si>
-    <t>(-0.08732479563523605-0.00012143883664344232j)</t>
-  </si>
-  <si>
-    <t>(0.012409400101593731-0.00018462118946306513j)</t>
-  </si>
-  <si>
-    <t>(-0.02798668597784026-0.0002484778516063991j)</t>
-  </si>
-  <si>
-    <t>(0.062484339714716786+0.0001263679958283787j)</t>
-  </si>
-  <si>
-    <t>(0.06809378745515035+0.00025567646642379394j)</t>
-  </si>
-  <si>
-    <t>(0.08309338113834781+0.00041366233860821587j)</t>
-  </si>
-  <si>
-    <t>(-0.10120105229009295+0.0010934095444724659j)</t>
-  </si>
-  <si>
-    <t>(-0.1034021774636233+0.0030203126144848313j)</t>
-  </si>
-  <si>
-    <t>(-0.10347965807300016+0.003698857321897849j)</t>
-  </si>
-  <si>
-    <t>(-0.10348785965004023+0.00426325661631386j)</t>
-  </si>
-  <si>
-    <t>(-0.10372911735982708+0.004912301269410197j)</t>
-  </si>
-  <si>
-    <t>(-0.1042008034460466+0.005660268485977776j)</t>
-  </si>
-  <si>
-    <t>(-0.10526040495833008+0.006781980012205467j)</t>
-  </si>
-  <si>
-    <t>(-0.10531749598834275+0.007130301859279445j)</t>
-  </si>
-  <si>
-    <t>(-0.1060045353070788+0.007889017334311306j)</t>
-  </si>
-  <si>
-    <t>(-0.1061544661963261+0.008168100866729642j)</t>
-  </si>
-  <si>
-    <t>(-0.1062838920105911+0.008352334101446887j)</t>
-  </si>
-  <si>
-    <t>(-0.08344496242516256+0.0013724966065340586j)</t>
-  </si>
-  <si>
-    <t>(-0.047624474270888326+0.0017740895641008153j)</t>
-  </si>
-  <si>
-    <t>(-0.06168504117981893+0.0019795087329717736j)</t>
-  </si>
-  <si>
-    <t>(-0.08168652924954657+0.0025899928217539944j)</t>
-  </si>
-  <si>
-    <t>(-0.09523492577340406+0.0032900219928543124j)</t>
-  </si>
-  <si>
-    <t>(-0.09781093850739014+0.003701245757033507j)</t>
-  </si>
-  <si>
-    <t>(-0.0642840668103739+0.002608948383671836j)</t>
-  </si>
-  <si>
-    <t>(-0.0780215987246767+0.0032602685137194183j)</t>
-  </si>
-  <si>
-    <t>(-0.04703740155924357+0.001898673983909183j)</t>
-  </si>
-  <si>
-    <t>(-0.04499750377027421+0.0017890986588416976j)</t>
-  </si>
-  <si>
-    <t>(-0.03976349725342284+0.0015290958625692607j)</t>
-  </si>
-  <si>
-    <t>(-0.06616457923998027+0.0010798198680139273j)</t>
-  </si>
-  <si>
-    <t>(0.0074113187772674735+0.0007307968174368297j)</t>
-  </si>
-  <si>
-    <t>(-0.020776028220721443+0.0008308670030526331j)</t>
-  </si>
-  <si>
-    <t>(-0.06065773722363775+0.0013159591499439364j)</t>
-  </si>
-  <si>
-    <t>(-0.0873297308874979+0.0018066216777757763j)</t>
-  </si>
-  <si>
-    <t>(-0.09197613327926288+0.00194092742374168j)</t>
-  </si>
-  <si>
-    <t>(-0.024915275414023785+0.0006307093886217861j)</t>
-  </si>
-  <si>
-    <t>(-0.05202675750269418+0.001087216161300304j)</t>
-  </si>
-  <si>
-    <t>(0.009310173592267424-0.00017663541091755982j)</t>
-  </si>
-  <si>
-    <t>(0.013294068019233232-0.00029659812162910037j)</t>
-  </si>
-  <si>
-    <t>(0.02357693906904777-0.0005125191095588004j)</t>
-  </si>
-  <si>
-    <t>(-0.0491262142713294+0.0004161256173218924j)</t>
-  </si>
-  <si>
-    <t>(0.06176497092456266+0.00015015887740568365j)</t>
-  </si>
-  <si>
-    <t>(0.019284877244638156+0.0002410331221856428j)</t>
-  </si>
-  <si>
-    <t>(-0.040311555734392365+0.0003252909619827673j)</t>
-  </si>
-  <si>
-    <t>(-0.07987921794206523+0.0003470886806513844j)</t>
-  </si>
-  <si>
-    <t>(-0.08657435363960134+0.00023740449408289936j)</t>
-  </si>
-  <si>
-    <t>(0.012715100055879449+0.00017995911562675585j)</t>
-  </si>
-  <si>
-    <t>(-0.027393745746858503+4.2205865596538463e-05j)</t>
-  </si>
-  <si>
-    <t>(0.06274898820795233+0.00041227183720179993j)</t>
-  </si>
-  <si>
-    <t>(0.06840823370175043+0.0005107907507402509j)</t>
-  </si>
-  <si>
-    <t>(0.08338638206029306+0.0006570078394684941j)</t>
-  </si>
-  <si>
-    <t>(-0.03224318612203692-0.000462402881166388j)</t>
-  </si>
-  <si>
-    <t>(0.11538326195197794+0.0001373168002355836j)</t>
-  </si>
-  <si>
-    <t>(0.05850411113502743+0.00016314293938934378j)</t>
-  </si>
-  <si>
-    <t>(-0.02057600113296159-0.00045532765650903436j)</t>
-  </si>
-  <si>
-    <t>(-0.07278020539508102-0.0011351276778005428j)</t>
-  </si>
-  <si>
-    <t>(-0.08150398409094534-0.0014725548529616874j)</t>
-  </si>
-  <si>
-    <t>(0.04866806093168778+0.0007764918970993878j)</t>
-  </si>
-  <si>
-    <t>(-0.00403899274462911-0.00026327236467428924j)</t>
-  </si>
-  <si>
-    <t>(0.11337688762556684+0.0027749347787422328j)</t>
-  </si>
-  <si>
-    <t>(0.12046370871606427+0.0032227452964180103j)</t>
-  </si>
-  <si>
-    <t>(0.13979887007016226+0.003931048834764423j)</t>
-  </si>
-  <si>
-    <t>(-0.10117585933941962+0.0011341622895107968j)</t>
-  </si>
-  <si>
-    <t>(-0.10331076642550893+0.0031555218653327396j)</t>
-  </si>
-  <si>
-    <t>(-0.10344656700043693+0.003777427406742958j)</t>
-  </si>
-  <si>
-    <t>(-0.10350609458356869+0.004281099291564212j)</t>
-  </si>
-  <si>
-    <t>(-0.1037773423432795+0.004891545257562298j)</t>
-  </si>
-  <si>
-    <t>(-0.10426267505897212+0.005626412219920983j)</t>
-  </si>
-  <si>
-    <t>(-0.10532085855341239+0.006801523233711149j)</t>
-  </si>
-  <si>
-    <t>(-0.10539685112135548+0.0071140452374708375j)</t>
-  </si>
-  <si>
-    <t>(-0.10609794474801805+0.00791434314559838j)</t>
-  </si>
-  <si>
-    <t>(-0.10626045817875548+0.00818805256632607j)</t>
-  </si>
-  <si>
-    <t>(-0.10639771414568566+0.008375889927315801j)</t>
-  </si>
-  <si>
-    <t>(-0.07918929328232452+0.00124856138733727j)</t>
-  </si>
-  <si>
-    <t>(-0.033954440778300114+0.0012472353617124232j)</t>
-  </si>
-  <si>
-    <t>(-0.05149747142684819+0.001478225528964093j)</t>
-  </si>
-  <si>
-    <t>(-0.07644149462856056+0.002161105602465484j)</t>
-  </si>
-  <si>
-    <t>(-0.09326181721964054+0.0028801721735644014j)</t>
-  </si>
-  <si>
-    <t>(-0.09634994362768409+0.0032292492521568384j)</t>
-  </si>
-  <si>
-    <t>(-0.05439546783914915+0.001882489947313875j)</t>
-  </si>
-  <si>
-    <t>(-0.0714817156955381+0.002562497677730097j)</t>
-  </si>
-  <si>
-    <t>(-0.03285032837056704+0.0010591511827626157j)</t>
-  </si>
-  <si>
-    <t>(-0.030311026258158704+0.0009418632174847735j)</t>
-  </si>
-  <si>
-    <t>(-0.023800157648105422+0.0006695444071642303j)</t>
-  </si>
-  <si>
-    <t>(-0.05767761530913588+0.0009022517783820984j)</t>
-  </si>
-  <si>
-    <t>(0.03436270270041589+0.00033207285402268383j)</t>
-  </si>
-  <si>
-    <t>(-0.0008148889535143911+0.000477237247801346j)</t>
-  </si>
-  <si>
-    <t>(-0.05040148834903904+0.0008673314919944363j)</t>
-  </si>
-  <si>
-    <t>(-0.08343024199744256+0.001188502631215257j)</t>
-  </si>
-  <si>
-    <t>(-0.08906428284434789+0.001193662060430512j)</t>
-  </si>
-  <si>
-    <t>(-0.005929078801502459+0.00027978550602474484j)</t>
-  </si>
-  <si>
-    <t>(-0.03947178843725996+0.0005120702821297277j)</t>
-  </si>
-  <si>
-    <t>(0.036281496086616155-0.00011992987499398266j)</t>
-  </si>
-  <si>
-    <t>(0.04113988857624692-0.00014103666421153547j)</t>
-  </si>
-  <si>
-    <t>(0.05379000498402894-0.00020285236087953763j)</t>
-  </si>
-  <si>
-    <t>(-0.03644808250472091+0.00031008961368244264j)</t>
-  </si>
-  <si>
-    <t>(0.1015801029104035+0.0004929316093092797j)</t>
-  </si>
-  <si>
-    <t>(0.04856890361667742+0.0005447847268658015j)</t>
-  </si>
-  <si>
-    <t>(-0.025327387348962345+0.00014122027981460652j)</t>
-  </si>
-  <si>
-    <t>(-0.07416677390767554-0.00035742717796950963j)</t>
-  </si>
-  <si>
-    <t>(-0.08230416179832346-0.0006751058996302631j)</t>
-  </si>
-  <si>
-    <t>(0.03994359600376726+0.0008562870459827754j)</t>
-  </si>
-  <si>
-    <t>(-0.009432300236641695+5.323912138978555e-05j)</t>
-  </si>
-  <si>
-    <t>(0.1010595974352085+0.0023321169481698655j)</t>
-  </si>
-  <si>
-    <t>(0.10785032942501915+0.0026804015029905045j)</t>
-  </si>
-  <si>
-    <t>(0.12611080182743975+0.003234982076278204j)</t>
-  </si>
-  <si>
-    <t>(-0.015444062683866808-0.00037995316785078073j)</t>
-  </si>
-  <si>
-    <t>(0.16760390122030655+0.0016817720761441932j)</t>
-  </si>
-  <si>
-    <t>(0.09666218074883709+0.0014757390052906275j)</t>
-  </si>
-  <si>
-    <t>(-0.00113573352005166-0.00018780774710664935j)</t>
-  </si>
-  <si>
-    <t>(-0.0653657914600951-0.0018446363761073156j)</t>
-  </si>
-  <si>
-    <t>(-0.0759676163464063-0.0024768431746103746j)</t>
-  </si>
-  <si>
-    <t>(0.083383375257526+0.0028454970934043166j)</t>
-  </si>
-  <si>
-    <t>(0.01879273884781598+0.0005909690135617383j)</t>
-  </si>
-  <si>
-    <t>(0.16178580726796918+0.007058235913160554j)</t>
-  </si>
-  <si>
-    <t>(0.17016864568995338+0.007917636974789304j)</t>
-  </si>
-  <si>
-    <t>(0.19355793559011894+0.009324512528884499j)</t>
-  </si>
-  <si>
-    <t>(-0.10113856205969102+0.001225171593319577j)</t>
-  </si>
-  <si>
-    <t>(-0.10310569439709305+0.003146326252627967j)</t>
-  </si>
-  <si>
-    <t>(-0.10336981393730062+0.0038054820771296852j)</t>
-  </si>
-  <si>
-    <t>(-0.10354140051634748+0.004347853412999759j)</t>
-  </si>
-  <si>
-    <t>(-0.10387428318535538+0.004974982173088113j)</t>
-  </si>
-  <si>
-    <t>(-0.10437977047438098+0.005701103449036971j)</t>
-  </si>
-  <si>
-    <t>(-0.10539567522702507+0.006802250748620381j)</t>
-  </si>
-  <si>
-    <t>(-0.10551188439366314+0.007125829172105498j)</t>
-  </si>
-  <si>
-    <t>(-0.10619770484922564+0.007861104956349245j)</t>
-  </si>
-  <si>
-    <t>(-0.10637381648975647+0.008122159270556805j)</t>
-  </si>
-  <si>
-    <t>(-0.10651525367530078+0.008296105108624306j)</t>
-  </si>
-  <si>
-    <t>(-0.07502794272722013+0.0010097178357315949j)</t>
-  </si>
-  <si>
-    <t>(-0.020234894383674817+0.0005865197682651101j)</t>
-  </si>
-  <si>
-    <t>(-0.0413589786603021+0.000921061987994776j)</t>
-  </si>
-  <si>
-    <t>(-0.07133090751434021+0.0017102210494805198j)</t>
-  </si>
-  <si>
-    <t>(-0.09146406119426595+0.0024531696580361202j)</t>
-  </si>
-  <si>
-    <t>(-0.09507246051471938+0.0027498459043748024j)</t>
-  </si>
-  <si>
-    <t>(-0.044680554467879906+0.0012779232205451126j)</t>
-  </si>
-  <si>
-    <t>(-0.06513725147978482+0.001964493735060998j)</t>
-  </si>
-  <si>
-    <t>(-0.01889774278125794+0.00048323618238549116j)</t>
-  </si>
-  <si>
-    <t>(-0.01588336538344388+0.00039360734675150915j)</t>
-  </si>
-  <si>
-    <t>(-0.008114704056948759+0.00014914800772684582j)</t>
-  </si>
-  <si>
-    <t>(-0.049330894188472973+0.0006025397750774289j)</t>
-  </si>
-  <si>
-    <t>(0.06118494869776032-4.1321440635507946e-05j)</t>
-  </si>
-  <si>
-    <t>(0.01891721280049349+0.00020521833222180157j)</t>
-  </si>
-  <si>
-    <t>(-0.04039734084264441+0.0004647677372159821j)</t>
-  </si>
-  <si>
-    <t>(-0.07976361264078646+0.0005682769075180465j)</t>
-  </si>
-  <si>
-    <t>(-0.08638465315773707+0.00045373701779941977j)</t>
-  </si>
-  <si>
-    <t>(0.01257731111798473+0.0002821738536787024j)</t>
-  </si>
-  <si>
-    <t>(-0.027333759616810283+0.00020091812658763023j)</t>
-  </si>
-  <si>
-    <t>(0.06251129704121036+0.0005789862612096097j)</t>
-  </si>
-  <si>
-    <t>(0.06817876956960385+0.0007183043329478425j)</t>
-  </si>
-  <si>
-    <t>(0.08311640599495135+0.0008922130581486736j)</t>
-  </si>
-  <si>
-    <t>(-0.023954696016830465+0.00020022683743411437j)</t>
-  </si>
-  <si>
-    <t>(0.14094875518851369+0.0011179255672313362j)</t>
-  </si>
-  <si>
-    <t>(0.07734095632120334+0.0011560298132858033j)</t>
-  </si>
-  <si>
-    <t>(-0.01074288737972526+0.0001656581545837986j)</t>
-  </si>
-  <si>
-    <t>(-0.06872097529816079-0.0009467373325846814j)</t>
-  </si>
-  <si>
-    <t>(-0.07828201380874882-0.0014663293598872256j)</t>
-  </si>
-  <si>
-    <t>(0.0662715586446652+0.0021444216868551635j)</t>
-  </si>
-  <si>
-    <t>(0.007836262443137662+0.0005354960426571392j)</t>
-  </si>
-  <si>
-    <t>(0.13793592990515507+0.005231312766917542j)</t>
-  </si>
-  <si>
-    <t>(0.14574586639196818+0.005900497106293868j)</t>
-  </si>
-  <si>
-    <t>(0.16712813908211485+0.0069665466742382985j)</t>
-  </si>
-  <si>
-    <t>(0.001100517649549942-9.142291484480984e-05j)</t>
-  </si>
-  <si>
-    <t>(0.21892370217540336+0.003819028807490672j)</t>
-  </si>
-  <si>
-    <t>(0.13392737858243228+0.0033703549985291256j)</t>
-  </si>
-  <si>
-    <t>(0.017720034672825416+0.0005121277118719716j)</t>
-  </si>
-  <si>
-    <t>(-0.058247909029480766-0.0022474759853626015j)</t>
-  </si>
-  <si>
-    <t>(-0.07068344191425385-0.0031730643865657024j)</t>
-  </si>
-  <si>
-    <t>(0.11669563936854849+0.005782104440387202j)</t>
-  </si>
-  <si>
-    <t>(0.04061589908026288+0.0021411852509644444j)</t>
-  </si>
-  <si>
-    <t>(0.20795285363442054+0.012592875432462935j)</t>
-  </si>
-  <si>
-    <t>(0.21747348044293666+0.013931080422808264j)</t>
-  </si>
-  <si>
-    <t>(0.244666406200654+0.016143154496794467j)</t>
-  </si>
-  <si>
-    <t>(-0.10109626215927983+0.0013697784563567713j)</t>
-  </si>
-  <si>
-    <t>(-0.10283820123709937+0.003025367117195747j)</t>
-  </si>
-  <si>
-    <t>(-0.10327219063445094+0.0037962319596872877j)</t>
-  </si>
-  <si>
-    <t>(-0.10358943316221766+0.004460850616715139j)</t>
-  </si>
-  <si>
-    <t>(-0.10400038647841085+0.005152763069261444j)</t>
-  </si>
-  <si>
-    <t>(-0.1045286612958141+0.005873940678819135j)</t>
-  </si>
-  <si>
-    <t>(-0.10547850563407982+0.006781602595522795j)</t>
-  </si>
-  <si>
-    <t>(-0.10564502057045869+0.0071596036115618945j)</t>
-  </si>
-  <si>
-    <t>(-0.10629503180717324+0.007726232983613446j)</t>
-  </si>
-  <si>
-    <t>(-0.10648271747935693+0.007966608788214626j)</t>
-  </si>
-  <si>
-    <t>(-0.10662429916022967+0.00810906649833741j)</t>
-  </si>
-  <si>
-    <t>(-0.07094500302970383+0.0006700801964488359j)</t>
-  </si>
-  <si>
-    <t>(-0.006470308282021249-0.00017088833949322277j)</t>
-  </si>
-  <si>
-    <t>(-0.03126547317786923+0.0003268666513348737j)</t>
-  </si>
-  <si>
-    <t>(-0.06633996531566708+0.0012410638100780538j)</t>
-  </si>
-  <si>
-    <t>(-0.08982036604726963+0.002005355286277322j)</t>
-  </si>
-  <si>
-    <t>(-0.09395633533038333+0.002257150333819507j)</t>
-  </si>
-  <si>
-    <t>(-0.03513111618490159+0.0007883686002406879j)</t>
-  </si>
-  <si>
-    <t>(-0.05897393137156034+0.001455705144723554j)</t>
-  </si>
-  <si>
-    <t>(-0.005175608050274408+0.0001520411219205888j)</t>
-  </si>
-  <si>
-    <t>(-0.0017101291943271723+0.0001211231745143266j)</t>
-  </si>
-  <si>
-    <t>(0.00729618354241966-5.871744782564584e-05j)</t>
-  </si>
-  <si>
-    <t>(-0.041103956468166634+0.00019455616088091953j)</t>
-  </si>
-  <si>
-    <t>(0.0878923995533116-0.0003754429744318001j)</t>
-  </si>
-  <si>
-    <t>(0.03843999940574797+1.179370946298295e-05j)</t>
-  </si>
-  <si>
-    <t>(-0.030623141252568802+9.974682417856749e-05j)</t>
-  </si>
-  <si>
-    <t>(-0.07630823077147113-6.179591748718256e-05j)</t>
-  </si>
-  <si>
-    <t>(-0.08391654426342256-0.00028850037926873937j)</t>
-  </si>
-  <si>
-    <t>(0.030633185903799952+0.0005916068554343801j)</t>
-  </si>
-  <si>
-    <t>(-0.015586004248958115+0.00011477074781098692j)</t>
-  </si>
-  <si>
-    <t>(0.08804070477319056+0.0018355923999402784j)</t>
-  </si>
-  <si>
-    <t>(0.0944552092341157+0.002187482250009264j)</t>
-  </si>
-  <si>
-    <t>(0.11160463102779312+0.002667731516640223j)</t>
-  </si>
-  <si>
-    <t>(-0.011630355859645109+8.786327499933958e-05j)</t>
-  </si>
-  <si>
-    <t>(0.1798933175922811+0.001987835415294721j)</t>
-  </si>
-  <si>
-    <t>(0.10563553027120254+0.002027159504104397j)</t>
-  </si>
-  <si>
-    <t>(0.0034734514390796284+0.000364243486753876j)</t>
-  </si>
-  <si>
-    <t>(-0.06351865396390353-0.001439532368025645j)</t>
-  </si>
-  <si>
-    <t>(-0.07448695809514674-0.0021547929230308445j)</t>
-  </si>
-  <si>
-    <t>(0.09176886962837634+0.003939034706544554j)</t>
-  </si>
-  <si>
-    <t>(0.02446603653622157+0.0014091286086610174j)</t>
-  </si>
-  <si>
-    <t>(0.17349274576024595+0.008935273580908037j)</t>
-  </si>
-  <si>
-    <t>(0.18221980241522118+0.00998236171044242j)</t>
-  </si>
-  <si>
-    <t>(0.2065772833685739+0.01164299543162779j)</t>
-  </si>
-  <si>
-    <t>(0.017397724884850585+0.0003811779489618428j)</t>
-  </si>
-  <si>
-    <t>(0.26937237642359374+0.006437325913168453j)</t>
-  </si>
-  <si>
-    <t>(0.17035311857783783+0.0057377877682437345j)</t>
-  </si>
-  <si>
-    <t>(0.0360359872877287+0.0015748738229222244j)</t>
-  </si>
-  <si>
-    <t>(-0.051399927847480924-0.0023777495206918292j)</t>
-  </si>
-  <si>
-    <t>(-0.06562832051486332-0.0035916738361511736j)</t>
-  </si>
-  <si>
-    <t>(0.1487317002656694+0.009411469094252686j)</t>
-  </si>
-  <si>
-    <t>(0.06152409266820897+0.0042607731388139385j)</t>
-  </si>
-  <si>
-    <t>(0.25209455776045386+0.019103571282533073j)</t>
-  </si>
-  <si>
-    <t>(0.26261409335811847+0.020970000781092228j)</t>
-  </si>
-  <si>
-    <t>(0.2933873867917366+0.02406483355342968j)</t>
-  </si>
-  <si>
-    <t>(-0.10105518507296991+0.0015686396818661852j)</t>
-  </si>
-  <si>
-    <t>(-0.10254556622663637+0.0028092985717445584j)</t>
-  </si>
-  <si>
-    <t>(-0.10317021617532278+0.0037560607156098946j)</t>
-  </si>
-  <si>
-    <t>(-0.10364756169778858+0.004618330120691686j)</t>
-  </si>
-  <si>
-    <t>(-0.10414256383724105+0.005419697392916077j)</t>
-  </si>
-  <si>
-    <t>(-0.10469361526430766+0.006139844828291873j)</t>
-  </si>
-  <si>
-    <t>(-0.10556416479164209+0.006739359207366818j)</t>
-  </si>
-  <si>
-    <t>(-0.10578376263608025+0.007213709427416518j)</t>
-  </si>
-  <si>
-    <t>(-0.1063820634006242+0.007510762322217612j)</t>
-  </si>
-  <si>
-    <t>(-0.10657704656715325+0.007722605910729245j)</t>
-  </si>
-  <si>
-    <t>(-0.1067141949856758+0.007816351165947526j)</t>
-  </si>
-  <si>
-    <t>(-0.06692818677342498+0.00024156325937399803j)</t>
-  </si>
-  <si>
-    <t>(0.00733368806852656-0.0009968715801409623j)</t>
-  </si>
-  <si>
-    <t>(-0.02121462409521329-0.000290316661961403j)</t>
-  </si>
-  <si>
-    <t>(-0.06145679145804867+0.0007566922778074006j)</t>
-  </si>
-  <si>
-    <t>(-0.08831316851326906+0.0015346863307472139j)</t>
-  </si>
-  <si>
-    <t>(-0.09298319757075255+0.0017474489878151118j)</t>
-  </si>
-  <si>
-    <t>(-0.025740168454171156+0.00040682696229419024j)</t>
-  </si>
-  <si>
-    <t>(-0.05297963179694954+0.0010271248609110314j)</t>
-  </si>
-  <si>
-    <t>(0.008320237224226732+4.7509911782645244e-05j)</t>
-  </si>
-  <si>
-    <t>(0.01221334969990386+0.00010269284803924686j)</t>
-  </si>
-  <si>
-    <t>(0.0224364684805689+2.1073372538082712e-05j)</t>
-  </si>
-  <si>
-    <t>(-0.032980514745155926-0.0003094831985286351j)</t>
-  </si>
-  <si>
-    <t>(0.11449517906407608-0.0006578635504874013j)</t>
-  </si>
-  <si>
-    <t>(0.05776942467112001-0.00010479773086114155j)</t>
-  </si>
-  <si>
-    <t>(-0.021059989838958067-0.00023422780622879422j)</t>
-  </si>
-  <si>
-    <t>(-0.07304523834953844-0.0007077245345830419j)</t>
-  </si>
-  <si>
-    <t>(-0.08164163891238728-0.0010407167484156425j)</t>
-  </si>
-  <si>
-    <t>(0.04826489660021997+0.001170492429837773j)</t>
-  </si>
-  <si>
-    <t>(-0.004204268132812831+0.00022190498120672756j)</t>
-  </si>
-  <si>
-    <t>(0.11290740478245373+0.0035810261231232917j)</t>
-  </si>
-  <si>
-    <t>(0.12001013563690732+0.00418994381747777j)</t>
-  </si>
-  <si>
-    <t>(0.13929933796320415+0.005038183989254528j)</t>
-  </si>
-  <si>
-    <t>(0.000538359344671113-2.565004202798724e-05j)</t>
-  </si>
-  <si>
-    <t>(0.2184365771766974+0.003074967821412182j)</t>
-  </si>
-  <si>
-    <t>(0.13348446870039612+0.0031222345670418243j)</t>
-  </si>
-  <si>
-    <t>(0.0173492382667093+0.0007105404547026624j)</t>
-  </si>
-  <si>
-    <t>(-0.0585403331501077-0.001850833687744307j)</t>
-  </si>
-  <si>
-    <t>(-0.07090142780098878-0.0027556994178568554j)</t>
-  </si>
-  <si>
-    <t>(0.1164976191993877+0.0061595416530418525j)</t>
-  </si>
-  <si>
-    <t>(0.040504689437200536+0.0026123859497719916j)</t>
-  </si>
-  <si>
-    <t>(0.20783164723543257+0.01331101345788614j)</t>
-  </si>
-  <si>
-    <t>(0.21738252830747062+0.014782273440687888j)</t>
-  </si>
-  <si>
-    <t>(0.24458081264176762+0.01710555404748996j)</t>
-  </si>
-  <si>
-    <t>(0.03345570590546598+0.0010189217148014811j)</t>
-  </si>
-  <si>
-    <t>(0.3189890713174064+0.009449795027101606j)</t>
-  </si>
-  <si>
-    <t>(0.20599260985601386+0.008494690034158888j)</t>
-  </si>
-  <si>
-    <t>(0.0538514853624095+0.002946935821489403j)</t>
-  </si>
-  <si>
-    <t>(-0.04480150481552657-0.002262948314159235j)</t>
-  </si>
-  <si>
-    <t>(-0.060785460552525976-0.0037577577012413033j)</t>
-  </si>
-  <si>
-    <t>(0.17960256557716608+0.013604127045341922j)</t>
-  </si>
-  <si>
-    <t>(0.08159714646351103+0.006855000183843875j)</t>
-  </si>
-  <si>
-    <t>(0.2943989152248199+0.026389234604060445j)</t>
-  </si>
-  <si>
-    <t>(0.30579440774895356+0.028820788559516745j)</t>
-  </si>
-  <si>
-    <t>(0.33994809919047925+0.03285532714694568j)</t>
-  </si>
-  <si>
-    <t>(-0.1010204743604085+0.0018206926587592176j)</t>
-  </si>
-  <si>
-    <t>(-0.10225371422289806+0.0025050827391384554j)</t>
-  </si>
-  <si>
-    <t>(-0.10307534452216675+0.003687179585156421j)</t>
-  </si>
-  <si>
-    <t>(-0.10371435830371498+0.0048189299323075484j)</t>
-  </si>
-  <si>
-    <t>(-0.10429254421560072+0.005773149175266567j)</t>
-  </si>
-  <si>
-    <t>(-0.10486463639833453+0.006496626059664537j)</t>
-  </si>
-  <si>
-    <t>(-0.10564868903797334+0.006676497944414568j)</t>
-  </si>
-  <si>
-    <t>(-0.10591966045233682+0.0072887855902374205j)</t>
-  </si>
-  <si>
-    <t>(-0.10645241076398371+0.007217896357925821j)</t>
-  </si>
-  <si>
-    <t>(-0.10664884768653819+0.007394009308396741j)</t>
-  </si>
-  <si>
-    <t>(-0.10677645482027329+0.007422449598075717j)</t>
-  </si>
-  <si>
-    <t>(-0.06296775675951731-0.0002657505491048026j)</t>
-  </si>
-  <si>
-    <t>(0.021171363946941215-0.0018699014619940235j)</t>
-  </si>
-  <si>
-    <t>(-0.011204992951782157-0.0009199429364619079j)</t>
-  </si>
-  <si>
-    <t>(-0.056671628925695175+0.0002595797898144244j)</t>
-  </si>
-  <si>
-    <t>(-0.0869278292642797+0.0010401093143046472j)</t>
-  </si>
-  <si>
-    <t>(-0.09213768783677902+0.0012184157181333332j)</t>
-  </si>
-  <si>
-    <t>(-0.016501546007751042+0.00012639502286933087j)</t>
-  </si>
-  <si>
-    <t>(-0.047143903523991344+0.0006709285836997528j)</t>
-  </si>
-  <si>
-    <t>(0.021594140532438466+0.0001526380709413288j)</t>
-  </si>
-  <si>
-    <t>(0.025891998633453647+0.00031817604644309187j)</t>
-  </si>
-  <si>
-    <t>(0.03731064907572266+0.00036548817734877046j)</t>
-  </si>
-  <si>
-    <t>(-0.02494737656677968-0.0008988105096598229j)</t>
-  </si>
-  <si>
-    <t>(0.14100034169808867-0.0008775891688519979j)</t>
-  </si>
-  <si>
-    <t>(0.07691852054046601-0.00014552863132262018j)</t>
-  </si>
-  <si>
-    <t>(-0.011691610889108273-0.0005421809162986326j)</t>
-  </si>
-  <si>
-    <t>(-0.06995804223526417-0.0013742035491748129j)</t>
-  </si>
-  <si>
-    <t>(-0.07954363265541808-0.0018090363610742534j)</t>
-  </si>
-  <si>
-    <t>(0.06549603249129986+0.0019878332399593576j)</t>
-  </si>
-  <si>
-    <t>(0.006833382710812897+0.0004961675697263033j)</t>
-  </si>
-  <si>
-    <t>(0.13714554785868047+0.005758333559394403j)</t>
-  </si>
-  <si>
-    <t>(0.14488074020580627+0.006662364809513913j)</t>
-  </si>
-  <si>
-    <t>(0.1662411376125751+0.007932822355116083j)</t>
-  </si>
-  <si>
-    <t>(0.01256305176848074-0.00013887094140975492j)</t>
-  </si>
-  <si>
-    <t>(0.2566002952955844+0.004358991106225487j)</t>
-  </si>
-  <si>
-    <t>(0.1609164563318475+0.004413923064551251j)</t>
-  </si>
-  <si>
-    <t>(0.030908562928862213+0.001183875170094029j)</t>
-  </si>
-  <si>
-    <t>(-0.053769421123190664-0.002192991239744409j)</t>
-  </si>
-  <si>
-    <t>(-0.06751045019766326-0.0032817959428194255j)</t>
-  </si>
-  <si>
-    <t>(0.1405122257828167+0.008743134839978378j)</t>
-  </si>
-  <si>
-    <t>(0.05599384838855715+0.004096555587180381j)</t>
-  </si>
-  <si>
-    <t>(0.2410413352316934+0.018255239674937963j)</t>
-  </si>
-  <si>
-    <t>(0.2513302658483894+0.02018858151521081j)</t>
-  </si>
-  <si>
-    <t>(0.2812454751576078+0.023230994852973794j)</t>
-  </si>
-  <si>
-    <t>(0.0492830215885258+0.0018057296549812399j)</t>
-  </si>
-  <si>
-    <t>(0.3678165690588087+0.012789361415029583j)</t>
-  </si>
-  <si>
-    <t>(0.24089621595254682+0.011577055435536106j)</t>
-  </si>
-  <si>
-    <t>(0.07120080249405114+0.004586426144633176j)</t>
-  </si>
-  <si>
-    <t>(-0.0384368844160583-0.0019260066660607275j)</t>
-  </si>
-  <si>
-    <t>(-0.05614249900875132-0.003692755234608636j)</t>
-  </si>
-  <si>
-    <t>(0.2094039341292154+0.018262371655100543j)</t>
-  </si>
-  <si>
-    <t>(0.10090255082953287+0.009851280174183352j)</t>
-  </si>
-  <si>
-    <t>(0.3350268718340239+0.0343001284143412j)</t>
-  </si>
-  <si>
-    <t>(0.34718841615372126+0.03732465611943532j)</t>
-  </si>
-  <si>
-    <t>(0.38454223906901075+0.04234096319143914j)</t>
-  </si>
-  <si>
-    <t>(-0.10099620306909837+0.0021238267001463603j)</t>
-  </si>
-  <si>
-    <t>(-0.10197959616484747+0.002113984965151653j)</t>
-  </si>
-  <si>
-    <t>(-0.10299503052061251+0.0035893245848731894j)</t>
-  </si>
-  <si>
-    <t>(-0.10378921622817447+0.005061421751331855j)</t>
-  </si>
-  <si>
-    <t>(-0.10444559461114339+0.006211802777733115j)</t>
-  </si>
-  <si>
-    <t>(-0.10503594693281758+0.006943558451942423j)</t>
-  </si>
-  <si>
-    <t>(-0.10572918085251756+0.006594500077959895j)</t>
-  </si>
-  <si>
-    <t>(-0.10604736984559465+0.007386526822486757j)</t>
-  </si>
-  <si>
-    <t>(-0.10650116473123411+0.006851792152194242j)</t>
-  </si>
-  <si>
-    <t>(-0.10669220079081501+0.006985854618522442j)</t>
-  </si>
-  <si>
-    <t>(-0.10680470092819071+0.0069331475490920945j)</t>
-  </si>
-  <si>
-    <t>(-0.05905581567312695-0.0008432719206465958j)</t>
-  </si>
-  <si>
-    <t>(0.035037370393712304-0.0027732667310628374j)</t>
-  </si>
-  <si>
-    <t>(-0.001235570230403035-0.0015540149684984505j)</t>
-  </si>
-  <si>
-    <t>(-0.051976294198512234-0.00024828041193911436j)</t>
-  </si>
-  <si>
-    <t>(-0.08565201414712381+0.0005211822465912234j)</t>
-  </si>
-  <si>
-    <t>(-0.09140684569716775+0.0006686233325957533j)</t>
-  </si>
-  <si>
-    <t>(-0.007409665535816607-5.9600615764799805e-05j)</t>
-  </si>
-  <si>
-    <t>(-0.04145762191872127+0.00038022782730082346j)</t>
-  </si>
-  <si>
-    <t>(0.03465061514106603+0.00045155050330785443j)</t>
-  </si>
-  <si>
-    <t>(0.03933094079083767+0.000748983658328169j)</t>
-  </si>
-  <si>
-    <t>(0.051923624527799146+0.0009532976605466174j)</t>
-  </si>
-  <si>
-    <t>(-0.016993699387955946-0.0015638935509643297j)</t>
-  </si>
-  <si>
-    <t>(0.16741265848705508-0.0010249323924945797j)</t>
-  </si>
-  <si>
-    <t>(0.09589801495931481-0.0001108778985736917j)</t>
-  </si>
-  <si>
-    <t>(-0.0025038701797163465-0.0008280422405626685j)</t>
-  </si>
-  <si>
-    <t>(-0.06703193159246269-0.0020649069833608845j)</t>
-  </si>
-  <si>
-    <t>(-0.07760793053546168-0.002598364543781636j)</t>
-  </si>
-  <si>
-    <t>(0.08234768909944387+0.003017713535601308j)</t>
-  </si>
-  <si>
-    <t>(0.017546751917000364+0.0009157301889188162j)</t>
-  </si>
-  <si>
-    <t>(0.16078594281951655+0.008319737540995515j)</t>
-  </si>
-  <si>
-    <t>(0.1691006486645021+0.009551617841904775j)</t>
-  </si>
-  <si>
-    <t>(0.1924667638818499+0.011292278262049751j)</t>
-  </si>
-  <si>
-    <t>(0.024453816224239096-0.00025024749550904015j)</t>
-  </si>
-  <si>
-    <t>(0.29440449422695064+0.0058251472274276975j)</t>
-  </si>
-  <si>
-    <t>(0.18795697310564913+0.005881263944789226j)</t>
-  </si>
-  <si>
-    <t>(0.04417243852899489+0.0017678201306599284j)</t>
-  </si>
-  <si>
-    <t>(-0.04919160432060662-0.0024763493083666886j)</t>
-  </si>
-  <si>
-    <t>(-0.06430106969157905-0.003743952243714388j)</t>
-  </si>
-  <si>
-    <t>(0.16386013555694434+0.011639942595124067j)</t>
-  </si>
-  <si>
-    <t>(0.07096979111790161+0.005822462568560146j)</t>
-  </si>
-  <si>
-    <t>(0.27319885180102293+0.023686133155520137j)</t>
-  </si>
-  <si>
-    <t>(0.28414649572317313+0.02611280305715146j)</t>
-  </si>
-  <si>
-    <t>(0.3166638084872472+0.029921737539384863j)</t>
-  </si>
-  <si>
-    <t>(0.0648882401866887+0.002728032758049538j)</t>
-  </si>
-  <si>
-    <t>(0.415897916832626+0.01640447786855638j)</t>
-  </si>
-  <si>
-    <t>(0.2751103057429707+0.014935376065542594j)</t>
-  </si>
-  <si>
-    <t>(0.0881136553306987+0.006459932611999707j)</t>
-  </si>
-  <si>
-    <t>(-0.03229366538583812-0.0013865993811921452j)</t>
-  </si>
-  <si>
-    <t>(-0.05169016672378711-0.003415505356008665j)</t>
-  </si>
-  <si>
-    <t>(0.23821783714803524+0.023310977905417075j)</t>
-  </si>
-  <si>
-    <t>(0.11949729009476118+0.013192645349560375j)</t>
-  </si>
-  <si>
-    <t>(0.3741155357554581+0.042722454359650296j)</t>
-  </si>
-  <si>
-    <t>(0.3869439314342349+0.046361064562615836j)</t>
-  </si>
-  <si>
-    <t>(0.42733422524956405+0.05239023805108316j)</t>
+    <t>(-0.10111570096489839+0.00046063544498241895j)</t>
+  </si>
+  <si>
+    <t>(-0.10202893932824572+0.0019333774423489975j)</t>
+  </si>
+  <si>
+    <t>(-0.10274656915131619+0.0034712751255043415j)</t>
+  </si>
+  <si>
+    <t>(-0.10364882825159707+0.0043167010843594335j)</t>
+  </si>
+  <si>
+    <t>(-0.10441601972267645+0.005116762087283185j)</t>
+  </si>
+  <si>
+    <t>(-0.10457326869506159+0.006778013590216885j)</t>
+  </si>
+  <si>
+    <t>(-0.10461805549426378+0.008319364809539239j)</t>
+  </si>
+  <si>
+    <t>(-0.10538591949574816+0.008144359265267334j)</t>
+  </si>
+  <si>
+    <t>(-0.1054092477960022+0.009054859690635311j)</t>
+  </si>
+  <si>
+    <t>(-0.10620869420992411+0.008204464561508354j)</t>
+  </si>
+  <si>
+    <t>(-0.10567232542033873+0.009512443400939917j)</t>
+  </si>
+  <si>
+    <t>(-0.10126035537417576+0.0006110068660815524j)</t>
+  </si>
+  <si>
+    <t>(-0.10217472489780653+0.0018275269447335645j)</t>
+  </si>
+  <si>
+    <t>(-0.10286585716682321+0.0029918966064969897j)</t>
+  </si>
+  <si>
+    <t>(-0.10380925937130588+0.004006642361987192j)</t>
+  </si>
+  <si>
+    <t>(-0.10456180126419864+0.004889274361266132j)</t>
+  </si>
+  <si>
+    <t>(-0.1047488443600699+0.005952409343613838j)</t>
+  </si>
+  <si>
+    <t>(-0.10488013409235046+0.006992010851672345j)</t>
+  </si>
+  <si>
+    <t>(-0.10557197694505185+0.007295785266382552j)</t>
+  </si>
+  <si>
+    <t>(-0.10566054026077148+0.007960454891079528j)</t>
+  </si>
+  <si>
+    <t>(-0.1062990557505236+0.007721669424274682j)</t>
+  </si>
+  <si>
+    <t>(-0.10593279711059575+0.008438196706342167j)</t>
+  </si>
+  <si>
+    <t>(-0.10121097865516261+0.0005991560971828712j)</t>
+  </si>
+  <si>
+    <t>(-0.10217823526132166+0.0018096128674674984j)</t>
+  </si>
+  <si>
+    <t>(-0.10290782191919058+0.002855318936163277j)</t>
+  </si>
+  <si>
+    <t>(-0.10390478426389461+0.00401960043801735j)</t>
+  </si>
+  <si>
+    <t>(-0.10465135356908396+0.004944350614816496j)</t>
+  </si>
+  <si>
+    <t>(-0.10499639927692683+0.005781532053351461j)</t>
+  </si>
+  <si>
+    <t>(-0.1053523415381091+0.006636266817833053j)</t>
+  </si>
+  <si>
+    <t>(-0.1058918662456969+0.007095567481483378j)</t>
+  </si>
+  <si>
+    <t>(-0.10613122386634345+0.007657372467665487j)</t>
+  </si>
+  <si>
+    <t>(-0.10645549143266929+0.007630985265277144j)</t>
+  </si>
+  <si>
+    <t>(-0.10643510297795215+0.008122523360910346j)</t>
+  </si>
+  <si>
+    <t>(-0.10106471743747715+0.0006542367540405521j)</t>
+  </si>
+  <si>
+    <t>(-0.10212649275762517+0.0019211203204226512j)</t>
+  </si>
+  <si>
+    <t>(-0.1030214040255659+0.003047993833553946j)</t>
+  </si>
+  <si>
+    <t>(-0.10392411891910952+0.004071300138127937j)</t>
+  </si>
+  <si>
+    <t>(-0.10460032361699015+0.004893628543367093j)</t>
+  </si>
+  <si>
+    <t>(-0.1053221244172766+0.005831877913645499j)</t>
+  </si>
+  <si>
+    <t>(-0.10605769611204872+0.00670120639735519j)</t>
+  </si>
+  <si>
+    <t>(-0.1062597888393253+0.006982348990139581j)</t>
+  </si>
+  <si>
+    <t>(-0.10672014987522335+0.007508974659963121j)</t>
+  </si>
+  <si>
+    <t>(-0.1065295277157508+0.007391233217468295j)</t>
+  </si>
+  <si>
+    <t>(-0.10703688411915135+0.007893282501700134j)</t>
+  </si>
+  <si>
+    <t>(-0.10091236633609915+0.0008545733622040017j)</t>
+  </si>
+  <si>
+    <t>(-0.10206903794796272+0.002160960940014826j)</t>
+  </si>
+  <si>
+    <t>(-0.10327361457434155+0.0035139084286534656j)</t>
+  </si>
+  <si>
+    <t>(-0.10380616508049591+0.004057714200210778j)</t>
+  </si>
+  <si>
+    <t>(-0.10429241802611422+0.004619265740434451j)</t>
+  </si>
+  <si>
+    <t>(-0.10564086848932969+0.005916286609675702j)</t>
+  </si>
+  <si>
+    <t>(-0.10689315179803223+0.006929154749827157j)</t>
+  </si>
+  <si>
+    <t>(-0.10652012557962905+0.006747529879196773j)</t>
+  </si>
+  <si>
+    <t>(-0.10724774828625082+0.007272498720683333j)</t>
+  </si>
+  <si>
+    <t>(-0.10634048829508479+0.0068359545018447255j)</t>
+  </si>
+  <si>
+    <t>(-0.10753124923090583+0.00750768983743448j)</t>
+  </si>
+  <si>
+    <t>(-0.10104232324605603+0.0010452196602826255j)</t>
+  </si>
+  <si>
+    <t>(-0.10196308318567626+0.0023425180332611803j)</t>
+  </si>
+  <si>
+    <t>(-0.10278986677262415+0.003749890395092277j)</t>
+  </si>
+  <si>
+    <t>(-0.10350960113276336+0.004486055004944604j)</t>
+  </si>
+  <si>
+    <t>(-0.10416247353991528+0.005268944525987336j)</t>
+  </si>
+  <si>
+    <t>(-0.10463392323469965+0.006680167131993562j)</t>
+  </si>
+  <si>
+    <t>(-0.10498099212235104+0.007917243321120026j)</t>
+  </si>
+  <si>
+    <t>(-0.1054209775134395+0.007951064249821218j)</t>
+  </si>
+  <si>
+    <t>(-0.10561768090297761+0.008681353111528154j)</t>
+  </si>
+  <si>
+    <t>(-0.10595470998346276+0.008219763540382192j)</t>
+  </si>
+  <si>
+    <t>(-0.10587250824582321+0.00911373587244873j)</t>
+  </si>
+  <si>
+    <t>(-0.09316963448606398+0.0008556375521335485j)</t>
+  </si>
+  <si>
+    <t>(-0.09381842983381772+0.001808194574737245j)</t>
+  </si>
+  <si>
+    <t>(-0.09108365666211002+0.0026039328444834786j)</t>
+  </si>
+  <si>
+    <t>(-0.0972782184837007+0.0036097913823274984j)</t>
+  </si>
+  <si>
+    <t>(-0.10055302006457172+0.0044687146419588935j)</t>
+  </si>
+  <si>
+    <t>(-0.0929247768193305+0.004809355596277323j)</t>
+  </si>
+  <si>
+    <t>(-0.08625301297879263+0.005076590863691374j)</t>
+  </si>
+  <si>
+    <t>(-0.09419339287051648+0.005845794633093206j)</t>
+  </si>
+  <si>
+    <t>(-0.09053683845991214+0.006032201580096098j)</t>
+  </si>
+  <si>
+    <t>(-0.10089907523438083+0.006700009978822565j)</t>
+  </si>
+  <si>
+    <t>(-0.0909826090499817+0.00639423624540755j)</t>
+  </si>
+  <si>
+    <t>(-0.08532332854586815+0.0005970901697328949j)</t>
+  </si>
+  <si>
+    <t>(-0.08569721817577827+0.0013351038142156875j)</t>
+  </si>
+  <si>
+    <t>(-0.07944635456962103+0.0017499175168695865j)</t>
+  </si>
+  <si>
+    <t>(-0.09103110576343289+0.0028665391064855677j)</t>
+  </si>
+  <si>
+    <t>(-0.09688977361476035+0.003717730128871698j)</t>
+  </si>
+  <si>
+    <t>(-0.08125913665428253+0.0034107709347870573j)</t>
+  </si>
+  <si>
+    <t>(-0.06764390487904688+0.0030807158100821523j)</t>
+  </si>
+  <si>
+    <t>(-0.08299207910632873+0.004220392226564186j)</t>
+  </si>
+  <si>
+    <t>(-0.0755200926459357+0.004056556339878652j)</t>
+  </si>
+  <si>
+    <t>(-0.09579865596154409+0.005362058237079198j)</t>
+  </si>
+  <si>
+    <t>(-0.07614925543219674+0.0043374883290545636j)</t>
+  </si>
+  <si>
+    <t>(-0.07747728935847809+0.0003756760066257367j)</t>
+  </si>
+  <si>
+    <t>(-0.07758990617547448+0.0009643326743855818j)</t>
+  </si>
+  <si>
+    <t>(-0.06793602689905442+0.001230050122518396j)</t>
+  </si>
+  <si>
+    <t>(-0.08473650511075492+0.002172365969810639j)</t>
+  </si>
+  <si>
+    <t>(-0.09309662487326938+0.002877199312285999j)</t>
+  </si>
+  <si>
+    <t>(-0.06969885359818835+0.002388567197651752j)</t>
+  </si>
+  <si>
+    <t>(-0.04932889037246985+0.0018498535479658405j)</t>
+  </si>
+  <si>
+    <t>(-0.07186363747858486+0.0029351019036885553j)</t>
+  </si>
+  <si>
+    <t>(-0.06067222729551796+0.0026226968394915283j)</t>
+  </si>
+  <si>
+    <t>(-0.09059718666384389+0.0040235169628260225j)</t>
+  </si>
+  <si>
+    <t>(-0.061469162458879165+0.002800679779727478j)</t>
+  </si>
+  <si>
+    <t>(-0.06964446553062047+0.0002470220722786905j)</t>
+  </si>
+  <si>
+    <t>(-0.06950556348859152+0.0007173593800344172j)</t>
+  </si>
+  <si>
+    <t>(-0.05659713712860876+0.0010328887570620184j)</t>
+  </si>
+  <si>
+    <t>(-0.07836787528125087+0.0015095460375057009j)</t>
+  </si>
+  <si>
+    <t>(-0.08911361785646474+0.0019288136396003617j)</t>
+  </si>
+  <si>
+    <t>(-0.05826330702421491+0.0016747597898388478j)</t>
+  </si>
+  <si>
+    <t>(-0.03138836548367865+0.0012681972211159318j)</t>
+  </si>
+  <si>
+    <t>(-0.06081095665394974+0.0019119116526805351j)</t>
+  </si>
+  <si>
+    <t>(-0.04602728615207469+0.0016282548225173843j)</t>
+  </si>
+  <si>
+    <t>(-0.08523681030096757+0.0026382043536342286j)</t>
+  </si>
+  <si>
+    <t>(-0.04696999725226641+0.001681085893074248j)</t>
+  </si>
+  <si>
+    <t>(-0.10099719770961876+0.0014180506221207168j)</t>
+  </si>
+  <si>
+    <t>(-0.10191712522298672+0.0026088763017097327j)</t>
+  </si>
+  <si>
+    <t>(-0.10280231847055672+0.003911781458173812j)</t>
+  </si>
+  <si>
+    <t>(-0.10342003747269515+0.00462470897902839j)</t>
+  </si>
+  <si>
+    <t>(-0.10400827540723463+0.005417757365364985j)</t>
+  </si>
+  <si>
+    <t>(-0.10466263003239876+0.006619089539543357j)</t>
+  </si>
+  <si>
+    <t>(-0.10519097709945956+0.007621852872014469j)</t>
+  </si>
+  <si>
+    <t>(-0.10544224877921236+0.007837782282301269j)</t>
+  </si>
+  <si>
+    <t>(-0.10574596315549437+0.008431683541444425j)</t>
+  </si>
+  <si>
+    <t>(-0.10580722184047271+0.008278396232933641j)</t>
+  </si>
+  <si>
+    <t>(-0.1060002970178664+0.008850888647522053j)</t>
+  </si>
+  <si>
+    <t>(-0.08524573573167074+0.0010146040358960445j)</t>
+  </si>
+  <si>
+    <t>(-0.08561270344459808+0.001725040201243741j)</t>
+  </si>
+  <si>
+    <t>(-0.07943952343418001+0.002204003017420641j)</t>
+  </si>
+  <si>
+    <t>(-0.0908720861321098+0.0031726132549316152j)</t>
+  </si>
+  <si>
+    <t>(-0.09666838253583128+0.00399148134105609j)</t>
+  </si>
+  <si>
+    <t>(-0.08118744814643596+0.0037457386571585535j)</t>
+  </si>
+  <si>
+    <t>(-0.06766454907496737+0.0033937499225452352j)</t>
+  </si>
+  <si>
+    <t>(-0.08288355234976727+0.00451520126012416j)</t>
+  </si>
+  <si>
+    <t>(-0.0754508558842047+0.004319083597311505j)</t>
+  </si>
+  <si>
+    <t>(-0.09559915752998552+0.005688923372246256j)</t>
+  </si>
+  <si>
+    <t>(-0.07606327079144165+0.004582303768603778j)</t>
+  </si>
+  <si>
+    <t>(-0.06963814472290011+0.0005785466144098562j)</t>
+  </si>
+  <si>
+    <t>(-0.0694562278152396+0.0009636336231841033j)</t>
+  </si>
+  <si>
+    <t>(-0.05633335484121859+0.0009746777758080776j)</t>
+  </si>
+  <si>
+    <t>(-0.07840352117019633+0.0019360401774672763j)</t>
+  </si>
+  <si>
+    <t>(-0.08931202331365076+0.0026478814692454094j)</t>
+  </si>
+  <si>
+    <t>(-0.05798130058118622+0.0017311665108890454j)</t>
+  </si>
+  <si>
+    <t>(-0.03068311619382899+0.000785101163392j)</t>
+  </si>
+  <si>
+    <t>(-0.06058187260613729+0.002165278483185424j)</t>
+  </si>
+  <si>
+    <t>(-0.045569871621274426+0.0016202263740543517j)</t>
+  </si>
+  <si>
+    <t>(-0.08539420691939342+0.003507106319671991j)</t>
+  </si>
+  <si>
+    <t>(-0.04653628061447993+0.0017662227262479542j)</t>
+  </si>
+  <si>
+    <t>(-0.05408389222532755+0.00018850025647658582j)</t>
+  </si>
+  <si>
+    <t>(-0.053399359248958216+0.0003719091069187012j)</t>
+  </si>
+  <si>
+    <t>(-0.03351397052105595+0.0002517051657514002j)</t>
+  </si>
+  <si>
+    <t>(-0.06600405888242769+0.000905052105804319j)</t>
+  </si>
+  <si>
+    <t>(-0.08190617774326975+0.0013600272600599696j)</t>
+  </si>
+  <si>
+    <t>(-0.035183788488852535+0.0005104547464626552j)</t>
+  </si>
+  <si>
+    <t>(0.005438971307888883-0.00032707340501995105j)</t>
+  </si>
+  <si>
+    <t>(-0.03871249089503098+0.0006843117616485789j)</t>
+  </si>
+  <si>
+    <t>(-0.016381956381418376+0.00019338237979695097j)</t>
+  </si>
+  <si>
+    <t>(-0.07524392049084158+0.0016551415978935118j)</t>
+  </si>
+  <si>
+    <t>(-0.01771120454863792+0.0002471299852280179j)</t>
+  </si>
+  <si>
+    <t>(-0.038565019789453356-9.662884115128008e-05j)</t>
+  </si>
+  <si>
+    <t>(-0.03743941823200217-2.2821552982920214e-05j)</t>
+  </si>
+  <si>
+    <t>(-0.011017757584288213+9.448861575185472e-06j)</t>
+  </si>
+  <si>
+    <t>(-0.053676975151508086+7.396017999636648e-05j)</t>
+  </si>
+  <si>
+    <t>(-0.07443774544674919+0.00013418240424651321j)</t>
+  </si>
+  <si>
+    <t>(-0.012865618935396199-2.7084036107444048e-05j)</t>
+  </si>
+  <si>
+    <t>(0.04055318233908548-0.0001772101681659161j)</t>
+  </si>
+  <si>
+    <t>(-0.017354987756227454-6.777427128217928e-05j)</t>
+  </si>
+  <si>
+    <t>(0.011988608376872871-0.00017537636022876444j)</t>
+  </si>
+  <si>
+    <t>(-0.06516981345404223+7.952221233168983e-05j)</t>
+  </si>
+  <si>
+    <t>(0.010284597020631467-0.00019931871866271113j)</t>
+  </si>
+  <si>
+    <t>(-0.10096410534738114+0.0016276114259649386j)</t>
+  </si>
+  <si>
+    <t>(-0.1018832165784969+0.0027634482595860583j)</t>
+  </si>
+  <si>
+    <t>(-0.10279414492947025+0.003986905800655428j)</t>
+  </si>
+  <si>
+    <t>(-0.10337215956959397+0.004727939909662043j)</t>
+  </si>
+  <si>
+    <t>(-0.1039332455931138+0.005544069977144967j)</t>
+  </si>
+  <si>
+    <t>(-0.10467985049616323+0.006578022247757739j)</t>
+  </si>
+  <si>
+    <t>(-0.10530635271578154+0.007407538399327245j)</t>
+  </si>
+  <si>
+    <t>(-0.10546703568869405+0.007770174739810391j)</t>
+  </si>
+  <si>
+    <t>(-0.10583174656534458+0.00826404470869437j)</t>
+  </si>
+  <si>
+    <t>(-0.10574817519461782+0.008343165799796803j)</t>
+  </si>
+  <si>
+    <t>(-0.10609124570541965+0.008676147129618346j)</t>
+  </si>
+  <si>
+    <t>(-0.0774391327313358+0.0010814155189349283j)</t>
+  </si>
+  <si>
+    <t>(-0.07751637439206045+0.0015815754978170421j)</t>
+  </si>
+  <si>
+    <t>(-0.0679024001909653+0.0018015473390307624j)</t>
+  </si>
+  <si>
+    <t>(-0.08456186254009981+0.0027138894406984098j)</t>
+  </si>
+  <si>
+    <t>(-0.09287695566789489+0.0034784091372504493j)</t>
+  </si>
+  <si>
+    <t>(-0.0695365314674878+0.0027949081548907496j)</t>
+  </si>
+  <si>
+    <t>(-0.04915301405909207+0.0019929143437745073j)</t>
+  </si>
+  <si>
+    <t>(-0.07165412272024298+0.0033440580045305613j)</t>
+  </si>
+  <si>
+    <t>(-0.060439019188272464+0.0028711243504511257j)</t>
+  </si>
+  <si>
+    <t>(-0.09038346808626568+0.00471867241007946j)</t>
+  </si>
+  <si>
+    <t>(-0.061216071787116244+0.0030544869180864497j)</t>
+  </si>
+  <si>
+    <t>(-0.05410950526087316+0.0005365134872878843j)</t>
+  </si>
+  <si>
+    <t>(-0.05342119079016267+0.0006770659619802569j)</t>
+  </si>
+  <si>
+    <t>(-0.03354697671070576+0.0004809385404212123j)</t>
+  </si>
+  <si>
+    <t>(-0.06600717335349482+0.0012039792289021472j)</t>
+  </si>
+  <si>
+    <t>(-0.08190517307650633+0.0017241864504037297j)</t>
+  </si>
+  <si>
+    <t>(-0.03517956310313711+0.0006567785108628705j)</t>
+  </si>
+  <si>
+    <t>(0.005477038352610027-0.00041546177627230083j)</t>
+  </si>
+  <si>
+    <t>(-0.03869342233509182+0.0008308140072661322j)</t>
+  </si>
+  <si>
+    <t>(-0.016336022874953726+0.00020144076224484507j)</t>
+  </si>
+  <si>
+    <t>(-0.07525295628061522+0.0020268156222249907j)</t>
+  </si>
+  <si>
+    <t>(-0.017657594208646408+0.0002563216012191035j)</t>
+  </si>
+  <si>
+    <t>(-0.030874764312314753+9.877232057040529e-05j)</t>
+  </si>
+  <si>
+    <t>(-0.02955190547669568+9.201430537803471e-05j)</t>
+  </si>
+  <si>
+    <t>(0.00023770863384537494-3.344234742759375e-05j)</t>
+  </si>
+  <si>
+    <t>(-0.04773174341799301+0.0001570149381081874j)</t>
+  </si>
+  <si>
+    <t>(-0.071035336224158+0.00025605368637088104j)</t>
+  </si>
+  <si>
+    <t>(-0.0017944426734479448-0.00010987630546140422j)</t>
+  </si>
+  <si>
+    <t>(0.05822307492460689-0.0003758338765760731j)</t>
+  </si>
+  <si>
+    <t>(-0.006826605957122813-0.00012980838929921242j)</t>
+  </si>
+  <si>
+    <t>(0.026128701800604455-0.0002827183261166534j)</t>
+  </si>
+  <si>
+    <t>(-0.060491152588819284+0.0001000214606944941j)</t>
+  </si>
+  <si>
+    <t>(0.02421468368310426-0.0002901159678326163j)</t>
+  </si>
+  <si>
+    <t>(-0.007722095504443203-0.00016167482863676445j)</t>
+  </si>
+  <si>
+    <t>(-0.005910549473119605-0.00016151897094755308j)</t>
+  </si>
+  <si>
+    <t>(0.03342516233293485+0.00016669664380777785j)</t>
+  </si>
+  <si>
+    <t>(-0.029753108137842734-0.00047797268130960895j)</t>
+  </si>
+  <si>
+    <t>(-0.060283246195006884-0.0009509155500670924j)</t>
+  </si>
+  <si>
+    <t>(0.03056358430267341+0.00022487145649083317j)</t>
+  </si>
+  <si>
+    <t>(0.10899885125149877+0.0015764829275566696j)</t>
+  </si>
+  <si>
+    <t>(0.02388239738083278+0.0001259269591655165j)</t>
+  </si>
+  <si>
+    <t>(0.06687421723495679+0.0009206580993695858j)</t>
+  </si>
+  <si>
+    <t>(-0.04614725593489319-0.0012122912451439792j)</t>
+  </si>
+  <si>
+    <t>(0.06431718897685017+0.0008917265241213902j)</t>
+  </si>
+  <si>
+    <t>(-0.10093706609584667+0.001710168212152128j)</t>
+  </si>
+  <si>
+    <t>(-0.10185876185581687+0.0028290921838267087j)</t>
+  </si>
+  <si>
+    <t>(-0.10277529824933847+0.003994556254180067j)</t>
+  </si>
+  <si>
+    <t>(-0.10335798920934149+0.004794122642381928j)</t>
+  </si>
+  <si>
+    <t>(-0.10391855601231668+0.005638227519210856j)</t>
+  </si>
+  <si>
+    <t>(-0.10469580812366112+0.00654305701128348j)</t>
+  </si>
+  <si>
+    <t>(-0.1053628500126217+0.007249119711277676j)</t>
+  </si>
+  <si>
+    <t>(-0.10550058208295933+0.007723079257133812j)</t>
+  </si>
+  <si>
+    <t>(-0.1058935753400966+0.00814553360219318j)</t>
+  </si>
+  <si>
+    <t>(-0.10575717995676515+0.008391933507398835j)</t>
+  </si>
+  <si>
+    <t>(-0.10616147232934757+0.00855302817802919j)</t>
+  </si>
+  <si>
+    <t>(-0.06971150758814128+0.0010606457824541293j)</t>
+  </si>
+  <si>
+    <t>(-0.06949962804276194+0.0013870193061446777j)</t>
+  </si>
+  <si>
+    <t>(-0.05645184779260016+0.0014071609123594737j)</t>
+  </si>
+  <si>
+    <t>(-0.07833011544150024+0.002250057594777857j)</t>
+  </si>
+  <si>
+    <t>(-0.0891601457226013+0.002947747105829479j)</t>
+  </si>
+  <si>
+    <t>(-0.057980049193881195+0.001975887091844219j)</t>
+  </si>
+  <si>
+    <t>(-0.030759650961621896+0.0008943112383401292j)</t>
+  </si>
+  <si>
+    <t>(-0.060523704433875745+0.002352860075917754j)</t>
+  </si>
+  <si>
+    <t>(-0.045541099590341784+0.0017093658232022212j)</t>
+  </si>
+  <si>
+    <t>(-0.0852473615704982+0.003809964518401985j)</t>
+  </si>
+  <si>
+    <t>(-0.046484929244998904+0.0018319873572686606j)</t>
+  </si>
+  <si>
+    <t>(-0.03870233605632706+0.0004737199506215121j)</t>
+  </si>
+  <si>
+    <t>(-0.03756505752730721+0.00046581561501864545j)</t>
+  </si>
+  <si>
+    <t>(-0.01106591654321305+0.00023170403915039593j)</t>
+  </si>
+  <si>
+    <t>(-0.0538294885654281+0.000650462098281982j)</t>
+  </si>
+  <si>
+    <t>(-0.07466003615019191+0.0009369476411519065j)</t>
+  </si>
+  <si>
+    <t>(-0.012857811711987768+0.00011033367525788653j)</t>
+  </si>
+  <si>
+    <t>(0.04081517025942769-0.0006707103217479429j)</t>
+  </si>
+  <si>
+    <t>(-0.01734081236557211+0.00012500653847037592j)</t>
+  </si>
+  <si>
+    <t>(0.012155812961707434-0.00033579253078627747j)</t>
+  </si>
+  <si>
+    <t>(-0.06538069671703359+0.000882920185065608j)</t>
+  </si>
+  <si>
+    <t>(0.010457330625448267-0.0003340534657256736j)</t>
+  </si>
+  <si>
+    <t>(-0.007843565984022803+0.00010937151112946036j)</t>
+  </si>
+  <si>
+    <t>(-0.006038322228868797+8.161839796280926e-05j)</t>
+  </si>
+  <si>
+    <t>(0.03333419868304716+0.0002556590972189354j)</t>
+  </si>
+  <si>
+    <t>(-0.029908289624995626-0.00016210873700285138j)</t>
+  </si>
+  <si>
+    <t>(-0.06047804294485108-0.0005040144125022591j)</t>
+  </si>
+  <si>
+    <t>(0.030498835731648223+0.0002823806851504467j)</t>
+  </si>
+  <si>
+    <t>(0.1090835876153146+0.0012701348903654715j)</t>
+  </si>
+  <si>
+    <t>(0.023828746161631553+0.00020672585877603983j)</t>
+  </si>
+  <si>
+    <t>(0.06691395928609703+0.0007952525199993476j)</t>
+  </si>
+  <si>
+    <t>(-0.046330525422883025-0.0007913237205874828j)</t>
+  </si>
+  <si>
+    <t>(0.06436504618639556+0.0007750828766508058j)</t>
+  </si>
+  <si>
+    <t>(0.022847297726054826+4.626405965301654e-05j)</t>
+  </si>
+  <si>
+    <t>(0.025066970221068196+0.00020949217088044367j)</t>
+  </si>
+  <si>
+    <t>(0.07674427173510671+0.0012775935261053928j)</t>
+  </si>
+  <si>
+    <t>(-0.006577721318659713-0.00032708702985110227j)</t>
+  </si>
+  <si>
+    <t>(-0.04663789370056909-0.0014718112073661427j)</t>
+  </si>
+  <si>
+    <t>(0.07211906159652164+0.0019808438591893372j)</t>
+  </si>
+  <si>
+    <t>(0.17414959838783337+0.005757407686833577j)</t>
+  </si>
+  <si>
+    <t>(0.06302674351847955+0.0019752992808120522j)</t>
+  </si>
+  <si>
+    <t>(0.1188231768648006+0.004206771459713909j)</t>
+  </si>
+  <si>
+    <t>(-0.02812235918151355-0.0015216506493277672j)</t>
+  </si>
+  <si>
+    <t>(0.11533381056499478+0.004221257291335709j)</t>
+  </si>
+  <si>
+    <t>(-0.10091492292112468+0.0016923608652125853j)</t>
+  </si>
+  <si>
+    <t>(-0.10184343934326086+0.002822544663622124j)</t>
+  </si>
+  <si>
+    <t>(-0.10275387923968285+0.003947209153458535j)</t>
+  </si>
+  <si>
+    <t>(-0.10337045420993853+0.004823695805580438j)</t>
+  </si>
+  <si>
+    <t>(-0.10394838608887291+0.005696570984349665j)</t>
+  </si>
+  <si>
+    <t>(-0.10471484827641189+0.006503856722285232j)</t>
+  </si>
+  <si>
+    <t>(-0.10538172239339524+0.007125397463908328j)</t>
+  </si>
+  <si>
+    <t>(-0.10554227320948235+0.007679278834245767j)</t>
+  </si>
+  <si>
+    <t>(-0.10593944763136867+0.008052104203184213j)</t>
+  </si>
+  <si>
+    <t>(-0.10581552482707962+0.008412800742827376j)</t>
+  </si>
+  <si>
+    <t>(-0.10621679462921646+0.008455474474063788j)</t>
+  </si>
+  <si>
+    <t>(-0.062034551174871874+0.0009622021834143436j)</t>
+  </si>
+  <si>
+    <t>(-0.06154150550172906+0.0011524080280191633j)</t>
+  </si>
+  <si>
+    <t>(-0.04507462304195755+0.001030443968279456j)</t>
+  </si>
+  <si>
+    <t>(-0.07216656997145571+0.0017940958337751862j)</t>
+  </si>
+  <si>
+    <t>(-0.08550702510573957+0.0024139737169146577j)</t>
+  </si>
+  <si>
+    <t>(-0.046528068079519494+0.0012970994352425364j)</t>
+  </si>
+  <si>
+    <t>(-0.012520493505006305+9.899789586655192e-05j)</t>
+  </si>
+  <si>
+    <t>(-0.049510758437381584+0.0015483948114710605j)</t>
+  </si>
+  <si>
+    <t>(-0.030792024758890094+0.0008357504247877561j)</t>
+  </si>
+  <si>
+    <t>(-0.08019137211203257+0.0029754284150507906j)</t>
+  </si>
+  <si>
+    <t>(-0.03190798579029357+0.0009158169333729533j)</t>
+  </si>
+  <si>
+    <t>(-0.023390964962939676+0.00039744416918161435j)</t>
+  </si>
+  <si>
+    <t>(-0.02186696417833262+0.00032499015745025617j)</t>
+  </si>
+  <si>
+    <t>(0.011129323500628188+0.00019829334714092068j)</t>
+  </si>
+  <si>
+    <t>(-0.041859566953219456+0.00025854958906150385j)</t>
+  </si>
+  <si>
+    <t>(-0.06756956509282329+0.0002768365573909296j)</t>
+  </si>
+  <si>
+    <t>(0.008988983794561691+2.4078536540310955e-05j)</t>
+  </si>
+  <si>
+    <t>(0.07533178165223073-0.00011197234215094582j)</t>
+  </si>
+  <si>
+    <t>(0.0034750053347700717-3.420792483300387e-05j)</t>
+  </si>
+  <si>
+    <t>(0.039901289888178114-0.00011233704283461363j)</t>
+  </si>
+  <si>
+    <t>(-0.05577874584673894+3.959698751672603e-05j)</t>
+  </si>
+  <si>
+    <t>(0.03780196382809658-0.00013137448892076875j)</t>
+  </si>
+  <si>
+    <t>(0.015014343585597409+0.000220868831761772j)</t>
+  </si>
+  <si>
+    <t>(0.0171537318583089+0.0003054845888395075j)</t>
+  </si>
+  <si>
+    <t>(0.06580192673318601+0.0010239523467516006j)</t>
+  </si>
+  <si>
+    <t>(-0.012514494662514126-0.00012407882962085158j)</t>
+  </si>
+  <si>
+    <t>(-0.05022210108804699-0.0009753897008603748j)</t>
+  </si>
+  <si>
+    <t>(0.06174866334089913+0.0014946218897089751j)</t>
+  </si>
+  <si>
+    <t>(0.15812033896829825+0.0042722186955518795j)</t>
+  </si>
+  <si>
+    <t>(0.05331484889140315+0.0014699041937068905j)</t>
+  </si>
+  <si>
+    <t>(0.10606431199577943+0.0031157551313761604j)</t>
+  </si>
+  <si>
+    <t>(-0.03273858306632604-0.001137288169288099j)</t>
+  </si>
+  <si>
+    <t>(0.1028338872660033+0.003119922847043076j)</t>
+  </si>
+  <si>
+    <t>(0.053117805919355006+0.0005111975474814207j)</t>
+  </si>
+  <si>
+    <t>(0.05549561018167164+0.0010114816563875325j)</t>
+  </si>
+  <si>
+    <t>(0.11898004431976507+0.0031606058017960978j)</t>
+  </si>
+  <si>
+    <t>(0.01588605105633914+0.0003863208960368257j)</t>
+  </si>
+  <si>
+    <t>(-0.03347519890624977-0.0015401237171556574j)</t>
+  </si>
+  <si>
+    <t>(0.1119299771515763+0.004900708905722098j)</t>
+  </si>
+  <si>
+    <t>(0.23625683980208448+0.011787668264842566j)</t>
+  </si>
+  <si>
+    <t>(0.10023822853621048+0.005093011220866971j)</t>
+  </si>
+  <si>
+    <t>(0.1680719528650122+0.009154934697391039j)</t>
+  </si>
+  <si>
+    <t>(-0.011025616870649079-0.0010629014739053319j)</t>
+  </si>
+  <si>
+    <t>(0.16358291782216697+0.00924525221131825j)</t>
+  </si>
+  <si>
+    <t>(-0.10089852788529272+0.0015937607861107456j)</t>
+  </si>
+  <si>
+    <t>(-0.10183774362159581+0.002756170635451362j)</t>
+  </si>
+  <si>
+    <t>(-0.10273590128250192+0.003853136471718477j)</t>
+  </si>
+  <si>
+    <t>(-0.1034036499201564+0.0048183167913789975j)</t>
+  </si>
+  <si>
+    <t>(-0.1040101340295987+0.005718945934845933j)</t>
+  </si>
+  <si>
+    <t>(-0.10473813325760495+0.006453260967559585j)</t>
+  </si>
+  <si>
+    <t>(-0.10537527266316672+0.007019802745642066j)</t>
+  </si>
+  <si>
+    <t>(-0.10558903048298707+0.007627576559765365j)</t>
+  </si>
+  <si>
+    <t>(-0.10597186516897422+0.007966956480033954j)</t>
+  </si>
+  <si>
+    <t>(-0.10590752663326163+0.008400356244251051j)</t>
+  </si>
+  <si>
+    <t>(-0.1062579565053947+0.008365651732295143j)</t>
+  </si>
+  <si>
+    <t>(-0.05438796078805392+0.0007979614535123874j)</t>
+  </si>
+  <si>
+    <t>(-0.05362754076342603+0.0008886414650783451j)</t>
+  </si>
+  <si>
+    <t>(-0.03376218981007494+0.0006793243113324666j)</t>
+  </si>
+  <si>
+    <t>(-0.06606521931631806+0.0013556763802656338j)</t>
+  </si>
+  <si>
+    <t>(-0.08191125128772572+0.0018879583554095008j)</t>
+  </si>
+  <si>
+    <t>(-0.035189829236663146+0.0007599211790379467j)</t>
+  </si>
+  <si>
+    <t>(0.005536125676905887-0.00040329706214840594j)</t>
+  </si>
+  <si>
+    <t>(-0.03863076404461407+0.0009287610306705346j)</t>
+  </si>
+  <si>
+    <t>(-0.01621932544886545+0.00024086516922513823j)</t>
+  </si>
+  <si>
+    <t>(-0.07521795757630322+0.002221707202375492j)</t>
+  </si>
+  <si>
+    <t>(-0.017515115523421384+0.00029508801097278035j)</t>
+  </si>
+  <si>
+    <t>(-0.008157097569376081+0.0003165368714072538j)</t>
+  </si>
+  <si>
+    <t>(-0.0063109756643720365+0.00025211716574816226j)</t>
+  </si>
+  <si>
+    <t>(0.03305611587738969+0.0003579588243559377j)</t>
+  </si>
+  <si>
+    <t>(-0.030087736012157418+1.3538584777240728e-05j)</t>
+  </si>
+  <si>
+    <t>(-0.06062790074814146-0.00026516869660748j)</t>
+  </si>
+  <si>
+    <t>(0.030371637797811202+0.0003394570261898992j)</t>
+  </si>
+  <si>
+    <t>(0.10904156447400176+0.0011477798572291035j)</t>
+  </si>
+  <si>
+    <t>(0.023761946102404462+0.00028150921904452134j)</t>
+  </si>
+  <si>
+    <t>(0.06691026099192539+0.000766830149506009j)</t>
+  </si>
+  <si>
+    <t>(-0.04644492317340553-0.0005358146489512052j)</t>
+  </si>
+  <si>
+    <t>(0.06438516037093729+0.0007542957119292935j)</t>
+  </si>
+  <si>
+    <t>(0.03770276277756313+0.00043230159090577327j)</t>
+  </si>
+  <si>
+    <t>(0.04003779567361909+0.0007348070666307328j)</t>
+  </si>
+  <si>
+    <t>(0.09767204817059205+0.002195728788423313j)</t>
+  </si>
+  <si>
+    <t>(0.004472020337368595+0.00021413665696141764j)</t>
+  </si>
+  <si>
+    <t>(-0.04025274116116252-0.0012021380600110282j)</t>
+  </si>
+  <si>
+    <t>(0.09201678750010708+0.003375906046519353j)</t>
+  </si>
+  <si>
+    <t>(0.20544823624282188+0.00836659016937204j)</t>
+  </si>
+  <si>
+    <t>(0.0817033939641117+0.003484640116616655j)</t>
+  </si>
+  <si>
+    <t>(0.14368399517263536+0.006436173667917607j)</t>
+  </si>
+  <si>
+    <t>(-0.019685225575295368-0.001031536827351519j)</t>
+  </si>
+  <si>
+    <t>(0.13972932032651633+0.00649316670360191j)</t>
+  </si>
+  <si>
+    <t>(0.08307387673265826+0.001212818760714199j)</t>
+  </si>
+  <si>
+    <t>(0.08538767357357264+0.0021784855299553465j)</t>
+  </si>
+  <si>
+    <t>(0.16018601520221137+0.005671906745768104j)</t>
+  </si>
+  <si>
+    <t>(0.03768218513388474+0.0015537682804279422j)</t>
+  </si>
+  <si>
+    <t>(-0.020763390021927428-0.0012415004050001872j)</t>
+  </si>
+  <si>
+    <t>(0.15013391699022158+0.008727678114018584j)</t>
+  </si>
+  <si>
+    <t>(0.29557946910062727+0.019235079637795912j)</t>
+  </si>
+  <si>
+    <t>(0.13568265774590402+0.009189431820247368j)</t>
+  </si>
+  <si>
+    <t>(0.21486098913805446+0.015372365380190274j)</t>
+  </si>
+  <si>
+    <t>(0.005218529572652914+2.4129093189240625e-06j)</t>
+  </si>
+  <si>
+    <t>(0.20931561518048736+0.015559976206944553j)</t>
+  </si>
+  <si>
+    <t>(-0.10088937798901057+0.001428896505530875j)</t>
+  </si>
+  <si>
+    <t>(-0.1018423314673388+0.0026392693448055045j)</t>
+  </si>
+  <si>
+    <t>(-0.10272555804292434+0.0037180545244613924j)</t>
+  </si>
+  <si>
+    <t>(-0.10345280064041824+0.0047802776783784804j)</t>
+  </si>
+  <si>
+    <t>(-0.10409405133875191+0.005707095828084998j)</t>
+  </si>
+  <si>
+    <t>(-0.10476520804116762+0.006386609299641156j)</t>
+  </si>
+  <si>
+    <t>(-0.10535037843090471+0.006919948896438221j)</t>
+  </si>
+  <si>
+    <t>(-0.1056370378825141+0.00756106011688179j)</t>
+  </si>
+  <si>
+    <t>(-0.10599065046840998+0.007878753510316736j)</t>
+  </si>
+  <si>
+    <t>(-0.10602064686834753+0.008353102116964885j)</t>
+  </si>
+  <si>
+    <t>(-0.10628344784629776+0.008271772703054264j)</t>
+  </si>
+  <si>
+    <t>(-0.04675750250797563+0.0005799577912054365j)</t>
+  </si>
+  <si>
+    <t>(-0.04574788700204929+0.0006056227857836346j)</t>
+  </si>
+  <si>
+    <t>(-0.022509047859657384+0.000360023679484876j)</t>
+  </si>
+  <si>
+    <t>(-0.06002254544817136+0.0009417255046246576j)</t>
+  </si>
+  <si>
+    <t>(-0.07836915811979184+0.0013775611606503977j)</t>
+  </si>
+  <si>
+    <t>(-0.023972710751692595+0.0003613718773791255j)</t>
+  </si>
+  <si>
+    <t>(0.023389455065390755-0.0006288582855319728j)</t>
+  </si>
+  <si>
+    <t>(-0.027895503044702726+0.0004869772851738332j)</t>
+  </si>
+  <si>
+    <t>(-0.0018431825874915355-9.079295845573955e-05j)</t>
+  </si>
+  <si>
+    <t>(-0.07032989234156604+0.0015513070819013672j)</t>
+  </si>
+  <si>
+    <t>(-0.0033281217051520508-4.738929037875246e-05j)</t>
+  </si>
+  <si>
+    <t>(0.007012051112180224+0.00023985930751340779j)</t>
+  </si>
+  <si>
+    <t>(0.009115091912297254+0.0002458756447314947j)</t>
+  </si>
+  <si>
+    <t>(0.05472978703439947+0.0006922439430123127j)</t>
+  </si>
+  <si>
+    <t>(-0.01850525639614064-9.748296138260718e-05j)</t>
+  </si>
+  <si>
+    <t>(-0.05382984990712447-0.0006977107535959012j)</t>
+  </si>
+  <si>
+    <t>(0.05130444938709408+0.0010062168868355383j)</t>
+  </si>
+  <si>
+    <t>(0.14196784969131596+0.0030123012690779142j)</t>
+  </si>
+  <si>
+    <t>(0.043533555975595765+0.0010102904711505854j)</t>
+  </si>
+  <si>
+    <t>(0.09320150898749734+0.0022116277959356267j)</t>
+  </si>
+  <si>
+    <t>(-0.037374528315385305-0.0008726069068514986j)</t>
+  </si>
+  <si>
+    <t>(0.09022551808889792+0.0022284033930994817j)</t>
+  </si>
+  <si>
+    <t>(0.06022505558901355+0.0007417368837384853j)</t>
+  </si>
+  <si>
+    <t>(0.06262752032166688+0.001345916919561808j)</t>
+  </si>
+  <si>
+    <t>(0.12897682935638002+0.00371045373585364j)</t>
+  </si>
+  <si>
+    <t>(0.021074245646277284+0.0008070251192918041j)</t>
+  </si>
+  <si>
+    <t>(-0.030554536213127502-0.0012197081804001706j)</t>
+  </si>
+  <si>
+    <t>(0.12136665075498346+0.005807396441703566j)</t>
+  </si>
+  <si>
+    <t>(0.2511841717418851+0.013346821885453034j)</t>
+  </si>
+  <si>
+    <t>(0.10906786067793628+0.006113428881131452j)</t>
+  </si>
+  <si>
+    <t>(0.17987902412257023+0.010566703536860539j)</t>
+  </si>
+  <si>
+    <t>(-0.007138317676377726-0.0005485915030740135j)</t>
+  </si>
+  <si>
+    <t>(0.17516120405806582+0.010698370176383391j)</t>
+  </si>
+  <si>
+    <t>(0.11270742541827095+0.0021298514230471167j)</t>
+  </si>
+  <si>
+    <t>(0.11476086922856996+0.0036557837893321354j)</t>
+  </si>
+  <si>
+    <t>(0.20042031759304693+0.008697575285908005j)</t>
+  </si>
+  <si>
+    <t>(0.05885586607255957+0.003090983361091939j)</t>
+  </si>
+  <si>
+    <t>(-0.008469994667884694-0.0006421209187623715j)</t>
+  </si>
+  <si>
+    <t>(0.18686423136736127+0.013266782083750144j)</t>
+  </si>
+  <si>
+    <t>(0.35236370548631063+0.027774528412310765j)</t>
+  </si>
+  <si>
+    <t>(0.1695179045204396+0.01404656306545321j)</t>
+  </si>
+  <si>
+    <t>(0.2594169622374941+0.022564963398718732j)</t>
+  </si>
+  <si>
+    <t>(0.020683661476948494+0.0015516304989212134j)</t>
+  </si>
+  <si>
+    <t>(0.25276769875257477+0.022863771174384297j)</t>
+  </si>
+  <si>
+    <t>(-0.1008890023083914+0.0012087258884464407j)</t>
+  </si>
+  <si>
+    <t>(-0.10185776165294069+0.0024789898144860338j)</t>
+  </si>
+  <si>
+    <t>(-0.10272561502317902+0.0035461273718019257j)</t>
+  </si>
+  <si>
+    <t>(-0.10351410958852587+0.0047121353246986795j)</t>
+  </si>
+  <si>
+    <t>(-0.1041927222465116+0.005663685928311435j)</t>
+  </si>
+  <si>
+    <t>(-0.10479487674511609+0.006301096579593401j)</t>
+  </si>
+  <si>
+    <t>(-0.10531067651692125+0.006816875800144102j)</t>
+  </si>
+  <si>
+    <t>(-0.10568255768908272+0.007475767010968834j)</t>
+  </si>
+  <si>
+    <t>(-0.105994463246344+0.007780116878733712j)</t>
+  </si>
+  <si>
+    <t>(-0.10614513072628737+0.008271796232484713j)</t>
+  </si>
+  <si>
+    <t>(-0.10629096099107946+0.008166345244598916j)</t>
+  </si>
+  <si>
+    <t>(-0.03913341601215932+0.00031949192386060833j)</t>
+  </si>
+  <si>
+    <t>(-0.03789593742105932+0.0003119670936865856j)</t>
+  </si>
+  <si>
+    <t>(-0.011311648864751335+7.726111253188152e-05j)</t>
+  </si>
+  <si>
+    <t>(-0.05403645647832581+0.0005570275164771579j)</t>
+  </si>
+  <si>
+    <t>(-0.07487860996522781+0.0008882850829721931j)</t>
+  </si>
+  <si>
+    <t>(-0.012882058072308399+9.596031620564412e-05j)</t>
+  </si>
+  <si>
+    <t>(0.04102523651107595-0.0005966511803047211j)</t>
+  </si>
+  <si>
+    <t>(-0.0173132691314632+0.0002133622517372941j)</t>
+  </si>
+  <si>
+    <t>(0.012322549800979908-0.00017750274239993619j)</t>
+  </si>
+  <si>
+    <t>(-0.06552955628148063+0.0009640013099458773j)</t>
+  </si>
+  <si>
+    <t>(0.010638080625026749-0.00013160490744138634j)</t>
+  </si>
+  <si>
+    <t>(0.022125257693231957+0.0001755425860185729j)</t>
+  </si>
+  <si>
+    <t>(0.024420625837861257+0.0003054165648748359j)</t>
+  </si>
+  <si>
+    <t>(0.07616383884087614+0.0011858559757260856j)</t>
+  </si>
+  <si>
+    <t>(-0.007104131372470472-8.594171398140427e-05j)</t>
+  </si>
+  <si>
+    <t>(-0.047170611784856-0.0010289742634366507j)</t>
+  </si>
+  <si>
+    <t>(0.07180361172480686+0.001981328813204831j)</t>
+  </si>
+  <si>
+    <t>(0.17413881936451456+0.005399901742489839j)</t>
+  </si>
+  <si>
+    <t>(0.06280671604942854+0.002098997192179088j)</t>
+  </si>
+  <si>
+    <t>(0.11879906788566617+0.004145173875981604j)</t>
+  </si>
+  <si>
+    <t>(-0.028561157222996864-0.0009968042291501325j)</t>
+  </si>
+  <si>
+    <t>(0.11534742404975434+0.004210198948445575j)</t>
+  </si>
+  <si>
+    <t>(0.0825843423892479+0.001146650744242103j)</t>
+  </si>
+  <si>
+    <t>(0.08493609935695884+0.0021191958635958202j)</t>
+  </si>
+  <si>
+    <t>(0.1597477535785238+0.0055193490521720035j)</t>
+  </si>
+  <si>
+    <t>(0.037314483955702804+0.0016178750038163363j)</t>
+  </si>
+  <si>
+    <t>(-0.0211123742600929-0.001056925288597063j)</t>
+  </si>
+  <si>
+    <t>(0.14985963646819242+0.00869477288691817j)</t>
+  </si>
+  <si>
+    <t>(0.29544050300115765+0.019050152028104783j)</t>
+  </si>
+  <si>
+    <t>(0.13547919701063776+0.009247392808899213j)</t>
+  </si>
+  <si>
+    <t>(0.2147512631563185+0.015357670191564686j)</t>
+  </si>
+  <si>
+    <t>(0.004933921247080846+0.0002517232866018926j)</t>
+  </si>
+  <si>
+    <t>(0.20923502533400232+0.015580699412876558j)</t>
+  </si>
+  <si>
+    <t>(0.14201576183339182+0.003241749294379886j)</t>
+  </si>
+  <si>
+    <t>(0.14363552934090212+0.005398084771869581j)</t>
+  </si>
+  <si>
+    <t>(0.2397410737131491+0.012146966911280541j)</t>
+  </si>
+  <si>
+    <t>(0.07945059051498447+0.004931929600386984j)</t>
+  </si>
+  <si>
+    <t>(0.0034359989579101167+0.00020631435337875318j)</t>
+  </si>
+  <si>
+    <t>(0.22224455744924093+0.018368609820476597j)</t>
+  </si>
+  <si>
+    <t>(0.40683499006768237+0.03715916348282428j)</t>
+  </si>
+  <si>
+    <t>(0.20188846773030655+0.019498668550029893j)</t>
+  </si>
+  <si>
+    <t>(0.30194600144503775+0.030510318763930296j)</t>
+  </si>
+  <si>
+    <t>(0.03543794616229173+0.003490567811059531j)</t>
+  </si>
+  <si>
+    <t>(0.29415296438109145+0.03092895672450997j)</t>
+  </si>
+  <si>
+    <t>(-0.10089871926396335+0.000941667859989724j)</t>
+  </si>
+  <si>
+    <t>(-0.10188441621033943+0.00228095668087337j)</t>
+  </si>
+  <si>
+    <t>(-0.10273777743000508+0.0033405666098464304j)</t>
+  </si>
+  <si>
+    <t>(-0.10358458617378259+0.004616490638567203j)</t>
+  </si>
+  <si>
+    <t>(-0.10430056326634307+0.005591734845237684j)</t>
+  </si>
+  <si>
+    <t>(-0.10482567885346449+0.006195249902689225j)</t>
+  </si>
+  <si>
+    <t>(-0.10525789926052802+0.00670430119106447j)</t>
+  </si>
+  <si>
+    <t>(-0.10572227443526135+0.0073697249555944614j)</t>
+  </si>
+  <si>
+    <t>(-0.10598159059814866+0.007666476823420603j)</t>
+  </si>
+  <si>
+    <t>(-0.1062735202306864+0.008158421963398034j)</t>
+  </si>
+  <si>
+    <t>(-0.10627810781552616+0.008044871520478924j)</t>
+  </si>
+  <si>
+    <t>(-0.03150919072454819+2.6753893684536187e-05j)</t>
+  </si>
+  <si>
+    <t>(-0.030067344338404318+1.4984347602519957e-05j)</t>
+  </si>
+  <si>
+    <t>(-0.000167701878751763-0.00016548666736360994j)</t>
+  </si>
+  <si>
+    <t>(-0.04810566160734506+0.00020474773096238255j)</t>
+  </si>
+  <si>
+    <t>(-0.07143832501932317+0.00042384426051390883j)</t>
+  </si>
+  <si>
+    <t>(-0.0019213738719048423-4.311690068207265e-05j)</t>
+  </si>
+  <si>
+    <t>(0.058434413654198686-0.000326343422302349j)</t>
+  </si>
+  <si>
+    <t>(-0.006889401308896484+9.702659529964877e-05j)</t>
+  </si>
+  <si>
+    <t>(0.026269104013926837-3.834035392043722e-05j)</t>
+  </si>
+  <si>
+    <t>(-0.06081867986736486+0.00045782552551275975j)</t>
+  </si>
+  <si>
+    <t>(0.02437408535039692+2.1728630162333196e-05j)</t>
+  </si>
+  <si>
+    <t>(0.037188423484126154+0.00013069578551884505j)</t>
+  </si>
+  <si>
+    <t>(0.03961294409555012+0.000430014861568309j)</t>
+  </si>
+  <si>
+    <t>(0.09737019953675552+0.0018258853966772951j)</t>
+  </si>
+  <si>
+    <t>(0.0041230199871175625+3.7992806166079766e-05j)</t>
+  </si>
+  <si>
+    <t>(-0.04064563996360371-0.0012666359834724267j)</t>
+  </si>
+  <si>
+    <t>(0.091886153883765+0.0032279207537845972j)</t>
+  </si>
+  <si>
+    <t>(0.20558501034026366+0.008241251169158435j)</t>
+  </si>
+  <si>
+    <t>(0.08160007920469223+0.0035020449094976154j)</t>
+  </si>
+  <si>
+    <t>(0.14372974970337749+0.00650193853668482j)</t>
+  </si>
+  <si>
+    <t>(-0.0199973268934913-0.0009314170909425483j)</t>
+  </si>
+  <si>
+    <t>(0.13977838680751195+0.006630837771994949j)</t>
+  </si>
+  <si>
+    <t>(0.10478358905992227+0.0016441752570764184j)</t>
+  </si>
+  <si>
+    <t>(0.10697599978771895+0.0030382137186248438j)</t>
+  </si>
+  <si>
+    <t>(0.19001460833655828+0.007582732913189464j)</t>
+  </si>
+  <si>
+    <t>(0.05321375153708944+0.002616749343401204j)</t>
+  </si>
+  <si>
+    <t>(-0.011911913549536276-0.0007375038834917065j)</t>
+  </si>
+  <si>
+    <t>(0.17755334606060896+0.011962453223450164j)</t>
+  </si>
+  <si>
+    <t>(0.33832213720774407+0.025347064503997423j)</t>
+  </si>
+  <si>
+    <t>(0.16100386052149795+0.012799488995398267j)</t>
+  </si>
+  <si>
+    <t>(0.24839578708811894+0.020689932745176585j)</t>
+  </si>
+  <si>
+    <t>(0.01656175912025328+0.0013208873880974083j)</t>
+  </si>
+  <si>
+    <t>(0.24204918841100562+0.021016965206445574j)</t>
+  </si>
+  <si>
+    <t>(0.17099996386166613+0.00452946342201668j)</t>
+  </si>
+  <si>
+    <t>(0.17203292020186134+0.007367820160396302j)</t>
+  </si>
+  <si>
+    <t>(0.27820403322125764+0.01594745119635861j)</t>
+  </si>
+  <si>
+    <t>(0.09950689497746196+0.007024311525980222j)</t>
+  </si>
+  <si>
+    <t>(0.014983252400864582+0.001262904127912839j)</t>
+  </si>
+  <si>
+    <t>(0.25638701297444383+0.02391742244746298j)</t>
+  </si>
+  <si>
+    <t>(0.45919588583636445+0.04719954784037339j)</t>
+  </si>
+  <si>
+    <t>(0.23292405536341498+0.025418297298500505j)</t>
+  </si>
+  <si>
+    <t>(0.34263226858091334+0.03903833368353205j)</t>
+  </si>
+  <si>
+    <t>(0.04954301356145731+0.0057459891104131335j)</t>
+  </si>
+  <si>
+    <t>(0.3336619769213141+0.03958171848420441j)</t>
+  </si>
+  <si>
+    <t>(-0.10091956743892513+0.0006343161558376179j)</t>
+  </si>
+  <si>
+    <t>(-0.1019224989502984+0.0020496954996666473j)</t>
+  </si>
+  <si>
+    <t>(-0.10276299024078991+0.0031039870352467082j)</t>
+  </si>
+  <si>
+    <t>(-0.10366188671863681+0.004495864067582252j)</t>
+  </si>
+  <si>
+    <t>(-0.10441340077790386+0.00549429656603353j)</t>
+  </si>
+  <si>
+    <t>(-0.10485613883972757+0.006068532026370054j)</t>
+  </si>
+  <si>
+    <t>(-0.10519268744110397+0.006577982464258459j)</t>
+  </si>
+  <si>
+    <t>(-0.10575340476102842+0.007242283506129562j)</t>
+  </si>
+  <si>
+    <t>(-0.10595034104846184+0.00753523160618395j)</t>
+  </si>
+  <si>
+    <t>(-0.10640018658028672+0.008015562776628923j)</t>
+  </si>
+  <si>
+    <t>(-0.10624274667365712+0.007904917058340191j)</t>
+  </si>
+  <si>
+    <t>(-0.023880658212333584-0.00028928156319567674j)</t>
+  </si>
+  <si>
+    <t>(-0.02225933176786008-0.00027921802246043604j)</t>
+  </si>
+  <si>
+    <t>(0.010924271421185884-0.00036573889821340003j)</t>
+  </si>
+  <si>
+    <t>(-0.042229306582651935-0.00011315193989559923j)</t>
+  </si>
+  <si>
+    <t>(-0.06804747978725247-1.3381581550909059e-05j)</t>
+  </si>
+  <si>
+    <t>(0.008907377588814606-6.322425647867021e-05j)</t>
+  </si>
+  <si>
+    <t>(0.07561194434956295+0.0001628103212574102j)</t>
+  </si>
+  <si>
+    <t>(0.003373130409584077+0.00012677240995033565j)</t>
+  </si>
+  <si>
+    <t>(0.03999164862744797+0.0003079447090608866j)</t>
+  </si>
+  <si>
+    <t>(-0.056198307005350355+2.9758544728833013e-05j)</t>
+  </si>
+  <si>
+    <t>(0.03787473436904603+0.0003923471964473106j)</t>
+  </si>
+  <si>
+    <t>(0.052205404229861085+0.00011134649605646667j)</t>
+  </si>
+  <si>
+    <t>(0.05469783408642494+0.0006189029528991406j)</t>
+  </si>
+  <si>
+    <t>(0.11835945928660663+0.002601257049534271j)</t>
+  </si>
+  <si>
+    <t>(0.015183051446258379+0.00026522825456260564j)</t>
+  </si>
+  <si>
+    <t>(-0.034250575235575384-0.0014178452705814694j)</t>
+  </si>
+  <si>
+    <t>(0.1115692580857803+0.004714316498394981j)</t>
+  </si>
+  <si>
+    <t>(0.23633771206335802+0.011477387929443356j)</t>
+  </si>
+  <si>
+    <t>(0.09993303499667701+0.0051802860747655385j)</t>
+  </si>
+  <si>
+    <t>(0.16802152430524708+0.009226005189566115j)</t>
+  </si>
+  <si>
+    <t>(-0.011674931154788199-0.0006967539621400413j)</t>
+  </si>
+  <si>
+    <t>(0.16354728224422+0.009431574561512225j)</t>
+  </si>
+  <si>
+    <t>(0.12682564953344094+0.0022312580118579346j)</t>
+  </si>
+  <si>
+    <t>(0.1287588614112943+0.004089060690675162j)</t>
+  </si>
+  <si>
+    <t>(0.21980511390964164+0.00986799330708019j)</t>
+  </si>
+  <si>
+    <t>(0.06879155441719186+0.003778963506382425j)</t>
+  </si>
+  <si>
+    <t>(-0.002939762488627437-0.0002811796449561275j)</t>
+  </si>
+  <si>
+    <t>(0.20450096281061114+0.015549264733745306j)</t>
+  </si>
+  <si>
+    <t>(0.37992552798359974+0.03213350795493165j)</t>
+  </si>
+  <si>
+    <t>(0.18570311337462056+0.016699436592043017j)</t>
+  </si>
+  <si>
+    <t>(0.2808999828588281+0.02646773112564169j)</t>
+  </si>
+  <si>
+    <t>(0.027773459350032566+0.002619137182960257j)</t>
+  </si>
+  <si>
+    <t>(0.27369410115321213+0.026908200434490718j)</t>
+  </si>
+  <si>
+    <t>(0.19966367301850518+0.00597570924098624j)</t>
+  </si>
+  <si>
+    <t>(0.19997424831492994+0.009533686021404949j)</t>
+  </si>
+  <si>
+    <t>(0.3158614828363218+0.020040359300360296j)</t>
+  </si>
+  <si>
+    <t>(0.11906193247083571+0.009326254168373002j)</t>
+  </si>
+  <si>
+    <t>(0.02619782792197107+0.0024948701578761754j)</t>
+  </si>
+  <si>
+    <t>(0.28939216773107+0.029822565554727835j)</t>
+  </si>
+  <si>
+    <t>(0.5096267784338704+0.05774871831737926j)</t>
+  </si>
+  <si>
+    <t>(0.2627400364863259+0.03170629529978556j)</t>
+  </si>
+  <si>
+    <t>(0.38163896844456574+0.04801742956235374j)</t>
+  </si>
+  <si>
+    <t>(0.06305393434067046+0.008260211881070696j)</t>
+  </si>
+  <si>
+    <t>(0.3714632853348455+0.04868782933123333j)</t>
   </si>
 </sst>
 </file>
